--- a/docs/C2PRO_CRONOGRAMA_MAESTRO_v1.0.xlsx
+++ b/docs/C2PRO_CRONOGRAMA_MAESTRO_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE193E1-003E-4822-95D1-8620CC308CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378B0C16-DEED-4A2D-B89C-FD7C7717B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="📊 Resumen Ejecutivo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="📅 Timeline Semanal" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'📋 Backlog Completo'!$A$1:$Q$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'📋 Backlog Completo'!$A$1:$Q$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="880">
   <si>
     <t>C2Pro - Cronograma Maestro MVP Fase 1</t>
   </si>
@@ -3744,37 +3744,6 @@
   </si>
   <si>
     <t>Esta actividad es la "Constitución" del sistema.En el software Enterprise (y más en construcción), los usuarios no confían en las "Cajas Negras". Si un Director de Proyecto ve una nota de 45/100, su primera pregunta será: "¿Por qué? ¿Cómo se calcula eso?".Este documento (scoring_methodology_v1.md) es la respuesta oficial. Debe ser lo suficientemente técnico para el CTO y lo suficientemente claro para que el equipo de Ventas pueda explicarlo al cliente.📝 Actividad: CE-S4-008Nombre: Documentar Fórmula Score Auditoría (Whitepaper Interno)Dominio: Documentation / AI GovernanceStory Points: 0.5Dependencias: CE-S4-007 (Pesos calibrados)Gate: Gate 5 (Auditability)🚀 Prompt OptimizadoContexto:Hemos calibrado el motor de IA y tenemos los pesos finales (CRITICAL, HIGH, MEDIUM, LOW).Ahora debemos "congelar" esta lógica en un documento oficial antes de lanzar la V1.Este documento servirá de base para la auditoría técnica y para responder dudas de clientes sobre la imparcialidad del algoritmo.La fórmula debe ser determinista: Mismos inputs = Mismo Score.Rol:Actúa como un Technical Writer con conocimientos de Data Science.Tarea:Crear el archivo docs/coherence_engine/scoring_methodology_v1.md.Requisitos del Contenido:Definición de la Fórmula Matemática:Documenta explícitamente cómo se llega al número final.Sugerencia de modelo: Modelo Deductivo (Score de Penalización).$$Score = 100 - \sum (Weight_i \times Count_i)$$(Con un suelo de 0, no negativos).O Modelo de Promedio Ponderado. Elige el que hayamos implementado en el código y explícalo con LaTeX.Tabla de Pesos (Weight Table):Lista los valores exactos acordados tras la calibración (S4-007).CRITICAL: (ej. -15 puntos).HIGH: (ej. -5 puntos).MEDIUM: (ej. -2 puntos).LOW: (ej. -0.5 puntos).Catálogo de Reglas V1:Lista las 10 reglas activas (R2, R6, R12, etc.) con una breve descripción de "Qué penaliza".Ejemplo: "R14 (Supply Chain): Penaliza si la fecha de pedido calculada es anterior a hoy."Justificación de Calibración:Añade una nota breve indicando que estos pesos fueron validados contra un dataset de 20 proyectos reales con una correlación de &gt;0.85 respecto al juicio experto.Control de Versiones:Encabezado con Version: 1.0, Date: 2026-01-24, Status: APPROVED.Entregable:Contenido en formato Markdown profesional, listo para ser commiteado al repositorio.</t>
-  </si>
-  <si>
-    <t>sta actividad es el puente final entre la inteligencia de la IA y el usuario.
-El Coherence Engine ha detectado los problemas, el AlertGenerator los ha formateado, y ahora la API debe entregarlos al Frontend de manera ordenada. No podemos enviar 500 alertas de golpe; necesitamos filtrar, paginar y, lo más importante, permitir que el usuario interactúe con ellas (Marcarlas como resueltas o falsos positivos).
-Aquí tienes el prompt optimizado para un Backend Lead.
-📝 Actividad: CE-S4-009
-Nombre: Endpoints /projects/{id}/alerts (Management &amp; Resolution) Dominio: Backend / API Story Points: 1 Dependencias: CE-S4-006 (Alert Generator), CE-S2-001 (Schemas) Prioridad: P0 (Core Feature)
-🚀 Prompt Optimizado
-Contexto: El motor de coherencia ha generado alertas en la base de datos. Ahora necesitamos exponerlas al Frontend mediante una API RESTful en apps/api/src/routers/alerts.py. Este no es un simple endpoint de lectura; es un Panel de Gestión de Riesgos. El usuario debe poder:
-Ver las alertas filtradas por severidad ("Muéstrame solo lo Crítico").
-Entender la evidencia (JSON estructurado).
-Actuar sobre la alerta: Resolverla (si ya arregló el problema) o Descartarla (si cree que la IA se equivoca). Esto es vital para el Feedback Loop.
-Rol: Actúa como un Backend Lead experto en diseño de APIs limpias y filtrado de datos.
-Tarea: Implementar el router de alertas.
-Requisitos Técnicos:
-Endpoint de Listado (GET /projects/{id}/alerts):
-Filtros (Query Params):
-severity: List[str] (ej. ?severity=CRITICAL&amp;severity=HIGH).
-status: List[str] (ej. ?status=OPEN). Por defecto, mostrar solo OPEN.
-category: str (ej. COST, SCHEDULE, SCOPE).
-Ordenamiento: Las alertas CRITICAL deben aparecer siempre primero.
-Respuesta: Lista de objetos AlertRead. Asegúrate de incluir source_clause_id y affected_object_ids para que el frontend pueda generar los hipervínculos.
-Endpoint de Actualización (PATCH /alerts/{alert_id}):
-Permitir modificar solo el status y añadir un user_comment.
-Estados Válidos: OPEN -&gt; RESOLVED (Usuario dice que lo arregló) | DISMISSED (Usuario dice que es falso positivo).
-Seguridad: Verificar que el usuario tiene permisos de escritura en el proyecto al que pertenece la alerta.
-Endpoint de Detalle (GET /alerts/{alert_id}):
-Retornar el objeto completo, incluyendo el evidence_json detallado (que en el listado podría ir resumido si es muy grande).
-Optimización SQL:
-Asegúrate de tener índices en project_id, status y severity en la tabla de alertas, ya que este endpoint será consultado frecuentemente.
-Entregable: Código Python del router alerts.py con los modelos Pydantic de Request/Response necesarios.</t>
   </si>
   <si>
     <t>Esta actividad consolida la gestión de documentos en una sola pieza de infraestructura API. Combina la Subida Asíncrona (que dispara a Celery), el Listado (que sirve para el Polling de estado) y el Borrado (limpieza).
@@ -6010,6 +5979,40 @@
 Snippet de cómo llamar a esta tarea desde el endpoint de Upload (routers/documents.py).</t>
   </si>
   <si>
+    <t>sta actividad es el puente final entre la inteligencia de la IA y el usuario.
+El Coherence Engine ha detectado los problemas, el AlertGenerator los ha formateado, y ahora la API debe entregarlos al Frontend de manera ordenada. No podemos enviar 500 alertas de golpe; necesitamos filtrar, paginar y, lo más importante, permitir que el usuario interactúe con ellas (Marcarlas como resueltas o falsos positivos).
+Aquí tienes el prompt optimizado para un Backend Lead.
+📝 Actividad: CE-S4-009
+Nombre: Endpoints /projects/{id}/alerts (Management &amp; Resolution) Dominio: Backend / API Story Points: 1 Dependencias: CE-S4-006 (Alert Generator), CE-S2-001 (Schemas) Prioridad: P0 (Core Feature)
+🚀 Prompt Optimizado
+Contexto: El motor de coherencia ha generado alertas en la base de datos. Ahora necesitamos exponerlas al Frontend mediante una API RESTful en apps/api/src/routers/alerts.py. Este no es un simple endpoint de lectura; es un Panel de Gestión de Riesgos. El usuario debe poder:
+Ver las alertas filtradas por severidad ("Muéstrame solo lo Crítico").
+Entender la evidencia (JSON estructurado).
+Actuar sobre la alerta: Resolverla (si ya arregló el problema) o Descartarla (si cree que la IA se equivoca). Esto es vital para el Feedback Loop.
+Rol: Actúa como un Backend Lead experto en diseño de APIs limpias y filtrado de datos.
+Tarea: Implementar el router de alertas.
+Requisitos Técnicos:
+Endpoint de Listado (GET /projects/{id}/alerts):
+Filtros (Query Params):
+severity: List[str] (ej. ?severity=CRITICAL&amp;severity=HIGH).
+status: List[str] (ej. ?status=OPEN). Por defecto, mostrar solo OPEN.
+category: str (ej. COST, SCHEDULE, SCOPE).
+Ordenamiento: Las alertas CRITICAL deben aparecer siempre primero.
+Respuesta: Lista de objetos AlertRead. Asegúrate de incluir source_clause_id y affected_object_ids para que el frontend pueda generar los hipervínculos.
+Endpoint de Actualización (PATCH /alerts/{alert_id}):
+Permitir modificar solo el status y añadir un user_comment.
+Estados Válidos: OPEN -&gt; RESOLVED (Usuario dice que lo arregló) | DISMISSED (Usuario dice que es falso positivo).
+Seguridad: Verificar que el usuario tiene permisos de escritura en el proyecto al que pertenece la alerta.
+Endpoint de Detalle (GET /alerts/{alert_id}):
+Retornar el objeto completo, incluyendo el evidence_json detallado (que en el listado podría ir resumido si es muy grande).
+Optimización SQL:
+Asegúrate de tener índices en project_id, status y severity en la tabla de alertas, ya que este endpoint será consultado frecuentemente.
+Entregable: Python del router alerts.py con los modelos Pydantic de Request/Response necesarios.</t>
+  </si>
+  <si>
+    <t>codex y luego claude</t>
+  </si>
+  <si>
     <t>Revisando el Roadmap original y las actividades que hemos desplegado, efectivamente saltamos la implementación explícita de LangGraph.
 En el Sprint 3 (CE-S3-006) definimos el "Orquestador" de forma conceptual, y en el Sprint 5 hicimos el RAG. Pero para que este sistema sea realmente "Agentic" (capaz de tomar decisiones, reintentar y pedir feedback humano), no basta con if/else en Python. Necesitamos una máquina de estados.
 LangGraph es la pieza clave para manejar el flujo: Ingesta -&gt; Router -&gt; Agente Riesgos / Agente WBS -&gt; Validación Humana -&gt; Base de Datos.
@@ -6050,7 +6053,7 @@
 Actualiza el endpoint POST /analyze (S6-009) para que, en lugar de llamar a una función simple, invoque app.invoke(inputs).
 Entregable:
 Estructura de carpetas src/ai/graph/.
-Archivo workflow.py con la lógica de LangGraph implementada.</t>
+ workflow.py con la lógica de LangGraph implementada.</t>
   </si>
   <si>
     <t>LangGraph es el corazón del sistema.
@@ -6111,7 +6114,7 @@
 Visualización: Genera el diagrama del grafo (app.get_graph().draw_png()) y guárdalo en una ruta estática para poder verlo y depurar.
 Manejo de Recursión: Configura recursion_limit=10 para evitar que el agente se quede en un bucle infinito de "Extracción -&gt; Crítica -&gt; Reintento".
 Entregable:
-apps/api/src/ai/graph/schema.py (State).
+apps/api/src/ai/graph/schema.pyok (State).
 apps/api/src/ai/graph/nodes.py (Lógica de agentes y crítico).
 apps/api/src/ai/graph/workflow.py (Definición del grafo y compilación).
 Script de prueba tests/ai/test_graph_flow.py que simule un ciclo completo con crítica negativa inicial.</t>
@@ -6239,12 +6242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFE8F4F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFE8F4F8"/>
       </patternFill>
@@ -6277,6 +6274,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFE6F4E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFF0E6F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -6327,7 +6330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6380,17 +6383,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6401,13 +6404,19 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8188,10 +8197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W142"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
@@ -8271,7 +8280,7 @@
       <c r="Q1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>684</v>
       </c>
       <c r="V1" t="str">
@@ -8337,8 +8346,8 @@
       <c r="R2" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S2" s="31" t="s">
-        <v>836</v>
+      <c r="S2" s="30" t="s">
+        <v>835</v>
       </c>
       <c r="V2" t="str">
         <f>A2 &amp; " " &amp; B2 &amp; " " &amp; C2 &amp; " " &amp; D2 &amp; " " &amp; E2 &amp; " " &amp; F2 &amp; " " &amp; G2 &amp; " " &amp; H2 &amp; " " &amp; I2 &amp; " " &amp; J2 &amp; " " &amp; K2 &amp; " " &amp; L2 &amp; " " &amp; M2 &amp; " " &amp; N2 &amp; " " &amp; O2 &amp; " " &amp; P2</f>
@@ -8403,11 +8412,11 @@
       <c r="R3" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S3" s="31" t="s">
-        <v>830</v>
+      <c r="S3" s="30" t="s">
+        <v>829</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V85" si="0">A3 &amp; " " &amp; B3 &amp; " " &amp; C3 &amp; " " &amp; D3 &amp; " " &amp; E3 &amp; " " &amp; F3 &amp; " " &amp; G3 &amp; " " &amp; H3 &amp; " " &amp; I3 &amp; " " &amp; J3 &amp; " " &amp; K3 &amp; " " &amp; L3 &amp; " " &amp; M3 &amp; " " &amp; N3 &amp; " " &amp; O3 &amp; " " &amp; P3</f>
+        <f t="shared" ref="V3:V84" si="0">A3 &amp; " " &amp; B3 &amp; " " &amp; C3 &amp; " " &amp; D3 &amp; " " &amp; E3 &amp; " " &amp; F3 &amp; " " &amp; G3 &amp; " " &amp; H3 &amp; " " &amp; I3 &amp; " " &amp; J3 &amp; " " &amp; K3 &amp; " " &amp; L3 &amp; " " &amp; M3 &amp; " " &amp; N3 &amp; " " &amp; O3 &amp; " " &amp; P3</f>
         <v>CE-S2-002 Schemas Pydantic Analysis Module Sprint 2 Semana 2 2026-01-09 2026-01-10 2 P0 done Backend Gate 5 Ninguna Backend Lead DTOs Alert/Analysis con evidence_json y validaciones Pydantic v2 Bajo apps/api/src/modules/analysis/schemas.py</v>
       </c>
       <c r="W3" t="s">
@@ -8754,8 +8763,8 @@
       <c r="H9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>679</v>
+      <c r="I9" s="10" t="s">
+        <v>676</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>99</v>
@@ -8789,7 +8798,7 @@
       </c>
       <c r="V9" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S2-008 Prompt Templates con Versioning Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 en curso AI Gate 5 Ninguna AI Lead Template engine con variables versión en metadata Bajo Avanzamos con la octava actividad del Sprint 2.
+        <v>CE-S2-008 Prompt Templates con Versioning Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done AI Gate 5 Ninguna AI Lead Template engine con variables versión en metadata Bajo Avanzamos con la octava actividad del Sprint 2.
 Esta tarea, aunque pequeña en Story Points (1 SP), tiene un impacto enorme en la Calidad (Quality Assurance) y la experiencia del desarrollador frontend (DX). Una API que devuelve errores inconsistentes (a veces un string, a veces un JSON plano, a veces el default de Pydantic) es una pesadilla para integrar. Necesitamos estandarizar esto antes de empezar con el Frontend.
 📝 Actividad 8: CE-S2-009
 Nombre: Error Handling Consistente API Dominio: Backend Story Points: 1 Dependencias: Ninguna
@@ -8882,7 +8891,7 @@
       <c r="R10" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="26" t="s">
         <v>690</v>
       </c>
       <c r="V10" t="str">
@@ -8948,7 +8957,7 @@
       <c r="R11" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="S11" s="30" t="s">
+      <c r="S11" s="29" t="s">
         <v>689</v>
       </c>
       <c r="V11" t="str">
@@ -8985,7 +8994,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>126</v>
@@ -9010,14 +9019,14 @@
         <v>2</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="S12" s="30" t="s">
+        <v>877</v>
+      </c>
+      <c r="S12" s="29" t="s">
         <v>683</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S2-011 Setup Next.js 14 + Tailwind + shadcn/ui Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 en curso Frontend  Ninguna Frontend Lead Proyecto configurado componentes base app renderiza Bajo apps/web/</v>
+        <v>CE-S2-011 Setup Next.js 14 + Tailwind + shadcn/ui Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done Frontend  Ninguna Frontend Lead Proyecto configurado componentes base app renderiza Bajo apps/web/</v>
       </c>
       <c r="W12" t="s">
         <v>723</v>
@@ -9076,7 +9085,7 @@
       <c r="R13" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="28" t="s">
         <v>695</v>
       </c>
       <c r="V13" t="str">
@@ -9140,7 +9149,7 @@
       <c r="R14" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="28" t="s">
         <v>696</v>
       </c>
       <c r="V14" t="str">
@@ -9204,7 +9213,7 @@
       <c r="R15" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="28" t="s">
         <v>687</v>
       </c>
       <c r="V15" t="str">
@@ -9270,10 +9279,10 @@
       <c r="R16" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="S16" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="T16" s="29" t="s">
+      <c r="T16" s="28" t="s">
         <v>685</v>
       </c>
       <c r="V16" t="str">
@@ -9339,10 +9348,10 @@
       <c r="R17" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="S17" s="28" t="s">
         <v>686</v>
       </c>
-      <c r="T17" s="29" t="s">
+      <c r="T17" s="28" t="s">
         <v>691</v>
       </c>
       <c r="V17" t="str">
@@ -9408,10 +9417,10 @@
       <c r="R18" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="28" t="s">
         <v>704</v>
       </c>
       <c r="V18" t="str">
@@ -9477,10 +9486,10 @@
       <c r="R19" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S19" s="29" t="s">
+      <c r="S19" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="T19" s="29" t="s">
+      <c r="T19" s="28" t="s">
         <v>705</v>
       </c>
       <c r="V19" t="str">
@@ -9546,10 +9555,10 @@
       <c r="R20" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S20" s="29" t="s">
+      <c r="S20" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="T20" s="29" t="s">
+      <c r="T20" s="28" t="s">
         <v>794</v>
       </c>
       <c r="V20" t="str">
@@ -9615,7 +9624,7 @@
       <c r="R21" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S21" s="29" t="s">
+      <c r="S21" s="28" t="s">
         <v>710</v>
       </c>
       <c r="V21" t="str">
@@ -9681,7 +9690,7 @@
       <c r="R22" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="28" t="s">
         <v>795</v>
       </c>
       <c r="V22" t="str">
@@ -9693,7 +9702,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="36" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -9747,10 +9756,10 @@
       <c r="R23" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="S23" s="29" t="s">
+      <c r="S23" s="28" t="s">
         <v>796</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="29" t="s">
         <v>692</v>
       </c>
       <c r="V23" t="str">
@@ -9816,10 +9825,10 @@
       <c r="R24" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="S24" s="29" t="s">
+      <c r="S24" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="T24" s="28" t="s">
+      <c r="T24" s="27" t="s">
         <v>693</v>
       </c>
       <c r="V24" t="str">
@@ -9883,10 +9892,10 @@
       <c r="R25" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="S25" s="29" t="s">
+      <c r="S25" s="28" t="s">
         <v>798</v>
       </c>
-      <c r="T25" s="28" t="s">
+      <c r="T25" s="27" t="s">
         <v>694</v>
       </c>
       <c r="V25" t="str">
@@ -9950,13 +9959,13 @@
       <c r="R26" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="S26" s="28" t="s">
         <v>800</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="T26" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="U26" s="30" t="s">
+      <c r="U26" s="29" t="s">
         <v>806</v>
       </c>
       <c r="V26" t="str">
@@ -10022,7 +10031,7 @@
       <c r="R27" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="28" t="s">
         <v>799</v>
       </c>
       <c r="U27" t="e" cm="1">
@@ -10087,8 +10096,8 @@
       <c r="Q28" s="13">
         <v>2</v>
       </c>
-      <c r="S28" s="29" t="s">
-        <v>834</v>
+      <c r="S28" s="28" t="s">
+        <v>833</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
@@ -10150,7 +10159,7 @@
       <c r="Q29" s="13">
         <v>2</v>
       </c>
-      <c r="R29" s="29" t="s">
+      <c r="R29" s="28" t="s">
         <v>706</v>
       </c>
       <c r="V29" t="str">
@@ -10162,11 +10171,11 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>19</v>
@@ -10213,14 +10222,17 @@
       <c r="Q30" s="13">
         <v>3</v>
       </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="S30" s="28" t="s">
         <v>711</v>
       </c>
-      <c r="S30" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="T30" s="25" t="s">
+      <c r="T30" s="29" t="s">
         <v>878</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>879</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="0"/>
@@ -10231,7 +10243,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="36" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -10282,7 +10294,7 @@
       <c r="Q31" s="13">
         <v>2</v>
       </c>
-      <c r="S31" s="25" t="s">
+      <c r="S31" s="24" t="s">
         <v>801</v>
       </c>
       <c r="V31" t="str">
@@ -10294,7 +10306,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="36" t="s">
         <v>222</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -10345,10 +10357,10 @@
       <c r="Q32" s="13">
         <v>5</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="24" t="s">
         <v>688</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="24" t="s">
         <v>698</v>
       </c>
       <c r="V32" t="str">
@@ -10360,7 +10372,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="36" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -10411,7 +10423,7 @@
       <c r="Q33" s="13">
         <v>5</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="24" t="s">
         <v>699</v>
       </c>
       <c r="V33" t="str">
@@ -10423,7 +10435,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -10474,10 +10486,10 @@
       <c r="Q34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="25" t="s">
+      <c r="S34" s="24" t="s">
         <v>803</v>
       </c>
-      <c r="T34" s="25" t="s">
+      <c r="T34" s="24" t="s">
         <v>804</v>
       </c>
       <c r="V34" t="str">
@@ -10540,10 +10552,10 @@
       <c r="Q35" s="13">
         <v>2</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="24" t="s">
         <v>805</v>
       </c>
       <c r="V35" t="str">
@@ -10606,10 +10618,10 @@
       <c r="Q36" s="13">
         <v>2</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="R36" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="S36" s="24" t="s">
         <v>807</v>
       </c>
       <c r="V36" t="str">
@@ -10672,7 +10684,7 @@
       <c r="Q37" s="13">
         <v>1</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="S37" s="24" t="s">
         <v>808</v>
       </c>
       <c r="V37" t="str">
@@ -10709,7 +10721,7 @@
         <v>15</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>188</v>
@@ -10735,12 +10747,15 @@
       <c r="Q38" s="13">
         <v>2</v>
       </c>
-      <c r="S38" s="25" t="s">
-        <v>809</v>
+      <c r="R38" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>876</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-009 Endpoints /projects/{id}/alerts Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 Pendiente API Gate 4 CE-S2-001 Backend Lead List filtros/Get/Resolve incluye source_clause_id Bajo apps/api/src/routers/alerts.py</v>
+        <v>CE-S4-009 Endpoints /projects/{id}/alerts Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 done API Gate 4 CE-S2-001 Backend Lead List filtros/Get/Resolve incluye source_clause_id Bajo apps/api/src/routers/alerts.py</v>
       </c>
       <c r="W38" t="s">
         <v>749</v>
@@ -10772,7 +10787,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>74</v>
+        <v>679</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>188</v>
@@ -10796,12 +10811,15 @@
       <c r="Q39" s="13">
         <v>2</v>
       </c>
-      <c r="S39" s="25" t="s">
-        <v>810</v>
+      <c r="R39" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="S39" s="29" t="s">
+        <v>809</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-010 Endpoints /projects/{id}/documents Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 Pendiente API  CE-S2-001;CE-S3-006 Backend Lead Upload async status polling List/Get/Delete Bajo apps/api/src/routers/documents.py</v>
+        <v>CE-S4-010 Endpoints /projects/{id}/documents Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 en curso API  CE-S2-001;CE-S3-006 Backend Lead Upload async status polling List/Get/Delete Bajo apps/api/src/routers/documents.py</v>
       </c>
       <c r="W39" t="s">
         <v>750</v>
@@ -10833,7 +10851,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>93</v>
@@ -10857,12 +10875,15 @@
       <c r="Q40" s="13">
         <v>2</v>
       </c>
-      <c r="S40" s="25" t="s">
-        <v>811</v>
+      <c r="R40" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-011 Script Rollback Automatizado Sprint 3 Semana 4 2026-01-21 2026-01-21 1 P0 Pendiente DevOps  Ninguna DevOps Rollback DB PITR + código git revert staging Medio scripts/rollback.sh</v>
+        <v>CE-S4-011 Script Rollback Automatizado Sprint 3 Semana 4 2026-01-21 2026-01-21 1 P0 done DevOps  Ninguna DevOps Rollback DB PITR + código git revert staging Medio scripts/rollback.sh</v>
       </c>
       <c r="W40" t="s">
         <v>751</v>
@@ -10894,7 +10915,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>188</v>
@@ -10918,12 +10939,15 @@
       <c r="Q41" s="13">
         <v>2</v>
       </c>
-      <c r="S41" s="25" t="s">
-        <v>812</v>
+      <c r="R41" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>811</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-012 Paginación Cursor-based Endpoints Sprint 3 Semana 4 2026-01-23 2026-01-23 1 P0 Pendiente API  CE-S3-008 Backend Lead Ningún endpoint &gt;100 items sin paginar Bajo apps/api/src/core/pagination.py</v>
+        <v>CE-S4-012 Paginación Cursor-based Endpoints Sprint 3 Semana 4 2026-01-23 2026-01-23 1 P0 done API  CE-S3-008 Backend Lead Ningún endpoint &gt;100 items sin paginar Bajo apps/api/src/core/pagination.py</v>
       </c>
       <c r="W41" t="s">
         <v>752</v>
@@ -10955,7 +10979,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>140</v>
@@ -10979,12 +11003,15 @@
       <c r="Q42" s="13">
         <v>2</v>
       </c>
-      <c r="S42" s="25" t="s">
-        <v>813</v>
+      <c r="R42" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>812</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-013 Optimizar Queries SQL EXPLAIN Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P1 Pendiente Performance  Ninguna Backend Lead Queries lentas optimizadas 0 queries &gt;100ms Medio docs/performance/sql_optimization.md</v>
+        <v>CE-S4-013 Optimizar Queries SQL EXPLAIN Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P1 done Performance  Ninguna Backend Lead Queries lentas optimizadas 0 queries &gt;100ms Medio docs/performance/sql_optimization.md</v>
       </c>
       <c r="W42" t="s">
         <v>753</v>
@@ -11016,7 +11043,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>276</v>
@@ -11040,12 +11067,15 @@
       <c r="Q43" s="13">
         <v>1</v>
       </c>
-      <c r="S43" s="25" t="s">
-        <v>814</v>
+      <c r="R43" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="S43" s="28" t="s">
+        <v>813</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-014 Índices Adicionales Búsqueda Sprint 3 Semana 4 2026-01-24 2026-01-24 0,5 P1 Pendiente Database  CE-S4-013 Backend Lead Índices campos filtro queries búsqueda &lt;50ms Bajo infrastructure/supabase/migrations/007_indexes.sql</v>
+        <v>CE-S4-014 Índices Adicionales Búsqueda Sprint 3 Semana 4 2026-01-24 2026-01-24 0,5 P1 done Database  CE-S4-013 Backend Lead Índices campos filtro queries búsqueda &lt;50ms Bajo infrastructure/supabase/migrations/007_indexes.sql</v>
       </c>
       <c r="W43" t="s">
         <v>754</v>
@@ -11103,8 +11133,8 @@
       <c r="Q44" s="13">
         <v>2</v>
       </c>
-      <c r="S44" s="25" t="s">
-        <v>815</v>
+      <c r="S44" s="24" t="s">
+        <v>814</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="0"/>
@@ -11132,8 +11162,8 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
-      <c r="S45" s="25" t="s">
-        <v>818</v>
+      <c r="S45" s="24" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11154,8 +11184,8 @@
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
-      <c r="S46" s="25" t="s">
-        <v>819</v>
+      <c r="S46" s="24" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11176,8 +11206,8 @@
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
-      <c r="S47" s="25" t="s">
-        <v>820</v>
+      <c r="S47" s="24" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11198,8 +11228,8 @@
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
-      <c r="S48" s="25" t="s">
-        <v>821</v>
+      <c r="S48" s="24" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11220,8 +11250,8 @@
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
-      <c r="S49" s="25" t="s">
-        <v>822</v>
+      <c r="S49" s="24" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11242,8 +11272,8 @@
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
-      <c r="S50" s="25" t="s">
-        <v>823</v>
+      <c r="S50" s="24" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11264,8 +11294,8 @@
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
-      <c r="S51" s="25" t="s">
-        <v>824</v>
+      <c r="S51" s="24" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11286,36 +11316,85 @@
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
-      <c r="S52" s="25" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="S53" s="25"/>
+      <c r="S52" s="24" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" s="14">
+        <v>3</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>5</v>
+      </c>
+      <c r="S53" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="T53" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="U53" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="0"/>
+        <v>CE-S5-001 StakeholderExtractorAgent Sprint 4 Semana 5 2026-01-27 2026-01-29 3 P0 Pendiente AI Gate 5 CE-S4-001 AI Lead Extracción NLP nombres/roles &gt;80% accuracy golden Alto apps/api/src/agents/stakeholder_extractor.py</v>
+      </c>
+      <c r="W53" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="54" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>20</v>
@@ -11324,13 +11403,13 @@
         <v>285</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G54" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>15</v>
@@ -11345,46 +11424,40 @@
         <v>41</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="M54" s="14" t="s">
         <v>100</v>
       </c>
       <c r="N54" s="14" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q54" s="14">
-        <v>5</v>
-      </c>
-      <c r="S54" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="T54" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="U54" s="25" t="s">
-        <v>827</v>
+        <v>2</v>
+      </c>
+      <c r="S54" s="24" t="s">
+        <v>825</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-001 StakeholderExtractorAgent Sprint 4 Semana 5 2026-01-27 2026-01-29 3 P0 Pendiente AI Gate 5 CE-S4-001 AI Lead Extracción NLP nombres/roles &gt;80% accuracy golden Alto apps/api/src/agents/stakeholder_extractor.py</v>
+        <v>CE-S5-002 StakeholderClassifier Power/Interest Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S5-001 AI Lead Cuadrante asignado automáticamente 4 cuadrantes Medio apps/api/src/services/stakeholder_classifier.py</v>
       </c>
       <c r="W54" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>20</v>
@@ -11393,13 +11466,13 @@
         <v>285</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G55" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>15</v>
@@ -11411,98 +11484,57 @@
         <v>99</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M55" s="14" t="s">
         <v>100</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q55" s="14">
-        <v>2</v>
-      </c>
-      <c r="S55" s="25" t="s">
-        <v>826</v>
+        <v>5</v>
+      </c>
+      <c r="R55" s="24" t="s">
+        <v>707</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-002 StakeholderClassifier Power/Interest Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S5-001 AI Lead Cuadrante asignado automáticamente 4 cuadrantes Medio apps/api/src/services/stakeholder_classifier.py</v>
+        <v>CE-S5-003 RACIGeneratorAgent Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P0 Pendiente AI Gate 6 CE-S5-001;CE-S4-003 AI Lead Matriz RACI generada requires_review=True Alto apps/api/src/agents/raci_generator.py</v>
       </c>
       <c r="W55" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="G56" s="14">
-        <v>2</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L56" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="M56" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N56" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="P56" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q56" s="14">
-        <v>5</v>
-      </c>
-      <c r="R56" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="0"/>
-        <v>CE-S5-003 RACIGeneratorAgent Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P0 Pendiente AI Gate 6 CE-S5-001;CE-S4-003 AI Lead Matriz RACI generada requires_review=True Alto apps/api/src/agents/raci_generator.py</v>
-      </c>
-      <c r="W56" t="s">
-        <v>758</v>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="24" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11514,7 +11546,9 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="11"/>
-      <c r="I57" s="14"/>
+      <c r="I57" s="14" t="s">
+        <v>676</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -11523,8 +11557,8 @@
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
-      <c r="R57" s="25" t="s">
-        <v>828</v>
+      <c r="R57" s="28" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11547,7 +11581,7 @@
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
-      <c r="R58" s="29" t="s">
+      <c r="R58" s="28" t="s">
         <v>845</v>
       </c>
     </row>
@@ -11560,19 +11594,22 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="14" t="s">
-        <v>676</v>
-      </c>
+      <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
+      <c r="P59" s="31" t="s">
+        <v>847</v>
+      </c>
       <c r="Q59" s="14"/>
-      <c r="R59" s="29" t="s">
+      <c r="R59" s="27" t="s">
         <v>846</v>
+      </c>
+      <c r="S59" s="27" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11584,22 +11621,19 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="14"/>
+      <c r="I60" s="14" t="s">
+        <v>679</v>
+      </c>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
-      <c r="P60" s="35" t="s">
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="29" t="s">
         <v>848</v>
-      </c>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="S60" s="28" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11612,7 +11646,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="11"/>
       <c r="I61" s="14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -11622,7 +11656,7 @@
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
-      <c r="R61" s="30" t="s">
+      <c r="R61" s="28" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11635,9 +11669,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="11"/>
-      <c r="I62" s="14" t="s">
-        <v>676</v>
-      </c>
+      <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
@@ -11646,7 +11678,7 @@
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
-      <c r="R62" s="29" t="s">
+      <c r="R62" s="24" t="s">
         <v>850</v>
       </c>
     </row>
@@ -11668,7 +11700,7 @@
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
-      <c r="R63" s="25" t="s">
+      <c r="R63" s="24" t="s">
         <v>851</v>
       </c>
     </row>
@@ -11690,11 +11722,11 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
-      <c r="R64" s="25" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="R64" s="24" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -11712,36 +11744,77 @@
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
-      <c r="R65" s="25" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="25"/>
+      <c r="R65" s="24"/>
+    </row>
+    <row r="66" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G66" s="14">
+        <v>2</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q66" s="14">
+        <v>3</v>
+      </c>
+      <c r="S66" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" si="0"/>
+        <v>CE-S5-004 Human-in-Loop Workflow Backend Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Backend Gate 6 CE-S2-001 Backend Lead Endpoint aprobar/rechazar outputs agentes Alto apps/api/src/routers/approvals.py</v>
+      </c>
+      <c r="W66" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="67" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>20</v>
@@ -11750,16 +11823,16 @@
         <v>285</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G67" s="14">
         <v>2</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>15</v>
+      <c r="H67" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>74</v>
@@ -11768,43 +11841,43 @@
         <v>75</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="M67" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N67" s="14" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q67" s="14">
         <v>3</v>
       </c>
-      <c r="S67" s="25" t="s">
-        <v>829</v>
+      <c r="S67" s="24" t="s">
+        <v>830</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-004 Human-in-Loop Workflow Backend Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Backend Gate 6 CE-S2-001 Backend Lead Endpoint aprobar/rechazar outputs agentes Alto apps/api/src/routers/approvals.py</v>
+        <v>CE-S5-005 Knowledge Graph Básico NetworkX Sprint 4 Semana 5 2026-01-30 2026-01-31 2 P1 Pendiente Backend Gate 4 CE-S4-003 Backend Lead Nodos + edges queries multi-hop funcionan Medio apps/api/src/services/knowledge_graph.py</v>
       </c>
       <c r="W67" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>20</v>
@@ -11813,61 +11886,61 @@
         <v>285</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G68" s="14">
         <v>2</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>16</v>
+      <c r="H68" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>74</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q68" s="14">
         <v>3</v>
       </c>
-      <c r="S68" s="25" t="s">
+      <c r="S68" s="24" t="s">
         <v>831</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-005 Knowledge Graph Básico NetworkX Sprint 4 Semana 5 2026-01-30 2026-01-31 2 P1 Pendiente Backend Gate 4 CE-S4-003 Backend Lead Nodos + edges queries multi-hop funcionan Medio apps/api/src/services/knowledge_graph.py</v>
+        <v>CE-S5-006 Prompt Extracción Cláusulas Optimizado Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;85% accuracy tipo/código/texto golden dataset Alto prompts/v1/clause_extraction.md</v>
       </c>
       <c r="W68" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>20</v>
@@ -11876,13 +11949,13 @@
         <v>285</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G69" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>15</v>
@@ -11903,34 +11976,37 @@
         <v>100</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q69" s="14">
-        <v>3</v>
-      </c>
-      <c r="S69" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69" s="24" t="s">
         <v>832</v>
+      </c>
+      <c r="T69" s="24" t="s">
+        <v>834</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-006 Prompt Extracción Cláusulas Optimizado Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;85% accuracy tipo/código/texto golden dataset Alto prompts/v1/clause_extraction.md</v>
+        <v>CE-S5-007 Prompt Clasificación Stakeholders Sprint 4 Semana 5 2026-01-29 2026-01-29 1 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;80% accuracy clasificación poder/interés Medio prompts/v1/stakeholder_classification.md</v>
       </c>
       <c r="W69" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>20</v>
@@ -11939,10 +12015,10 @@
         <v>285</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G70" s="14">
         <v>1</v>
@@ -11960,43 +12036,46 @@
         <v>41</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>100</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O70" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q70" s="14">
         <v>2</v>
       </c>
-      <c r="S70" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="T70" s="25" t="s">
-        <v>835</v>
+      <c r="S70" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="T70" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="U70" s="24" t="s">
+        <v>838</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-007 Prompt Clasificación Stakeholders Sprint 4 Semana 5 2026-01-29 2026-01-29 1 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;80% accuracy clasificación poder/interés Medio prompts/v1/stakeholder_classification.md</v>
+        <v>CE-S5-008 LlmRuleEvaluator Base Class Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S2-007 AI Lead Evaluador prompts reglas cualitativas interface Medio apps/api/src/coherence/llm_rule_evaluator.py</v>
       </c>
       <c r="W70" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>20</v>
@@ -12005,16 +12084,16 @@
         <v>285</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G71" s="14">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>74</v>
@@ -12026,46 +12105,43 @@
         <v>41</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="M71" s="14" t="s">
         <v>100</v>
       </c>
       <c r="N71" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P71" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q71" s="14">
-        <v>2</v>
-      </c>
-      <c r="S71" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="T71" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="U71" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S71" s="24" t="s">
         <v>839</v>
+      </c>
+      <c r="T71" s="24" t="s">
+        <v>840</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-008 LlmRuleEvaluator Base Class Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S2-007 AI Lead Evaluador prompts reglas cualitativas interface Medio apps/api/src/coherence/llm_rule_evaluator.py</v>
+        <v>CE-S5-009 Primera Regla LLM Cualitativa Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P1 Pendiente AI Gate 5 CE-S5-008 AI Lead Regla detectar ambigüedades alcance evaluable Alto apps/api/src/coherence/rules/scope_ambiguity.py</v>
       </c>
       <c r="W71" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>20</v>
@@ -12074,64 +12150,61 @@
         <v>285</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G72" s="14">
-        <v>2</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>74</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q72" s="14">
-        <v>3</v>
-      </c>
-      <c r="S72" s="25" t="s">
-        <v>840</v>
-      </c>
-      <c r="T72" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S72" s="24" t="s">
         <v>841</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-009 Primera Regla LLM Cualitativa Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P1 Pendiente AI Gate 5 CE-S5-008 AI Lead Regla detectar ambigüedades alcance evaluable Alto apps/api/src/coherence/rules/scope_ambiguity.py</v>
+        <v>CE-S5-010 Endpoints /projects/{id}/stakeholders Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD + clasificación source_clause_id Bajo apps/api/src/routers/stakeholders.py</v>
       </c>
       <c r="W72" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>20</v>
@@ -12140,13 +12213,13 @@
         <v>285</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G73" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>15</v>
@@ -12158,7 +12231,7 @@
         <v>188</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L73" s="14" t="s">
         <v>85</v>
@@ -12167,34 +12240,34 @@
         <v>77</v>
       </c>
       <c r="N73" s="14" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O73" s="14" t="s">
         <v>79</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q73" s="14">
-        <v>2</v>
-      </c>
-      <c r="S73" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" s="24" t="s">
         <v>842</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-010 Endpoints /projects/{id}/stakeholders Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD + clasificación source_clause_id Bajo apps/api/src/routers/stakeholders.py</v>
+        <v>CE-S5-011 Endpoints /projects/{id}/raci Sprint 4 Semana 5 2026-01-29 2026-01-29 0,5 P0 Pendiente API Gate 6 CE-S2-003 Backend Lead Get matrix/Update human-in-loop flag Bajo apps/api/src/routers/raci.py</v>
       </c>
       <c r="W73" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>20</v>
@@ -12203,13 +12276,13 @@
         <v>285</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G74" s="14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>15</v>
@@ -12218,46 +12291,46 @@
         <v>74</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q74" s="14">
-        <v>1</v>
-      </c>
-      <c r="S74" s="25" t="s">
-        <v>843</v>
+        <v>3</v>
+      </c>
+      <c r="S74" s="24" t="s">
+        <v>852</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-011 Endpoints /projects/{id}/raci Sprint 4 Semana 5 2026-01-29 2026-01-29 0,5 P0 Pendiente API Gate 6 CE-S2-003 Backend Lead Get matrix/Update human-in-loop flag Bajo apps/api/src/routers/raci.py</v>
+        <v>CE-S5-012 Dashboard Observabilidad Básico Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Frontend Gate 7 CE-S2-011 Frontend Lead Vista consumo tokens alertas automáticas budget Medio apps/web/src/pages/admin/observability.tsx</v>
       </c>
       <c r="W74" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>20</v>
@@ -12266,13 +12339,13 @@
         <v>285</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G75" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>15</v>
@@ -12281,46 +12354,46 @@
         <v>74</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O75" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q75" s="14">
-        <v>3</v>
-      </c>
-      <c r="S75" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S75" s="24" t="s">
         <v>853</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-012 Dashboard Observabilidad Básico Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Frontend Gate 7 CE-S2-011 Frontend Lead Vista consumo tokens alertas automáticas budget Medio apps/web/src/pages/admin/observability.tsx</v>
+        <v>CE-S5-013 Rate Limiting por Tenant Redis Sprint 4 Semana 5 2026-01-30 2026-01-30 1 P0 Pendiente Security Gate 7 CE-S2-004 Security Lead 60 req/min tenant 20 req/min user configurable Medio apps/api/src/middleware/rate_limiter.py</v>
       </c>
       <c r="W75" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>20</v>
@@ -12329,10 +12402,10 @@
         <v>285</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G76" s="14">
         <v>1</v>
@@ -12344,46 +12417,46 @@
         <v>74</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O76" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q76" s="14">
         <v>2</v>
       </c>
-      <c r="S76" s="25" t="s">
-        <v>854</v>
+      <c r="S76" s="24" t="s">
+        <v>856</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-013 Rate Limiting por Tenant Redis Sprint 4 Semana 5 2026-01-30 2026-01-30 1 P0 Pendiente Security Gate 7 CE-S2-004 Security Lead 60 req/min tenant 20 req/min user configurable Medio apps/api/src/middleware/rate_limiter.py</v>
+        <v>CE-S5-014 Budget Alerts Email/Webhook Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Notificaciones admin 50/75/90/100% budget Medio apps/api/src/services/budget_alerts.py</v>
       </c>
       <c r="W76" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>20</v>
@@ -12407,61 +12480,61 @@
         <v>74</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L77" s="14" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="N77" s="14" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O77" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P77" s="14" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q77" s="14">
         <v>2</v>
       </c>
-      <c r="S77" s="25" t="s">
+      <c r="S77" s="24" t="s">
         <v>857</v>
       </c>
       <c r="V77" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-014 Budget Alerts Email/Webhook Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Notificaciones admin 50/75/90/100% budget Medio apps/api/src/services/budget_alerts.py</v>
+        <v>CE-S5-015 Tests Integración Stakeholder Flow Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Testing Gate 5 CE-S5-001;CE-S5-003 QA Lead Extracción Clasificación RACI flujo completo Medio tests/integration/stakeholders/</v>
       </c>
       <c r="W77" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G78" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>15</v>
@@ -12470,46 +12543,46 @@
         <v>74</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="O78" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q78" s="14">
-        <v>2</v>
-      </c>
-      <c r="S78" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S78" s="24" t="s">
         <v>858</v>
       </c>
       <c r="V78" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-015 Tests Integración Stakeholder Flow Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Testing Gate 5 CE-S5-001;CE-S5-003 QA Lead Extracción Clasificación RACI flujo completo Medio tests/integration/stakeholders/</v>
+        <v>CE-S6-001 Vista Dashboard + Score Gauge Sprint 4 Semana 6 2026-02-02 2026-02-03 2 P0 Pendiente Frontend Gate 6 CE-S3-007 Frontend Lead Score 0-100 visual colores carga &lt;2s gauge animado Medio apps/web/src/pages/dashboard.tsx</v>
       </c>
       <c r="W78" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>20</v>
@@ -12521,10 +12594,10 @@
         <v>354</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G79" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>15</v>
@@ -12535,44 +12608,45 @@
       <c r="J79" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K79" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="K79" s="14"/>
       <c r="L79" s="14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M79" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q79" s="14">
-        <v>3</v>
-      </c>
-      <c r="S79" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S79" s="24" t="s">
         <v>859</v>
+      </c>
+      <c r="T79" s="24" t="s">
+        <v>860</v>
       </c>
       <c r="V79" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-001 Vista Dashboard + Score Gauge Sprint 4 Semana 6 2026-02-02 2026-02-03 2 P0 Pendiente Frontend Gate 6 CE-S3-007 Frontend Lead Score 0-100 visual colores carga &lt;2s gauge animado Medio apps/web/src/pages/dashboard.tsx</v>
+        <v>CE-S6-002 Vista Lista Proyectos Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Frontend  CE-S3-008 Frontend Lead Filtros estado/búsqueda/orden paginación Bajo apps/web/src/pages/projects/index.tsx</v>
       </c>
       <c r="W79" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
-        <v>358</v>
+      <c r="A80" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>20</v>
@@ -12581,13 +12655,13 @@
         <v>353</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G80" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>15</v>
@@ -12598,45 +12672,44 @@
       <c r="J80" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K80" s="14"/>
+      <c r="K80" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="L80" s="14" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="M80" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P80" s="14" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q80" s="14">
-        <v>2</v>
-      </c>
-      <c r="S80" s="25" t="s">
-        <v>860</v>
-      </c>
-      <c r="T80" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S80" s="24" t="s">
         <v>861</v>
       </c>
       <c r="V80" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-002 Vista Lista Proyectos Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Frontend  CE-S3-008 Frontend Lead Filtros estado/búsqueda/orden paginación Bajo apps/web/src/pages/projects/index.tsx</v>
+        <v>CE-S6-003 Evidence Viewer Links Cláusulas Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P0 Pendiente Frontend Gate 4 CE-S4-009 Frontend Lead Click alerta cláusula WBS/BOM navegación bidireccional Alto apps/web/src/components/EvidenceViewer.tsx</v>
       </c>
       <c r="W80" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>20</v>
@@ -12645,13 +12718,13 @@
         <v>353</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>364</v>
       </c>
       <c r="G81" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>15</v>
@@ -12662,44 +12735,42 @@
       <c r="J81" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K81" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="K81" s="14"/>
       <c r="L81" s="14" t="s">
-        <v>253</v>
+        <v>362</v>
       </c>
       <c r="M81" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q81" s="14">
-        <v>5</v>
-      </c>
-      <c r="S81" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S81" s="24" t="s">
         <v>862</v>
       </c>
       <c r="V81" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-003 Evidence Viewer Links Cláusulas Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P0 Pendiente Frontend Gate 4 CE-S4-009 Frontend Lead Click alerta cláusula WBS/BOM navegación bidireccional Alto apps/web/src/components/EvidenceViewer.tsx</v>
+        <v>CE-S6-004 Panel Alertas Filtros Severidad Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Frontend  CE-S6-003 Frontend Lead Vista alertas abiertas/resolved filtros bulk actions Bajo apps/web/src/pages/alerts.tsx</v>
       </c>
       <c r="W81" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>20</v>
@@ -12711,10 +12782,10 @@
         <v>364</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G82" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>15</v>
@@ -12725,42 +12796,44 @@
       <c r="J82" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K82" s="14"/>
+      <c r="K82" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="L82" s="14" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="M82" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q82" s="14">
-        <v>2</v>
-      </c>
-      <c r="S82" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S82" s="24" t="s">
         <v>863</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-004 Panel Alertas Filtros Severidad Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Frontend  CE-S6-003 Frontend Lead Vista alertas abiertas/resolved filtros bulk actions Bajo apps/web/src/pages/alerts.tsx</v>
+        <v>CE-S6-005 Stakeholder Map Matriz Poder/Interés Sprint 4 Semana 6 2026-02-04 2026-02-05 2 P0 Pendiente Frontend Gate 6 CE-S5-010 Frontend Lead Visualización interactiva cuadrantes drag &amp; drop Medio apps/web/src/components/StakeholderMap.tsx</v>
       </c>
       <c r="W82" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>20</v>
@@ -12769,13 +12842,13 @@
         <v>353</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>373</v>
       </c>
       <c r="G83" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>15</v>
@@ -12790,40 +12863,40 @@
         <v>45</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M83" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O83" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P83" s="14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q83" s="14">
-        <v>3</v>
-      </c>
-      <c r="S83" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S83" s="24" t="s">
         <v>864</v>
       </c>
       <c r="V83" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-005 Stakeholder Map Matriz Poder/Interés Sprint 4 Semana 6 2026-02-04 2026-02-05 2 P0 Pendiente Frontend Gate 6 CE-S5-010 Frontend Lead Visualización interactiva cuadrantes drag &amp; drop Medio apps/web/src/components/StakeholderMap.tsx</v>
+        <v>CE-S6-006 RACI Viewer Editable Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Frontend Gate 6 CE-S5-011 Frontend Lead Tabla WBS x Stakeholders RACI edición inline Medio apps/web/src/components/RACIViewer.tsx</v>
       </c>
       <c r="W83" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>20</v>
@@ -12838,7 +12911,7 @@
         <v>373</v>
       </c>
       <c r="G84" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>15</v>
@@ -12853,40 +12926,40 @@
         <v>45</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="M84" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O84" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q84" s="14">
-        <v>2</v>
-      </c>
-      <c r="S84" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S84" s="24" t="s">
         <v>865</v>
       </c>
       <c r="V84" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-006 RACI Viewer Editable Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Frontend Gate 6 CE-S5-011 Frontend Lead Tabla WBS x Stakeholders RACI edición inline Medio apps/web/src/components/RACIViewer.tsx</v>
+        <v>CE-S6-007 Modal Human-in-Loop Confirmación Sprint 4 Semana 6 2026-02-05 2026-02-05 0,5 P0 Pendiente Frontend Gate 6 CE-S5-004 Frontend Lead Confirmación aprobar/rechazar outputs IA workflow Medio apps/web/src/components/ApprovalModal.tsx</v>
       </c>
       <c r="W84" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>20</v>
@@ -12895,13 +12968,13 @@
         <v>353</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G85" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>15</v>
@@ -12910,46 +12983,49 @@
         <v>74</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L85" s="14" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P85" s="14" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q85" s="14">
-        <v>1</v>
-      </c>
-      <c r="S85" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S85" s="24" t="s">
         <v>866</v>
       </c>
+      <c r="T85" s="24" t="s">
+        <v>867</v>
+      </c>
       <c r="V85" t="str">
-        <f t="shared" si="0"/>
-        <v>CE-S6-007 Modal Human-in-Loop Confirmación Sprint 4 Semana 6 2026-02-05 2026-02-05 0,5 P0 Pendiente Frontend Gate 6 CE-S5-004 Frontend Lead Confirmación aprobar/rechazar outputs IA workflow Medio apps/web/src/components/ApprovalModal.tsx</v>
+        <f t="shared" ref="V85:V100" si="1">A85 &amp; " " &amp; B85 &amp; " " &amp; C85 &amp; " " &amp; D85 &amp; " " &amp; E85 &amp; " " &amp; F85 &amp; " " &amp; G85 &amp; " " &amp; H85 &amp; " " &amp; I85 &amp; " " &amp; J85 &amp; " " &amp; K85 &amp; " " &amp; L85 &amp; " " &amp; M85 &amp; " " &amp; N85 &amp; " " &amp; O85 &amp; " " &amp; P85</f>
+        <v>CE-S6-008 Endpoints /projects/{id}/wbs y /bom Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD WBS/BOM jerarquía WBS representada Bajo apps/api/src/routers/wbs.py</v>
       </c>
       <c r="W85" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>20</v>
@@ -12958,10 +13034,10 @@
         <v>353</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G86" s="14">
         <v>1</v>
@@ -12975,47 +13051,42 @@
       <c r="J86" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K86" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="K86" s="14"/>
       <c r="L86" s="14" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="M86" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N86" s="14" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O86" s="14" t="s">
         <v>79</v>
       </c>
       <c r="P86" s="14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q86" s="14">
         <v>2</v>
       </c>
-      <c r="S86" s="25" t="s">
-        <v>867</v>
-      </c>
-      <c r="T86" s="25" t="s">
+      <c r="S86" s="24" t="s">
         <v>868</v>
       </c>
       <c r="V86" t="str">
-        <f t="shared" ref="V86:V101" si="1">A86 &amp; " " &amp; B86 &amp; " " &amp; C86 &amp; " " &amp; D86 &amp; " " &amp; E86 &amp; " " &amp; F86 &amp; " " &amp; G86 &amp; " " &amp; H86 &amp; " " &amp; I86 &amp; " " &amp; J86 &amp; " " &amp; K86 &amp; " " &amp; L86 &amp; " " &amp; M86 &amp; " " &amp; N86 &amp; " " &amp; O86 &amp; " " &amp; P86</f>
-        <v>CE-S6-008 Endpoints /projects/{id}/wbs y /bom Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD WBS/BOM jerarquía WBS representada Bajo apps/api/src/routers/wbs.py</v>
+        <f t="shared" si="1"/>
+        <v>CE-S6-009 Endpoint POST /projects/{id}/analyze Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente API  CE-S3-006 Backend Lead Trigger análisis async retorna job_id polling Bajo apps/api/src/routers/analysis.py</v>
       </c>
       <c r="W86" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>20</v>
@@ -13024,10 +13095,10 @@
         <v>353</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G87" s="14">
         <v>1</v>
@@ -13039,44 +13110,46 @@
         <v>74</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="K87" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="L87" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M87" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q87" s="14">
         <v>2</v>
       </c>
-      <c r="S87" s="25" t="s">
+      <c r="S87" s="24" t="s">
         <v>869</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-009 Endpoint POST /projects/{id}/analyze Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente API  CE-S3-006 Backend Lead Trigger análisis async retorna job_id polling Bajo apps/api/src/routers/analysis.py</v>
+        <v>CE-S6-010 Propagar clause_id a WBS Items Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead funded_by_clause_id auto 100% WBS con FK Medio apps/api/src/services/wbs_service.py</v>
       </c>
       <c r="W87" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>20</v>
@@ -13085,10 +13158,10 @@
         <v>353</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G88" s="14">
         <v>1</v>
@@ -13112,34 +13185,37 @@
         <v>77</v>
       </c>
       <c r="N88" s="14" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O88" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P88" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q88" s="14">
         <v>2</v>
       </c>
-      <c r="S88" s="25" t="s">
+      <c r="S88" s="24" t="s">
         <v>870</v>
+      </c>
+      <c r="T88" s="24" t="s">
+        <v>871</v>
       </c>
       <c r="V88" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-010 Propagar clause_id a WBS Items Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead funded_by_clause_id auto 100% WBS con FK Medio apps/api/src/services/wbs_service.py</v>
+        <v>CE-S6-011 Propagar clause_id a BOM Items Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead contract_clause_id auto 100% BOM con FK Medio apps/api/src/services/bom_service.py</v>
       </c>
       <c r="W88" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>20</v>
@@ -13148,10 +13224,10 @@
         <v>353</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G89" s="14">
         <v>1</v>
@@ -13169,43 +13245,40 @@
         <v>38</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>178</v>
+        <v>402</v>
       </c>
       <c r="M89" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N89" s="14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="O89" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P89" s="14" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q89" s="14">
         <v>2</v>
       </c>
-      <c r="S89" s="25" t="s">
-        <v>871</v>
-      </c>
-      <c r="T89" s="25" t="s">
+      <c r="S89" s="24" t="s">
         <v>872</v>
       </c>
       <c r="V89" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-011 Propagar clause_id a BOM Items Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead contract_clause_id auto 100% BOM con FK Medio apps/api/src/services/bom_service.py</v>
+        <v>CE-S6-012 Evidence Viewer Logic Query Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Backend Gate 4 CE-S6-010;CE-S6-011 Backend Lead Query reconstruye clause WBS BOM dado alert_id Medio apps/api/src/services/evidence_service.py</v>
       </c>
       <c r="W89" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>20</v>
@@ -13214,16 +13287,16 @@
         <v>353</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>364</v>
       </c>
       <c r="G90" s="14">
-        <v>1</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I90" s="14" t="s">
         <v>74</v>
@@ -13231,44 +13304,42 @@
       <c r="J90" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K90" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="K90" s="14"/>
       <c r="L90" s="14" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="M90" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N90" s="14" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="O90" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P90" s="14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q90" s="14">
-        <v>2</v>
-      </c>
-      <c r="S90" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S90" s="24" t="s">
         <v>873</v>
       </c>
       <c r="V90" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-012 Evidence Viewer Logic Query Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Backend Gate 4 CE-S6-010;CE-S6-011 Backend Lead Query reconstruye clause WBS BOM dado alert_id Medio apps/api/src/services/evidence_service.py</v>
+        <v>CE-S6-013 Graph RAG Service Abstracción Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P1 Pendiente Backend  CE-S5-005 Backend Lead Interface GraphStore impl NetworkX tests mock Medio apps/api/src/services/graph_store.py</v>
       </c>
       <c r="W90" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>20</v>
@@ -13277,13 +13348,13 @@
         <v>353</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G91" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>16</v>
@@ -13294,42 +13365,44 @@
       <c r="J91" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K91" s="14"/>
+      <c r="K91" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="L91" s="14" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="M91" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O91" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P91" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q91" s="14">
-        <v>3</v>
-      </c>
-      <c r="S91" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S91" s="24" t="s">
         <v>874</v>
       </c>
       <c r="V91" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-013 Graph RAG Service Abstracción Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P1 Pendiente Backend  CE-S5-005 Backend Lead Interface GraphStore impl NetworkX tests mock Medio apps/api/src/services/graph_store.py</v>
+        <v>CE-S6-014 Circuit Breaker Claude API Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P1 Pendiente Backend Gate 7 CE-S2-004 Backend Lead Retry backoff fallback caché API degradada ok Medio apps/api/src/ai/circuit_breaker.py</v>
       </c>
       <c r="W91" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>20</v>
@@ -13346,8 +13419,8 @@
       <c r="G92" s="14">
         <v>1</v>
       </c>
-      <c r="H92" s="12" t="s">
-        <v>16</v>
+      <c r="H92" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>74</v>
@@ -13355,105 +13428,102 @@
       <c r="J92" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K92" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="K92" s="14"/>
       <c r="L92" s="14" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="M92" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P92" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q92" s="14">
         <v>2</v>
       </c>
-      <c r="S92" s="25" t="s">
+      <c r="S92" s="24" t="s">
         <v>875</v>
       </c>
       <c r="V92" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-014 Circuit Breaker Claude API Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P1 Pendiente Backend Gate 7 CE-S2-004 Backend Lead Retry backoff fallback caché API degradada ok Medio apps/api/src/ai/circuit_breaker.py</v>
+        <v>CE-S6-015 Async Processing Parsing Background Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Backend  CE-S3-006 Backend Lead Parsing background polling status upload inmediato Bajo apps/api/src/tasks/parsing_tasks.py</v>
       </c>
       <c r="W92" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="G93" s="14">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G93" s="15">
         <v>1</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I93" s="14" t="s">
+      <c r="I93" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J93" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="M93" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N93" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="O93" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P93" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q93" s="14">
+      <c r="J93" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="O93" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q93" s="15">
         <v>2</v>
-      </c>
-      <c r="S93" s="25" t="s">
-        <v>876</v>
       </c>
       <c r="V93" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-015 Async Processing Parsing Background Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Backend  CE-S3-006 Backend Lead Parsing background polling status upload inmediato Bajo apps/api/src/tasks/parsing_tasks.py</v>
+        <v>CE-S7-001 Cifrado Documentos R2 AES-256 Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Server-side encryption keys tenant docs cifrados Alto apps/api/src/storage/encryption.py</v>
       </c>
       <c r="W93" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>21</v>
@@ -13489,31 +13559,31 @@
         <v>174</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q94" s="15">
         <v>2</v>
       </c>
       <c r="V94" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-001 Cifrado Documentos R2 AES-256 Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Server-side encryption keys tenant docs cifrados Alto apps/api/src/storage/encryption.py</v>
+        <v>CE-S7-002 Política Retención Soft Delete Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Soft delete hard delete 30 días job limpieza Medio apps/api/src/tasks/retention_job.py</v>
       </c>
       <c r="W94" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>21</v>
@@ -13522,10 +13592,10 @@
         <v>419</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G95" s="15">
         <v>1</v>
@@ -13537,43 +13607,43 @@
         <v>74</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="N95" s="15" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="O95" s="15" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q95" s="15">
         <v>2</v>
       </c>
       <c r="V95" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-002 Política Retención Soft Delete Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Soft delete hard delete 30 días job limpieza Medio apps/api/src/tasks/retention_job.py</v>
+        <v>CE-S7-003 Auto-block Degradación Graceful Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Bloquear LLM 100% budget sistema sigue sin IA Alto apps/api/src/ai/budget_blocker.py</v>
       </c>
       <c r="W95" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>21</v>
@@ -13585,55 +13655,55 @@
         <v>429</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G96" s="15">
-        <v>1</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I96" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>48</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="O96" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q96" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V96" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-003 Auto-block Degradación Graceful Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Bloquear LLM 100% budget sistema sigue sin IA Alto apps/api/src/ai/budget_blocker.py</v>
+        <v>CE-S7-004 Optimizar Prompts Reducir Tokens Sprint 5 Semana 7 2026-02-10 2026-02-11 2 P1 Pendiente AI Gate 7 CE-S2-008 AI Lead Few-shot reducido 20% reducción tokens promedio Medio prompts/v1/</v>
       </c>
       <c r="W96" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>21</v>
@@ -13642,13 +13712,13 @@
         <v>419</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>434</v>
       </c>
       <c r="G97" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>16</v>
@@ -13657,43 +13727,43 @@
         <v>74</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>48</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>111</v>
+        <v>334</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q97" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V97" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-004 Optimizar Prompts Reducir Tokens Sprint 5 Semana 7 2026-02-10 2026-02-11 2 P1 Pendiente AI Gate 7 CE-S2-008 AI Lead Few-shot reducido 20% reducción tokens promedio Medio prompts/v1/</v>
+        <v>CE-S7-005 Dashboard Costes por Proyecto Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Frontend Gate 7 CE-S5-012 Frontend Lead Breakdown costes operación/modelo coste real-time Bajo apps/web/src/components/CostDashboard.tsx</v>
       </c>
       <c r="W97" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>21</v>
@@ -13717,43 +13787,43 @@
         <v>74</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="K98" s="15" t="s">
         <v>48</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O98" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P98" s="15" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q98" s="15">
         <v>2</v>
       </c>
       <c r="V98" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-005 Dashboard Costes por Proyecto Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Frontend Gate 7 CE-S5-012 Frontend Lead Breakdown costes operación/modelo coste real-time Bajo apps/web/src/components/CostDashboard.tsx</v>
+        <v>CE-S7-006 Batch Processing Múltiples Docs Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Backend Gate 7 CE-S3-006 Backend Lead 3 docs &lt;3x individual descuento contexto Medio apps/api/src/tasks/batch_processing.py</v>
       </c>
       <c r="W98" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>21</v>
@@ -13762,10 +13832,10 @@
         <v>419</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G99" s="15">
         <v>1</v>
@@ -13777,43 +13847,43 @@
         <v>74</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O99" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q99" s="15">
         <v>2</v>
       </c>
       <c r="V99" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-006 Batch Processing Múltiples Docs Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Backend Gate 7 CE-S3-006 Backend Lead 3 docs &lt;3x individual descuento contexto Medio apps/api/src/tasks/batch_processing.py</v>
+        <v>CE-S7-007 Prompt Generación RACI Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P1 Pendiente AI Gate 5 CE-S2-008 AI Lead Mapeo stakeholder WBS razonamiento RACI coherente Medio prompts/v1/raci_generation.md</v>
       </c>
       <c r="W99" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>21</v>
@@ -13822,16 +13892,16 @@
         <v>419</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="G100" s="15">
         <v>1</v>
       </c>
-      <c r="H100" s="12" t="s">
-        <v>16</v>
+      <c r="H100" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="I100" s="15" t="s">
         <v>74</v>
@@ -13839,9 +13909,7 @@
       <c r="J100" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K100" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="K100" s="15"/>
       <c r="L100" s="15" t="s">
         <v>111</v>
       </c>
@@ -13849,31 +13917,31 @@
         <v>100</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O100" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P100" s="15" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q100" s="15">
         <v>2</v>
       </c>
       <c r="V100" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-007 Prompt Generación RACI Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P1 Pendiente AI Gate 5 CE-S2-008 AI Lead Mapeo stakeholder WBS razonamiento RACI coherente Medio prompts/v1/raci_generation.md</v>
+        <v>CE-S7-008 A/B Testing Prompts Framework Sprint 5 Semana 7 2026-02-12 2026-02-12 1 P2 Pendiente AI  CE-S2-008 AI Lead Framework comparar versiones métricas auto Bajo apps/api/src/ai/ab_testing.py</v>
       </c>
       <c r="W100" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>21</v>
@@ -13890,8 +13958,8 @@
       <c r="G101" s="15">
         <v>1</v>
       </c>
-      <c r="H101" s="16" t="s">
-        <v>17</v>
+      <c r="H101" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I101" s="15" t="s">
         <v>74</v>
@@ -13899,39 +13967,34 @@
       <c r="J101" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K101" s="15"/>
+      <c r="K101" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="L101" s="15" t="s">
-        <v>111</v>
+        <v>456</v>
       </c>
       <c r="M101" s="15" t="s">
         <v>100</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="O101" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q101" s="15">
         <v>2</v>
       </c>
-      <c r="V101" t="str">
-        <f t="shared" si="1"/>
-        <v>CE-S7-008 A/B Testing Prompts Framework Sprint 5 Semana 7 2026-02-12 2026-02-12 1 P2 Pendiente AI  CE-S2-008 AI Lead Framework comparar versiones métricas auto Bajo apps/api/src/ai/ab_testing.py</v>
-      </c>
-      <c r="W101" t="s">
-        <v>793</v>
-      </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>21</v>
@@ -13940,13 +14003,13 @@
         <v>419</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="G102" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>16</v>
@@ -13955,36 +14018,36 @@
         <v>74</v>
       </c>
       <c r="J102" s="15" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O102" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q102" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>21</v>
@@ -13993,16 +14056,16 @@
         <v>419</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>429</v>
       </c>
       <c r="G103" s="15">
-        <v>2</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>16</v>
+        <v>0.5</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I103" s="15" t="s">
         <v>74</v>
@@ -14010,34 +14073,32 @@
       <c r="J103" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K103" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="K103" s="15"/>
       <c r="L103" s="15" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="M103" s="15" t="s">
         <v>127</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q103" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>21</v>
@@ -14046,49 +14107,51 @@
         <v>419</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G104" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I104" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K104" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="L104" s="15" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O104" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q104" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>21</v>
@@ -14097,51 +14160,49 @@
         <v>419</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G105" s="15">
-        <v>1</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>16</v>
+        <v>0.5</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I105" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K105" s="15" t="s">
-        <v>38</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K105" s="15"/>
       <c r="L105" s="15" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="M105" s="15" t="s">
         <v>77</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="O105" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q105" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>21</v>
@@ -14169,30 +14230,30 @@
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="15" t="s">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="M106" s="15" t="s">
         <v>77</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O106" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P106" s="15" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q106" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>21</v>
@@ -14201,103 +14262,103 @@
         <v>419</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="G107" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="15" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="M107" s="15" t="s">
         <v>77</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="O107" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q107" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="R107" s="24" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="G108" s="15">
         <v>1</v>
       </c>
-      <c r="H108" s="12" t="s">
-        <v>16</v>
+      <c r="H108" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I108" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J108" s="15" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K108" s="15"/>
       <c r="L108" s="15" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="M108" s="15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N108" s="15" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="O108" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q108" s="15">
         <v>2</v>
       </c>
-      <c r="R108" s="25" t="s">
-        <v>700</v>
-      </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>21</v>
@@ -14323,21 +14384,23 @@
       <c r="J109" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K109" s="15"/>
+      <c r="K109" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="L109" s="15" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="M109" s="15" t="s">
         <v>93</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O109" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q109" s="15">
         <v>2</v>
@@ -14345,10 +14408,10 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>21</v>
@@ -14357,51 +14420,49 @@
         <v>486</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G110" s="15">
-        <v>1</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>15</v>
+        <v>0.5</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I110" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J110" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>48</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K110" s="15"/>
       <c r="L110" s="15" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="M110" s="15" t="s">
         <v>93</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="O110" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P110" s="15" t="s">
         <v>493</v>
       </c>
       <c r="Q110" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>21</v>
@@ -14410,13 +14471,13 @@
         <v>486</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G111" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>16</v>
@@ -14432,27 +14493,27 @@
         <v>76</v>
       </c>
       <c r="M111" s="15" t="s">
-        <v>93</v>
+        <v>500</v>
       </c>
       <c r="N111" s="15" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="O111" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P111" s="15" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="Q111" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>21</v>
@@ -14467,7 +14528,7 @@
         <v>487</v>
       </c>
       <c r="G112" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>16</v>
@@ -14476,34 +14537,34 @@
         <v>74</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="15" t="s">
         <v>76</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>500</v>
+        <v>93</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="O112" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q112" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>21</v>
@@ -14512,49 +14573,49 @@
         <v>486</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="G113" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I113" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="K113" s="15"/>
       <c r="L113" s="15" t="s">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P113" s="15" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q113" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>21</v>
@@ -14563,13 +14624,13 @@
         <v>486</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>509</v>
       </c>
       <c r="G114" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>15</v>
@@ -14582,30 +14643,30 @@
       </c>
       <c r="K114" s="15"/>
       <c r="L114" s="15" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M114" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="O114" s="15" t="s">
         <v>176</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="Q114" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>21</v>
@@ -14614,38 +14675,38 @@
         <v>486</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="G115" s="15">
         <v>1</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>15</v>
+      <c r="H115" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K115" s="15"/>
       <c r="L115" s="15" t="s">
-        <v>515</v>
+        <v>405</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="N115" s="15" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O115" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P115" s="15" t="s">
-        <v>517</v>
+        <v>408</v>
       </c>
       <c r="Q115" s="15">
         <v>2</v>
@@ -14653,10 +14714,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>21</v>
@@ -14671,7 +14732,7 @@
         <v>496</v>
       </c>
       <c r="G116" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>16</v>
@@ -14680,34 +14741,34 @@
         <v>74</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="15" t="s">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N116" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P116" s="15" t="s">
-        <v>408</v>
+        <v>524</v>
       </c>
       <c r="Q116" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>21</v>
@@ -14716,13 +14777,13 @@
         <v>486</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G117" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>16</v>
@@ -14731,34 +14792,34 @@
         <v>74</v>
       </c>
       <c r="J117" s="15" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="K117" s="15"/>
       <c r="L117" s="15" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="M117" s="15" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="N117" s="15" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O117" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P117" s="15" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q117" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>21</v>
@@ -14786,30 +14847,30 @@
       </c>
       <c r="K118" s="15"/>
       <c r="L118" s="15" t="s">
-        <v>202</v>
+        <v>409</v>
       </c>
       <c r="M118" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O118" s="15" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P118" s="15" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q118" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>21</v>
@@ -14818,16 +14879,16 @@
         <v>486</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>509</v>
       </c>
       <c r="G119" s="15">
-        <v>1</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I119" s="15" t="s">
         <v>74</v>
@@ -14837,81 +14898,83 @@
       </c>
       <c r="K119" s="15"/>
       <c r="L119" s="15" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="M119" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P119" s="15" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Q119" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="G120" s="15">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="G120" s="17">
+        <v>1</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="I120" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J120" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="M120" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="N120" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="O120" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P120" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q120" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J120" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M120" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N120" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="O120" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P120" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q120" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>22</v>
@@ -14935,36 +14998,34 @@
         <v>74</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="K121" s="17" t="s">
-        <v>542</v>
+        <v>41</v>
       </c>
       <c r="L121" s="17" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="M121" s="17" t="s">
-        <v>174</v>
+        <v>547</v>
       </c>
       <c r="N121" s="17" t="s">
-        <v>543</v>
+        <v>176</v>
       </c>
       <c r="O121" s="17" t="s">
-        <v>176</v>
+        <v>548</v>
       </c>
       <c r="P121" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q121" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="Q121" s="17"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>22</v>
@@ -14973,10 +15034,10 @@
         <v>540</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G122" s="17">
         <v>1</v>
@@ -14990,32 +15051,32 @@
       <c r="J122" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K122" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="K122" s="17"/>
       <c r="L122" s="17" t="s">
-        <v>143</v>
+        <v>513</v>
       </c>
       <c r="M122" s="17" t="s">
-        <v>547</v>
+        <v>146</v>
       </c>
       <c r="N122" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="O122" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="O122" s="17" t="s">
-        <v>548</v>
-      </c>
       <c r="P122" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q122" s="17"/>
+        <v>554</v>
+      </c>
+      <c r="Q122" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>22</v>
@@ -15039,23 +15100,25 @@
         <v>74</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K123" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="K123" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="L123" s="17" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="N123" s="17" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="O123" s="17" t="s">
-        <v>176</v>
+        <v>558</v>
       </c>
       <c r="P123" s="17" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q123" s="17">
         <v>2</v>
@@ -15063,10 +15126,10 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>22</v>
@@ -15075,10 +15138,10 @@
         <v>540</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G124" s="17">
         <v>1</v>
@@ -15090,36 +15153,32 @@
         <v>74</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="K124" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K124" s="17"/>
       <c r="L124" s="17" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="M124" s="17" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="N124" s="17" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="O124" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="P124" s="17" t="s">
-        <v>559</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P124" s="17"/>
       <c r="Q124" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>22</v>
@@ -15128,47 +15187,51 @@
         <v>540</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="F125" s="17" t="s">
         <v>562</v>
       </c>
       <c r="G125" s="17">
-        <v>1</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I125" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K125" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="K125" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="L125" s="17" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="N125" s="17" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="O125" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="P125" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="P125" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="Q125" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>22</v>
@@ -15177,13 +15240,13 @@
         <v>540</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G126" s="17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>16</v>
@@ -15192,36 +15255,34 @@
         <v>74</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K126" s="17" t="s">
-        <v>41</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="K126" s="17"/>
       <c r="L126" s="17" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="M126" s="17" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="N126" s="17" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="O126" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P126" s="17" t="s">
-        <v>148</v>
+        <v>570</v>
       </c>
       <c r="Q126" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>22</v>
@@ -15230,16 +15291,16 @@
         <v>540</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G127" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>74</v>
@@ -15255,75 +15316,75 @@
         <v>77</v>
       </c>
       <c r="N127" s="17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O127" s="17" t="s">
         <v>79</v>
       </c>
       <c r="P127" s="17" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="Q127" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="G128" s="17">
-        <v>1</v>
-      </c>
-      <c r="H128" s="16" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I128" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>276</v>
+        <v>580</v>
       </c>
       <c r="K128" s="17"/>
       <c r="L128" s="17" t="s">
-        <v>76</v>
+        <v>560</v>
       </c>
       <c r="M128" s="17" t="s">
-        <v>77</v>
+        <v>581</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="O128" s="17" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P128" s="17" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="Q128" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>22</v>
@@ -15357,13 +15418,13 @@
         <v>581</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="O129" s="17" t="s">
         <v>176</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q129" s="17">
         <v>3</v>
@@ -15371,10 +15432,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>22</v>
@@ -15383,10 +15444,10 @@
         <v>577</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G130" s="17">
         <v>2</v>
@@ -15408,13 +15469,13 @@
         <v>581</v>
       </c>
       <c r="N130" s="17" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="O130" s="17" t="s">
         <v>176</v>
       </c>
       <c r="P130" s="17" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="Q130" s="17">
         <v>3</v>
@@ -15422,10 +15483,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>22</v>
@@ -15434,38 +15495,38 @@
         <v>577</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="G131" s="17">
         <v>2</v>
       </c>
-      <c r="H131" s="11" t="s">
-        <v>15</v>
+      <c r="H131" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I131" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="K131" s="17"/>
       <c r="L131" s="17" t="s">
         <v>560</v>
       </c>
       <c r="M131" s="17" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="O131" s="17" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="P131" s="17" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Q131" s="17">
         <v>3</v>
@@ -15473,10 +15534,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>22</v>
@@ -15485,13 +15546,13 @@
         <v>577</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G132" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>16</v>
@@ -15504,30 +15565,30 @@
       </c>
       <c r="K132" s="17"/>
       <c r="L132" s="17" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
       <c r="M132" s="17" t="s">
         <v>596</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="O132" s="17" t="s">
         <v>79</v>
       </c>
       <c r="P132" s="17" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="Q132" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>22</v>
@@ -15536,49 +15597,49 @@
         <v>577</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G133" s="17">
         <v>1</v>
       </c>
-      <c r="H133" s="12" t="s">
-        <v>16</v>
+      <c r="H133" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I133" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="K133" s="17"/>
       <c r="L133" s="17" t="s">
-        <v>471</v>
+        <v>605</v>
       </c>
       <c r="M133" s="17" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="N133" s="17" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="O133" s="17" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P133" s="17" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q133" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>22</v>
@@ -15587,13 +15648,13 @@
         <v>577</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F134" s="17" t="s">
         <v>591</v>
       </c>
       <c r="G134" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H134" s="11" t="s">
         <v>15</v>
@@ -15602,34 +15663,32 @@
         <v>74</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="K134" s="17"/>
       <c r="L134" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M134" s="17" t="s">
-        <v>581</v>
+        <v>500</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="O134" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="P134" s="17" t="s">
-        <v>607</v>
-      </c>
+      <c r="P134" s="17"/>
       <c r="Q134" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>22</v>
@@ -15638,106 +15697,57 @@
         <v>577</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="F135" s="17" t="s">
         <v>591</v>
       </c>
       <c r="G135" s="17">
-        <v>3</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>15</v>
+        <v>0.5</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I135" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="K135" s="17"/>
       <c r="L135" s="17" t="s">
         <v>603</v>
       </c>
       <c r="M135" s="17" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="N135" s="17" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="O135" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="P135" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="P135" s="17" t="s">
+        <v>614</v>
+      </c>
       <c r="Q135" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A136" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="F136" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="G136" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J136" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="K136" s="17"/>
-      <c r="L136" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="M136" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="N136" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="O136" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P136" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q136" s="17">
         <v>1</v>
       </c>
     </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C139" s="10"/>
+    </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C140" s="10"/>
+      <c r="B140" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q136" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Q135" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/docs/C2PRO_CRONOGRAMA_MAESTRO_v1.0.xlsx
+++ b/docs/C2PRO_CRONOGRAMA_MAESTRO_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378B0C16-DEED-4A2D-B89C-FD7C7717B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17031C6-6E2E-443F-A7C6-4F6E8D73DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="📊 Resumen Ejecutivo" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="883">
   <si>
     <t>C2Pro - Cronograma Maestro MVP Fase 1</t>
   </si>
@@ -2275,36 +2275,6 @@
 Entregable: Código Python completo del archivo locustfile.py, listo para ejecutarse con el comando locust.</t>
   </si>
   <si>
-    <t>Nombre: WBSGeneratorAgent Implementation Dominio: AI / Backend / Agents Story Points: 5 (Complejidad alta) Dependencias: CE-S2-007 (Client Wrapper), CE-S2-001 (Schemas)
-Aquí tienes el prompt optimizado para que la IA genere el código de este agente utilizando LangGraph (la tecnología de orquestación definida en el stack ).
-🚀 Prompt Optimizado
-Contexto: Estamos desarrollando el "Cerebro" de C2Pro (Fase 2 del Roadmap). Necesitamos implementar el Agente Generador de WBS (WBSGeneratorAgent). Este componente utiliza LangGraph para orquestar la llamada a Claude Sonnet 4. Su función es analizar las cláusulas de "Alcance" y "Especificaciones Técnicas" de un contrato y generar una Estructura de Desglose de Trabajo (WBS) jerárquica. El requisito crítico de negocio es la Trazabilidad Legal: El agente no solo debe inventar tareas; debe vincular cada ítem de la WBS a la clause_id específica que justifica su existencia.
-Rol: Actúa como un Senior AI Engineer experto en LangChain y LangGraph. Entiendes cómo estructurar "Chains of Thought" (Cadenas de Pensamiento) para tareas de descomposición complejas.
-Tarea: Crear el módulo agents/wbs_generator.py.
-Requisitos Técnicos:
-Tecnología: Utiliza LangGraph para definir el grafo de estado (StateGraph). Aunque por ahora sea un grafo lineal (Input -&gt; Generate -&gt; Output), prepáralo para ciclos de reflexión en el futuro.
-Input del Agente:
-Lista de objetos Clause (texto, id, tipo).
-Contexto del proyecto (tipo de obra, presupuesto total).
-System Prompt (Ingeniería de Prompts dentro del código):
-Debes redactar un System Prompt potente para Claude Sonnet.
-Instrucción de Jerarquía: Debe forzar una estructura estricta de 4 niveles:
-Proyecto (Raíz).
-Fase (Ingeniería, Procura, Construcción, etc.).
-Entregable Principal.
-Paquete de Trabajo (Accionable).
-Instrucción de Trazabilidad: "Cada ítem generado DEBE incluir el ID de la cláusula (source_clause_id) que lo menciona o requiere."
-Output Estructurado:
-Utiliza PydanticOutputParser o la capacidad de "Tool Calling" de Claude para forzar que la salida sea estrictamente una lista de objetos WBSItemCreate (definidos en tus schemas previos).
-Human-in-the-Loop (Gate 6):
-Configura el nodo final del grafo para que devuelva el estado con una flag requires_approval=True. Según el roadmap, el humano debe aprobar la WBS antes de guardarla.
-Entregable:
-Código Python con la clase WBSAgentState (TypedDict).
-La definición del nodo generador (generate_wbs_node).
-El System Prompt completo optimizado para descomposición de tareas EPC.
-La construcción del grafo compilado (workflow.compile()).</t>
-  </si>
-  <si>
     <t>novena actividad del Sprint 2.
 Esta actividad marca el cambio del Backend al Frontend/Diseño. Antes de escribir código React, necesitamos definir visualmente cómo será la interfaz, asegurando que cumplimos con la Gate 6 (Human-in-the-loop). Las vistas deben mostrar claramente las alertas de riesgo y obligar a la validación humana donde sea necesario.
 📝 Actividad 9: CE-S2-010
@@ -2613,40 +2583,6 @@
 La compilación del grafo (app = workflow.compile()).</t>
   </si>
   <si>
-    <t>Una vez que el WBSGeneratorAgent ha definido qué hay que hacer, el BOMBuilderAgent define con qué lo vamos a hacer. Este agente es crítico porque conecta el mundo técnico (Ingeniería) con el económico (Presupuesto) y el logístico (Compras).
-Según el Roadmap, este agente no solo lista materiales; debe ser capaz de inferir Lead Times (tiempos de entrega) y cruzar los datos con el presupuesto para cumplir la Regla R15 ("BOM sin partida presupuestaria").
-📝 Actividad 2: S3.5 (Sprint 3)
-Nombre: BOMBuilderAgent Implementation Dominio: AI / Backend / Supply Chain Story Points: 5 Dependencias: S3.4 (WBS), CE-S2-001 (Schemas)
-Aquí tienes el prompt optimizado para construir este agente experto en logística.
-🚀 Prompt Optimizado
-Contexto: Estamos desarrollando el BOMBuilderAgent (Bill of Materials) para C2Pro. Este agente recibe como entrada la WBS (generada en el paso anterior) y el Presupuesto Desglosado (partidas extraídas del BC3/Excel). Su misión es generar la lista de materiales, equipos y servicios necesarios para ejecutar cada paquete de trabajo de la WBS. Además, debe actuar como un planificador logístico experto: debe estimar los tiempos de suministro (lead_time_days) basándose en la naturaleza del ítem (ej. "Válvula especial" tarda más que "Cemento") para alimentar posteriormente las alertas de riesgo R14.
-Rol: Actúa como un Senior Supply Chain Architect y experto en LangGraph.
-Tarea: Crear el módulo agents/bom_builder.py.
-Requisitos del Grafo (State Machine):
-Estado (BOMAgentState):
-wbs_items: List[WBSItem] (Input)
-budget_items: List[BudgetItem] (Input)
-bom_items: List[BOMItem] (Output)
-Lógica del Nodo Generador (materializer_node):
-Iteración Inteligente: El agente no debe alucinar; debe iterar sobre los ítems "hoja" de la WBS.
-System Prompt: "Eres un Jefe de Compras experto en proyectos EPC. Para cada paquete de trabajo, deduce los materiales necesarios."
-Inferencia Logística: Para cada ítem generado, el LLM debe estimar:
-production_time_days: Tiempo de fabricación.
-transit_time_days: Tiempo de transporte (asumir internacional si es complejo).
-total_lead_time_days: Suma + buffer.
-Cruce Presupuestario (Regla R15): Debe intentar encontrar el budget_item_id que financia este material basándose en similitud de nombres/códigos con la lista de budget_items. Si no encuentra coincidencia clara, debe dejarlo null (lo cual disparará una alerta después).
-Integridad de Datos (Pydantic):
-El output debe cumplir estrictamente con el esquema BOMItemCreate definido en schemas/bom.py.
-Trazabilidad: Debe heredar el clause_id del ítem WBS padre.
-Optimización de Contexto:
-Dado que la WBS y el Presupuesto pueden ser enormes, implementa una estrategia de "Map-Reduce" o procesamiento por lotes (batches) en LangGraph para no desbordar la ventana de contexto de Claude.
-Entregable: Código Python con:
-La definición del BOMAgentState.
-La función materializer_node con la lógica de inferencia de lead times.
-El prompt del sistema especializado en Supply Chain.
-La configuración del grafo.</t>
-  </si>
-  <si>
     <t>l Motor de Coherencia (Coherence Engine).
 Este componente no es un agente de IA; es un Juez Determinístico. Mientras que los agentes anteriores (WBS/BOM) son "creativos" y probabilísticos, el Coherence Engine debe ser rígido y preciso. Su función es tomar todos los datos generados y aplicar las 10 Reglas Core definidas en el Roadmap para detectar contradicciones matemáticas, temporales o lógicas.
 Este motor alimenta directamente el Coherence Score y el Centro de Alertas.
@@ -2679,67 +2615,6 @@
 La clase base CoherenceRule.
 La clase CoherenceEngine (que itera y ejecuta todas las reglas).
 La implementación concreta de las reglas R1 y R14 como demostración.</t>
-  </si>
-  <si>
-    <t>Nombre: AlertGenerator Service Implementation Dominio: Backend / Core Logic Story Points: 3 Dependencias: S3.6 (Coherence Engine), CE-S2-002 (Schemas)
-Aquí tienes el prompt optimizado para implementar este servicio de persistencia inteligente.
-🚀 Prompt Optimizado
-Contexto: Estamos implementando el AlertGenerator para C2Pro. El CoherenceEngine nos entrega una lista cruda de violaciones detectadas cada vez que corre (ej. cada vez que se sube un documento). Si guardamos todo ciegamente, llenaremos la base de datos de duplicados cada vez que se ejecute el análisis. Este servicio debe actuar como un filtro inteligente: solo persistir alertas nuevas, actualizar la evidencia de las existentes y reabrir las que se creían resueltas pero han reaparecido (regresión).
-Rol: Actúa como un Backend Developer experto en patrones de diseño de sistemas de monitoreo y deduplicación de eventos.
-Tarea: Crear el módulo services/alerts/generator.py.
-Requisitos Técnicos:
-Input:
-project_id: UUID.
-detected_violations: Lista de objetos AlertCreate (generados por las reglas de S3.6).
-Lógica de Deduplicación (Fingerprinting):
-Genera un "Fingerprint" único para cada alerta basado en: rule_id + affected_entity_ids (ej. R1_schedule_123_contract_456).
-Escenario A (Nueva): Si no existe alerta activa con ese fingerprint -&gt; INSERT.
-Escenario B (Existente Open): Si ya existe y está open -&gt; UPDATE solo el evidence_json (por si los valores cambiaron) y updated_at. No crear duplicado.
-Escenario C (Regresión): Si existe pero estaba resolved -&gt; UPDATE status a open y añadir nota de sistema "Regresión detectada autom".
-Escenario D (Auto-resolve): (Opcional) Si una alerta abierta en BD ya no viene en la lista de detected_violations (el usuario arregló el problema), marcarla como resolved automáticamente.
-Human-in-the-Loop (Gate 6):
-Implementa la lógica de asignación automática de requires_human_review:
-SI severity es 'critical' O 'high' -&gt; True.
-SI rule_id afecta a cláusulas de penalización -&gt; True.
-ELSE -&gt; False (informativa).
-Trazabilidad y Persistencia:
-Asegura que el source_clause_id  se guarde correctamente.
-Usa transacciones de base de datos (atomic) para procesar el lote completo.
-Entregable: Código Python con la clase AlertGeneratorService y el método process_violations(project_id, violations). Incluye la lógica de generación del hash/fingerprint para deduplicación.</t>
-  </si>
-  <si>
-    <t>El Coherence Score no es un simple contador de errores. Es un KPI matemático (0-100) que debe resumir la salud del proyecto en un solo vistazo. Si el algoritmo es demasiado sensible, todos los proyectos tendrán "0" y el usuario se frustrará. Si es muy permisivo, todos tendrán "100" y no verán el valor.
-Según la especificación del Roadmap (Sección 12), debemos implementar una fórmula no lineal (sigmoide) para asegurar que el score siempre se mantenga entre 0 y 100, independientemente de cuántas alertas existan.
-📝 Actividad 5: S3.8 (Sprint 3)
-Nombre: Coherence Score v1 Implementation Dominio: Backend / Analytics / Math Story Points: 3 Dependencias: S3.7 (Alerts), CE-S2-002 (Schemas)
-Aquí tienes el prompt optimizado para implementar la lógica matemática definida en el Anexo técnico.
-🚀 Prompt Optimizado
-Contexto: Estamos implementando la lógica de cálculo del Coherence Score v1 para C2Pro. Este score es el indicador principal del Dashboard. Debe ser un entero entre 0 (Caos total) y 100 (Coherencia perfecta). No podemos usar una resta lineal simple (ej. 100 - (n_errores * puntos)) porque un proyecto grande con muchas alertas podría tener puntuación negativa. Según la especificación técnica del Roadmap, debemos usar una función de normalización (curva suave) y ponderar las alertas por severidad.
-Rol: Actúa como un Algorithm Engineer o Data Scientist con experiencia en implementación de métricas de riesgo (Scoring Models).
-Tarea: Crear el módulo services/scoring/calculator.py y services/scoring/weights.py.
-Requisitos del Algoritmo (Especificación Gate 5):
-Definición de Pesos (Weights):
-Define constantes para la "Penalización Base" según severidad:
-CRITICAL: 25 puntos.
-HIGH: 10 puntos.
-MEDIUM: 5 puntos.
-LOW: 1 punto.
-Cálculo de Penalización Bruta (Raw Penalty):
-Sumar el peso de todas las alertas abiertas.
-Refinamiento: Si hay múltiples alertas de la misma regla (ej. 50 materiales retrasados R14), aplicar un factor de "amortiguación logarítmica" para que no destruyan el score desproporcionadamente (ej. la primera cuenta 100%, la segunda 80%, etc., o simplemente agrupar por regla). Para v1, suma lineal por severidad es aceptable si normalizamos después.
-Fórmula de Normalización (0-100):
-Implementa la fórmula de decaimiento definida en el roadmap:
-Python
-# raw_penalty = suma de pesos
-# sensitivity = 50 (ajustable para calibración)
-normalized_score = 100 / (1 + (raw_penalty / sensitivity))
-final_score = int(max(0, min(100, normalized_score)))
-Breakdown (Explicabilidad):
-El usuario necesita saber por qué tiene un 65.
-Genera una lista de Top Drivers: Las 5 reglas que más penalización están aportando al cálculo, ordenadas descendentemente.
-Output:
-Objeto ScoreResult con: value (int), severity_breakdown (count por tipo), top_drivers (list) y calculated_at.
-Entregable: Código Python completo de la clase ScoreCalculator. Incluye comentarios explicando la fórmula matemática elegida.</t>
   </si>
   <si>
     <t>Parser PDF (S1.2) pertenece técnicamente a la fase de Ingesta (Sprint 1-2), anterior al Sprint 3 (Motor de Coherencia). Sin embargo, es un prerrequisito crítico para que los agentes del Sprint 3 (como el WBS Generator) tengan texto que procesar, así que tiene todo el sentido abordarla ahora si quedó pendiente o se está refinando. Usaremos el ID que indicas (CE-SE-001) para tu seguimiento.
@@ -3513,39 +3388,6 @@
 Entregable: router con las comprobaciones de conectividad asíncronas (await db.execute("SELECT 1")).</t>
   </si>
   <si>
-    <t>Esta actividad es el "Kill Switch" financiero. Sin este componente, un bucle infinito en un agente o un ataque de uso podría generarte una factura de miles de dólares en Anthropic en una sola noche.
-Cumple con la Gate 7 (Unit Economics): Debemos asegurar que el coste de la IA no supere el precio de la suscripción del cliente.
-Aquí tienes el prompt optimizado para un AI Lead / FinOps.
-📝 Actividad: CE-S4-002
-Nombre: Cost Controller &amp; Budget Guardrails Dominio: AI / FinOps Story Points: 1 Dependencias: CE-S4-001 (AI Service - donde se inyecta este control) Gate: Gate 7 (Cost Control) Prioridad: P0 (Riesgo Financiero Alto)
-🚀 Prompt Optimizado
-Contexto: Estamos implementando el módulo de Control de Costes (CostController) en apps/api/src/ai/cost_controller.py. Dado que usamos modelos potentes (Claude 3.5 Sonnet) con contextos largos (contratos de 100 páginas), el coste por llamada puede ser alto. Necesitamos un mecanismo de "Cortacircuitos" (Circuit Breaker) que actúe antes de cada llamada a la API. Este servicio debe monitorear el consumo acumulado del Tenant en el mes actual y bloquear las peticiones si exceden el presupuesto definido. Además, debe implementar el sistema de alertas progresivas definido en la Gate 7 (50%, 75%, 90%, 100%).
-Rol: Actúa como un AI Engineer con mentalidad de CFO (Chief Financial Officer).
-Tarea: Desarrollar la clase CostControllerService.
-Requisitos Técnicos:
-Configuración de Precios (Pricing Table):
-Define constantes con los precios actuales de Anthropic (por millón de tokens):
-CLAUDE_3_5_SONNET_INPUT = 3.00 (ejemplo, verificar precio real).
-CLAUDE_3_5_SONNET_OUTPUT = 15.00.
-CLAUDE_HAIKU_...
-Implementa un método calculate_cost(model: str, input_tokens: int, output_tokens: int) -&gt; float.
-Verificación de Presupuesto (check_budget_availability):
-Input: tenant_id.
-Lógica:
-Consultar el gasto acumulado del mes actual para ese tenant (puede ser una query SUM a la tabla de logs o consultar un contador en Redis si lo tenemos).
-Comparar con el monthly_budget_limit del tenant (configurado en DB, default ej. $50.00).
-Alertas:
-Si gasto &gt;= 50% y no se ha alertado -&gt; Log WARNING "Budget at 50%".
-Si gasto &gt;= 90% -&gt; Log CRITICAL "Budget Critical".
-Bloqueo:
-Si gasto &gt;= 100% -&gt; Lanzar BudgetExceededException. Esto detendrá la ejecución antes de llamar a Anthropic.
-Registro de Gasto (track_usage):
-Método que se llamará después de una ejecución exitosa para actualizar el contador acumulado en la base de datos.
-Resiliencia:
-El control de costes debe ser rápido. Si la base de datos tarda en responder el saldo, decide una estrategia de "Fail Open" (permitir paso) o "Fail Closed" (bloquear). Para este MVP, usa "Fail Closed" (seguridad financiera primero).
-Entregable: Código Python de la clase CostControllerService listo para ser inyectado en el AIService creado anteriormente</t>
-  </si>
-  <si>
     <t>Con la infraestructura lista (Health Checks) y la maquinaria pesada preparada (Celery Task Queue), es hora de abrir la puerta principal.
 El Endpoint de Subida de Documentos es el punto donde todo comienza. Aquí recibimos el archivo, validamos que no sea malicioso o demasiado grande, lo guardamos y le pasamos la "patata caliente" a la cola de tareas para no bloquear al usuario.
 📝 Actividad: CE-S3-010
@@ -3583,111 +3425,6 @@
 Entregable:  router completo, incluyendo la inyección de dependencias para el servicio de almacenamiento y la sesión de base de datos.</t>
   </si>
   <si>
-    <t>Esta actividad marca el hito de completitud del Motor de Coherencia. Hasta ahora teníamos el esqueleto y un par de reglas de ejemplo; ahora vamos a dotar al sistema de su verdadera inteligencia de negocio implementando las reglas complejas que cruzan Cronograma, Coste y Alcance.
-Estas reglas no son simples if/else; requieren lógica de conjuntos, comparaciones de fechas y cruces de datos entre entidades dispares (BOM vs Presupuesto).
-Aquí tienes el prompt optimizado para un AI Lead / Backend Developer.
-📝 Actividad: CE-S4-005
-Nombre: Implementación 8 Reglas de Coherencia Restantes (Core Logic) Dominio: Backend / Business Logic Story Points: 4 (Alta densidad lógica) Dependencias: CE-S3-006 (Engine Arch), CE-S4-003/004 (Agents Data) Gate: Gate 5 (Coherence Metric)
-🚀 Prompt Optimizado
-Contexto: Estamos completando el set de reglas del Coherence Engine en apps/api/src/coherence/rules/. Ya tenemos la clase base CoherenceRule y la estructura del ProjectContext. Ahora debemos implementar la lógica dura de las 8 reglas restantes para alcanzar el objetivo de "10 Reglas Core" del MVP. Estas reglas deben ser puras (sin I/O, operando sobre los datos en memoria del contexto) para asegurar velocidad y testabilidad.
-Rol: Actúa como un Business Logic Developer experto en gestión de proyectos (PMBOK) y algoritmos en Python.
-Tarea: Implementar las siguientes clases heredando de CoherenceRule.
-Detalle de las Reglas a Implementar:
-Reglas de Alcance y Coste:
-R2 (Cost Variance): Comparar Sum(BudgetItems.total) vs Contract.total_amount.
-Umbral: Si la diferencia es &gt; 5%, generar alerta HIGH. Si es &gt; 10%, CRITICAL.
-R15 (Unbudgeted Items - Zombie BOM): Iterar sobre BOMItems. Si bom_item.budget_item_id es None (no se encontró partida financiera), generar alerta HIGH por cada ítem huérfano. Evidencia: Nombre del material.
-Reglas de Cronograma y Dependencias:
-R12 (Dependency Violation): Para tareas vinculadas (Predecesora -&gt; Sucesora).
-Lógica: Si Successor.start_date &lt; Predecessor.end_date.
-Alerta: CRITICAL "Secuencia imposible".
-R20 (Orphan Tasks): Iterar WBSItems. Si un ítem hoja no tiene stakeholders asignados (RACI 'Responsible' vacío), alerta MEDIUM.
-Reglas de Cadena de Suministro (Logística):
-R14 (Lead Time Risk):
-Calcular: Fecha Necesidad en Sitio (del Cronograma) - Lead Time Total (del BOM Agent) = Fecha Límite Pedido.
-Lógica: Si Fecha Límite Pedido &lt; Hoy, alerta CRITICAL "Material ya retrasado".
-Otras Reglas (Compliance/Quality):
-R6 (Permitting): Si detectamos cláusulas de "Licencia" o "Permiso" en el contrato y no hay hito correspondiente en el cronograma.
-R19 (Cash Flow - Opcional simple): Si la curva de gastos mensual excede el límite de facturación (si tenemos esos datos). Si no, dejar como Pass por ahora.
-Requisitos Técnicos:
-Evidencia Estructurada (evidence_json):
-Cada regla debe retornar un diccionario exacto con los valores que fallaron.
-Ejemplo R14: {"material": "Válvula X", "needed_date": "2024-02-01", "lead_time": 45, "required_order_date": "2023-12-15", "delay_days": 20}. Esto es vital para que el Frontend explique el problema.
-Eficiencia:
-Usa sets o diccionarios (dict) para búsquedas rápidas (O(1)) de IDs. No hagas bucles anidados O(n^2) sobre listas grandes si puedes evitarlo indexando primero.
-Testing (Unitario):
-Para cada regla, crea un test unitario en tests/coherence/test_rules_impl.py con datos mockeados que fuercen el fallo y el éxito.
-Entregable: Código Python de las 8 clases (cada una en su archivo o agrupadas por dominio: schedule_rules.py, cost_rules.py, etc.) y sus tests unitarios.</t>
-  </si>
-  <si>
-    <t>ctividad: CE-S4-006
-Nombre: Integration Test Full Loop (Upload -&gt; Score) Dominio: QA / Testing Story Points: 3 Dependencias: Todo el Backend (S3 y S4) Gate: Gate 5 (System Coherence)
-🚀 Prompt Optimizado
-Contexto: Hemos completado los componentes individuales. Ahora necesitamos un Test de Integración de Sistema que valide el flujo completo desde la perspectiva del usuario ("Caja Negra" o "Caja Gris"). Este test simulará el viaje de un documento: Subida -&gt; Procesamiento Asíncrono -&gt; Cálculo de Score. El reto principal es manejar la asincronía (Polling) dentro del test y decidir qué mockear (para no gastar dinero en Anthropic en cada test run) y qué dejar real.
-Rol: Actúa como un QA Automation Engineer experto en pytest y pytest-asyncio.
-Tarea: Crear el test tests/integration/flows/test_full_scoring_loop.py.
-Requisitos Técnicos:
-Estrategia de Mocking (AI):
-NO llames a la API real de Anthropic.
-Usa unittest.mock o respx para interceptar las llamadas del AIService.
-Prepara "Canned Responses" (Respuestas enlatadas) realistas:
-Una respuesta para WBS Extraction (JSON con tareas).
-Una respuesta para Stakeholder Extraction (JSON con roles).
-El resto del sistema (DB, Celery, Reglas, Parsers) debe ser REAL.
-Flujo del Test (test_upload_and_calculate_score):
-Paso 1 (Upload): POST /projects/{id}/documents con un PDF de prueba (tests/fixtures/files/contract_sample.pdf).
-Assert: Status 202, retorna task_id.
-Paso 2 (Polling): Implementa un bucle while que llame a GET /projects/{id}/documents cada 0.5s (máximo 10s).
-Wait condition: Esperar hasta que el status sea PARSED.
-Paso 3 (Trigger Calculation): (Si no es automático) Llama al endpoint que dispara el cálculo de coherencia (o espera si es automático tras el parseo).
-Paso 4 (Validation): GET /projects/{id}/coherence-score.
-Assert: Status 200.
-Assert: score es un entero entre 0 y 100.
-Assert: breakdown contiene datos (no está vacío).
-Configuración Celery (Modo Test):
-Para evitar levantar un worker de Redis separado durante los tests, configura Celery en modo task_always_eager = True dentro del conftest.py. Esto hace que las tareas asíncronas se ejecuten síncronamente en el mismo hilo, facilitando el debugging y eliminando la necesidad de time.sleep().
-Entregable: Código Python del test de integración completo, incluyendo los mocks necesarios para simular la "inteligencia" de la IA sin coste.</t>
-  </si>
-  <si>
-    <t>Esta actividad es el Traductor de Negocio.
-Las reglas que implementamos en el paso anterior (CE-S4-005) devuelven datos crudos (ej: R14: Failed, delay=20). El usuario final no entiende de reglas; necesita un mensaje claro: "La Válvula X llegará 20 días tarde según el Lead Time".
-El AlertGenerator toma la lógica técnica y la convierte en Mensajes Accionables con hipervínculos a la fuente del problema (Trazabilidad).
-📝 Actividad: CE-S4-006
-Nombre: AlertGenerator con Evidencias Estructuradas Dominio: Backend / Business Logic Story Points: 1 Dependencias: CE-S4-005 (Rules Implementation) Gate: Gate 5 (Coherence Metric)
-🚀 Prompt Optimizado
-Contexto: Hemos ejecutado el motor de reglas y tenemos una lista de resultados (algunos PASS, otros FAIL). Necesitamos persistir los fallos como Alertas en la base de datos para mostrarlas en el Dashboard. El AlertGenerator en apps/api/src/coherence/alert_generator.py es responsable de:
-Recibir el output crudo de una regla.
-Formatear un mensaje humano legible usando plantillas (Templates).
-Vincular la alerta a los objetos afectados (ID de la tarea, ID del material) para que el usuario pueda hacer clic y navegar al problema (affected_ids).
-Vincular la alerta a la cláusula del contrato que se está violando (source_clause_id), si aplica.
-Rol: Actúa como un Product Engineer enfocado en la Explicabilidad (Explainability) del sistema.
-Tarea: Implementar la clase AlertGenerator.
-Requisitos Técnicos:
-Sistema de Plantillas (Message Templates):
-Define un diccionario de templates mapeado por rule_id.
-Ejemplo:
-Python
-TEMPLATES = {
-    "R14": "El material '{material}' tiene un Lead Time de {lead_time} días, lo que retrasa la tarea '{task_name}' en {delay_days} días.",
-    "R02": "La partida presupuestaria '{code}' excede el monto contractual en {variance_percent}%.",
-    # ... resto de reglas
-}
-Usa str.format(**evidence_json) para inyectar los datos dinámicamente.
-Generación de Objetos AlertCreate:
-El método generate(rule_result: RuleResult) -&gt; AlertCreate debe mapear:
-severity: Derivado de la regla (CRITICAL/HIGH/MEDIUM/LOW).
-title: Nombre corto de la regla.
-description: El mensaje formateado.
-evidence_json: El objeto JSON crudo (para debug o visualizaciones avanzadas).
-affected_object_ids: Lista de UUIDs (ej. ID del WBS Item, ID del BOM Item).
-source_clause_id: Si la regla detectó una cláusula específica.
-Deduplicación (Opcional pero recomendada):
-Si una regla genera 100 alertas idénticas (ej. "Falta fecha de inicio"), considera agruparlas o generar una sola alerta resumen ("100 tareas sin fecha de inicio") para no inundar al usuario. Para este MVP, genera alertas individuales pero pon un comentario TODO sobre la agrupación.
-Interface Limpia:
-El generador debe ser agnóstico de la base de datos. Solo transforma datos en memoria.
-Entregable: Código Python de la clase AlertGenerator con los templates definidos para las reglas implementadas en la actividad anterior.</t>
-  </si>
-  <si>
     <t>Esta es la pieza complementaria a la subida. Como el procesamiento es asíncrono, el Frontend necesita una forma de "preguntar" repetidamente: "¿Ya está listo? ¿Y ahora? ¿Y ahora?".
 Este endpoint soporta el patrón de Polling (o Long-Polling/Websockets en el futuro). Por ahora, un GET simple es suficiente para que el usuario vea cómo la barra de progreso avanza de "Subiendo" a "Analizando" y finalmente "Completado".
 📝 Actividad: CE-S3-011
@@ -3714,36 +3451,6 @@
 Optimizaciones:
 Añade soporte básico para paginación (skip, limit) aunque por defecto devuelva los últimos 20.
 Entregable: l endpoint list_project_documents.</t>
-  </si>
-  <si>
-    <t>Esta es la actividad que diferencia un "Juguete de IA" de una "Herramienta Profesional".
-Si el sistema dice que el proyecto va "Mal" (Score 40) pero un Project Manager experto dice que va "Bien" (Score 80), el usuario perderá la confianza en el primer minuto. La Calibración consiste en ajustar los Pesos (Weights) de cada regla para que la opinión de la máquina se alinee matemáticamente con la intuición humana.
-📝 Actividad: CE-S4-007
-Nombre: Calibración del Coherence Score (10 Reglas) Dominio: AI / Data Science Story Points: 1 Dependencias: CE-S4-005 (Reglas), CE-S2-015 (Gold Standard Dataset) Gate: Gate 5 (Quality Threshold &gt; 0.85 Correlation)
-🚀 Prompt Optimizado
-Contexto: Hemos implementado las 10 reglas de coherencia. Ahora debemos asignarles importancia relativa. ¿Qué es más grave: Un retraso de 2 días (R12) o un sobrecoste del 1% (R02)? Tenemos un Gold Standard Dataset (preparado en S2) con 20 proyectos anonimizados y su puntuación asignada por expertos humanos (0-100). Necesitamos un script que ejecute nuestro motor sobre estos proyectos, compare el resultado con la nota humana y calcule la correlación.
-Rol: Actúa como un Lead Data Scientist experto en validación de modelos.
-Tarea: Crear el script scripts/run_calibration.py.
-Requisitos Técnicos:
-Carga de Datos (Ground Truth):
-Leer un archivo calibration_dataset.json que contiene una lista de proyectos con sus datos crudos (WBS, BOM, Contrato) y su human_score.
-Batch Execution:
-Importar el CoherenceService.
-Iterar sobre cada proyecto del dataset e invocar calculate_score(project_context).
-Análisis Estadístico:
-Comparar ai_score vs human_score.
-Calcular:
-MSE (Mean Squared Error): Cuánto nos equivocamos en promedio.
-Correlación de Pearson: Qué tan bien sigue la tendencia (Objetivo &gt; 0.85).
-Ajuste de Pesos (Weight Tuning):
-El script debe cargar la configuración de pesos actual (DEFAULT_WEIGHTS).
-Modo Iterativo (Opcional pero valioso): Si puedes, implementa un pequeño bucle que ajuste ligeramente los pesos de las reglas críticas (CRITICAL vs HIGH) para intentar minimizar el MSE automáticamente (Hill Climbing simple), o simplemente imprime un reporte detallado sugiriendo qué reglas están penalizando demasiado.
-Output Gráfico:
-Generar un gráfico de dispersión (Scatter Plot) usando matplotlib o imprimir una tabla ASCII en consola mostrando la desviación por proyecto.
-Entregable: Código Python del script de calibración y un archivo de configuración weights_config.py optimizado</t>
-  </si>
-  <si>
-    <t>Esta actividad es la "Constitución" del sistema.En el software Enterprise (y más en construcción), los usuarios no confían en las "Cajas Negras". Si un Director de Proyecto ve una nota de 45/100, su primera pregunta será: "¿Por qué? ¿Cómo se calcula eso?".Este documento (scoring_methodology_v1.md) es la respuesta oficial. Debe ser lo suficientemente técnico para el CTO y lo suficientemente claro para que el equipo de Ventas pueda explicarlo al cliente.📝 Actividad: CE-S4-008Nombre: Documentar Fórmula Score Auditoría (Whitepaper Interno)Dominio: Documentation / AI GovernanceStory Points: 0.5Dependencias: CE-S4-007 (Pesos calibrados)Gate: Gate 5 (Auditability)🚀 Prompt OptimizadoContexto:Hemos calibrado el motor de IA y tenemos los pesos finales (CRITICAL, HIGH, MEDIUM, LOW).Ahora debemos "congelar" esta lógica en un documento oficial antes de lanzar la V1.Este documento servirá de base para la auditoría técnica y para responder dudas de clientes sobre la imparcialidad del algoritmo.La fórmula debe ser determinista: Mismos inputs = Mismo Score.Rol:Actúa como un Technical Writer con conocimientos de Data Science.Tarea:Crear el archivo docs/coherence_engine/scoring_methodology_v1.md.Requisitos del Contenido:Definición de la Fórmula Matemática:Documenta explícitamente cómo se llega al número final.Sugerencia de modelo: Modelo Deductivo (Score de Penalización).$$Score = 100 - \sum (Weight_i \times Count_i)$$(Con un suelo de 0, no negativos).O Modelo de Promedio Ponderado. Elige el que hayamos implementado en el código y explícalo con LaTeX.Tabla de Pesos (Weight Table):Lista los valores exactos acordados tras la calibración (S4-007).CRITICAL: (ej. -15 puntos).HIGH: (ej. -5 puntos).MEDIUM: (ej. -2 puntos).LOW: (ej. -0.5 puntos).Catálogo de Reglas V1:Lista las 10 reglas activas (R2, R6, R12, etc.) con una breve descripción de "Qué penaliza".Ejemplo: "R14 (Supply Chain): Penaliza si la fecha de pedido calculada es anterior a hoy."Justificación de Calibración:Añade una nota breve indicando que estos pesos fueron validados contra un dataset de 20 proyectos reales con una correlación de &gt;0.85 respecto al juicio experto.Control de Versiones:Encabezado con Version: 1.0, Date: 2026-01-24, Status: APPROVED.Entregable:Contenido en formato Markdown profesional, listo para ser commiteado al repositorio.</t>
   </si>
   <si>
     <t>Esta actividad consolida la gestión de documentos en una sola pieza de infraestructura API. Combina la Subida Asíncrona (que dispara a Celery), el Listado (que sirve para el Polling de estado) y el Borrado (limpieza).
@@ -3883,75 +3590,6 @@
 Idempotencia:
 Usa CREATE INDEX IF NOT EXISTS para evitar errores si la migración se corre dos veces.
 Entregable: Código SQL completo del archivo de migración.</t>
-  </si>
-  <si>
-    <t>Esta es la validación funcional definitiva. A diferencia de los tests unitarios (que prueban si una función "crachea"), estos tests prueban si la Lógica de Negocio es correcta.
-Si tenemos un proyecto de prueba diseñado específicamente para tener un "retraso en materiales", este test debe asegurar que la Regla R14 salte. Si no salta, tenemos un bug silencioso en la lógica.
-Aquí tienes el prompt para un QA Lead.
-📝 Actividad: CE-S4-015
-Nombre: Tests Integración Coherence Engine (Logic Validation) Dominio: Testing / QA Story Points: 1 Dependencias: CE-S4-005 (Reglas), CE-S2-015 (Golden Dataset) Gate: Gate 5 (Logic Correctness)
-🚀 Prompt Optimizado
-Contexto: El Motor de Coherencia es el corazón del producto. Hemos implementado 10 reglas complejas. Necesitamos asegurar que el motor detecta los problemas conocidos de forma determinista. Usaremos el Golden Dataset (proyectos JSON pre-fabricados con errores intencionales) para validar que las reglas se activan cuando deben. Ejemplo: Si el dataset project_broken_dates.json tiene una tarea que empieza antes de que acabe su predecesora, el test debe fallar si la regla R12 no genera una alerta CRITICAL.
-Rol: Actúa como un QA Automation Engineer especializado en validación de lógica de negocio.
-Tarea: Crear la suite de tests tests/integration/coherence/test_engine_logic.py.
-Requisitos Técnicos:
-Fixtures ("Casos de Laboratorio"):
-Crea o asegura la existencia de 2 fixtures JSON en tests/fixtures/scenarios/:
-scenario_perfect.json: Un proyecto coherente. Score esperado &gt; 90.
-scenario_disaster.json: Un proyecto con fechas imposibles, sin presupuesto y materiales tardíos. Score esperado &lt; 40.
-Test de Reglas Específicas:
-Test R12 (Dependencias): Carga un escenario con violación de secuencia. Ejecuta el motor.
-Assert: Existe una alerta con rule_id="R12".
-Assert: La severidad es CRITICAL.
-Test R02 (Sobrecoste): Carga escenario con Budget &gt; Contract.
-Assert: Existe alerta R02.
-Test de Estabilidad del Score:
-Ejecuta el motor sobre scenario_perfect.json.
-Assert: score &gt;= 90.
-Assert: La lista de alertas está vacía (o solo tiene LOW).
-Performance Check (Soft Real-time):
-Mide el tiempo de ejecución del calculate_score.
-Assert: Debe ser menor a 200ms para un proyecto de tamaño medio (el motor trabaja en memoria, debe ser rapidísimo).
-No Mocking Logic:
-A diferencia de los tests de API, aquí NO mockees las reglas. Queremos ejecutar la implementación real de CoherenceService sobre datos estáticos.
-Entregable: Código Python de los tests de integración usando pytest.</t>
-  </si>
-  <si>
-    <t>Esta actividad es crítica para la lógica RACI (Responsible, Accountable, Consulted, Informed).
-Si el sistema no sabe quién está trabajando en el proyecto, no puede detectar si hay tareas huérfanas (Regla R20). El StakeholderExtractorAgent debe leer las primeras páginas del contrato (donde suelen estar las "Partes Intervinientes") y extraer estructuradamente a las empresas y representantes legales.
-📝 Actividad: CE-S5-001
-Nombre: StakeholderExtractorAgent (NLP Entity Recognition) Dominio: AI / Backend Story Points: 3 Dependencias: CE-S4-001 (Base AI Service) Gate: Gate 5 (Accuracy &gt; 80%)
-🚀 Prompt Optimizado
-Contexto: Estamos construyendo el Agente de Identificación de Partes. Necesitamos que la IA lea el texto crudo del PDF (específicamente las secciones de introducción y firmas) y extraiga quiénes son los actores del proyecto. El objetivo es poblar la tabla stakeholders para luego poder cruzarla con el cronograma (ej. "¿Tiene esta tarea asignada a un responsable válido?").
-Rol: Actúa como un AI Engineer especialista en Procesamiento de Lenguaje Natural (NLP) y Prompt Engineering.
-Tarea: Implementar la clase StakeholderExtractorAgent en apps/api/src/agents/stakeholder_extractor.py.
-Requisitos Técnicos:
-Definición del System Prompt:
-Diseña un prompt para Claude 3.5 Sonnet que reciba texto legal desordenado y devuelva JSON estricto.
-Instrucciones Clave:
-"Identifica a la entidad 'Cliente' (Dueño de la obra) y 'Contratista' (Ejecutor)".
-"Extrae nombres de representantes legales y sus cargos si aparecen".
-"Ignora notarios o figuras irrelevantes para la ejecución (ej. registro mercantil)".
-Schema de Salida (JSON):
-JSON
-{
-  "stakeholders": [
-    {
-      "name": "Juan Pérez",
-      "role": "Project Manager", // o "Legal Representative"
-      "company": "Construcciones S.A.",
-      "type": "CONTRACTOR", // Enum: CLIENT, CONTRACTOR, SUBCONTRACTOR, SUPERVISION
-      "contact_email": "juan@construcciones.com" // Si existe
-    }
-  ]
-}
-Lógica del Agente:
-Heredar de la clase base BaseAgent.
-Implementar el método extract(text_chunk: str) -&gt; List[Stakeholder].
-Pre-procesamiento: El agente probablemente solo necesite las primeras 10 páginas y las últimas 5 (firmas) del contrato. No le envíes el documento entero de 200 páginas para ahorrar tokens.
-Manejo de Errores:
-Si el modelo alucina o devuelve JSON inválido, implementar un mecanismo de retry o usar el modo json_mode de la API de Anthropic para forzar la estructura.
-Entregable: Código Python de la clase StakeholderExtractorAgent y el prompt del sistema optimizado.</t>
   </si>
   <si>
     <t>Esta actividad convierte a la herramienta en un "Abogado/Project Manager Paranoico".
@@ -6118,6 +5756,377 @@
 apps/api/src/ai/graph/nodes.py (Lógica de agentes y crítico).
 apps/api/src/ai/graph/workflow.py (Definición del grafo y compilación).
 Script de prueba tests/ai/test_graph_flow.py que simule un ciclo completo con crítica negativa inicial.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el "Kill Switch" financiero. Sin este componente, un bucle infinito en un agente o un ataque de uso podría generarte una factura de miles de dólares en Anthropic en una sola noche.
+Cumple con la Gate 7 (Unit Economics): Debemos asegurar que el coste de la IA no supere el precio de la suscripción del cliente.
+Aquí tienes el prompt optimizado para un AI Lead / FinOps.
+📝 Actividad: CE-S4-002
+Nombre: Cost Controller &amp; Budget Guardrails Dominio: AI / FinOps Story Points: 1 Dependencias: CE-S4-001 (AI Service - donde se inyecta este control) Gate: Gate 7 (Cost Control) Prioridad: P0 (Riesgo Financiero Alto)
+🚀 Prompt Optimizado
+Contexto: Estamos implementando el módulo de Control de Costes (CostController) en apps/api/src/ai/cost_controller.py. Dado que usamos modelos potentes (Claude 3.5 Sonnet) con contextos largos (contratos de 100 páginas), el coste por llamada puede ser alto. Necesitamos un mecanismo de "Cortacircuitos" (Circuit Breaker) que actúe antes de cada llamada a la API. Este servicio debe monitorear el consumo acumulado del Tenant en el mes actual y bloquear las peticiones si exceden el presupuesto definido. Además, debe implementar el sistema de alertas progresivas definido en la Gate 7 (50%, 75%, 90%, 100%).
+Rol: Actúa como un AI Engineer con mentalidad de CFO (Chief Financial Officer).
+Tarea: Desarrollar la clase CostControllerService.
+Requisitos Técnicos:
+Configuración de Precios (Pricing Table):
+Define constantes con los precios actuales de Anthropic (por millón de tokens):
+CLAUDE_3_5_SONNET_INPUT = 3.00 (ejemplo, verificar precio real).
+CLAUDE_3_5_SONNET_OUTPUT = 15.00.
+CLAUDE_HAIKU_...
+Implementa un método calculate_cost(model: str, input_tokens: int, output_tokens: int) -&gt; float.
+Verificación de Presupuesto (check_budget_availability):
+Input: tenant_id.
+Lógica:
+Consultar el gasto acumulado del mes actual para ese tenant (puede ser una query SUM a la tabla de logs o consultar un contador en Redis si lo tenemos).
+Comparar con el monthly_budget_limit del tenant (configurado en DB, default ej. $50.00).
+Alertas:
+Si gasto &gt;= 50% y no se ha alertado -&gt; Log WARNING "Budget at 50%".
+Si gasto &gt;= 90% -&gt; Log CRITICAL "Budget Critical".
+Bloqueo:
+Si gasto &gt;= 100% -&gt; Lanzar BudgetExceededException. Esto detendrá la ejecución antes de llamar a Anthropic.
+Registro de Gasto (track_usage):
+Método que se llamará después de una ejecución exitosa para actualizar el contador acumulado en la base de datos.
+Resiliencia:
+El control de costes debe ser rápido. Si la base de datos tarda en responder el saldo, decide una estrategia de "Fail Open" (permitir paso) o "Fail Closed" (bloquear). Para este MVP, usa "Fail Closed" (seguridad financiera primero).
+Entregable: Python de la clase CostControllerService listo para ser inyectado en el AIService creado anteriormente</t>
+  </si>
+  <si>
+    <t>Nombre: WBSGeneratorAgent Implementation Dominio: AI / Backend / Agents Story Points: 5 (Complejidad alta) Dependencias: CE-S2-007 (Client Wrapper), CE-S2-001 (Schemas)
+Aquí tienes el prompt optimizado para que la IA genere el código de este agente utilizando LangGraph (la tecnología de orquestación definida en el stack ).
+🚀 Prompt Optimizado
+Contexto: Estamos desarrollando el "Cerebro" de C2Pro (Fase 2 del Roadmap). Necesitamos implementar el Agente Generador de WBS (WBSGeneratorAgent). Este componente utiliza LangGraph para orquestar la llamada a Claude Sonnet 4. Su función es analizar las cláusulas de "Alcance" y "Especificaciones Técnicas" de un contrato y generar una Estructura de Desglose de Trabajo (WBS) jerárquica. El requisito crítico de negocio es la Trazabilidad Legal: El agente no solo debe inventar tareas; debe vincular cada ítem de la WBS a la clause_id específica que justifica su existencia.
+Rol: Actúa como un Senior AI Engineer experto en LangChain y LangGraph. Entiendes cómo estructurar "Chains of Thought" (Cadenas de Pensamiento) para tareas de descomposición complejas.
+Tarea: Crear el módulo agents/wbs_generator.py.
+Requisitos Técnicos:
+Tecnología: Utiliza LangGraph para definir el grafo de estado (StateGraph). Aunque por ahora sea un grafo lineal (Input -&gt; Generate -&gt; Output), prepáralo para ciclos de reflexión en el futuro.
+Input del Agente:
+Lista de objetos Clause (texto, id, tipo).
+Contexto del proyecto (tipo de obra, presupuesto total).
+System Prompt (Ingeniería de Prompts dentro del código):
+Debes redactar un System Prompt potente para Claude Sonnet.
+Instrucción de Jerarquía: Debe forzar una estructura estricta de 4 niveles:
+Proyecto (Raíz).
+Fase (Ingeniería, Procura, Construcción, etc.).
+Entregable Principal.
+Paquete de Trabajo (Accionable).
+Instrucción de Trazabilidad: "Cada ítem generado DEBE incluir el ID de la cláusula (source_clause_id) que lo menciona o requiere."
+Output Estructurado:
+Utiliza PydanticOutputParser o la capacidad de "Tool Calling" de Claude para forzar que la salida sea estrictamente una lista de objetos WBSItemCreate (definidos en tus schemas previos).
+Human-in-the-Loop (Gate 6):
+Configura el nodo final del grafo para que devuelva el estado con una flag requires_approval=True. Según el roadmap, el humano debe aprobar la WBS antes de guardarla.
+Entregable:
+Python con la clase WBSAgentState (TypedDict).
+La definición del nodo generador (generate_wbs_node).
+El System Prompt completo optimizado para descomposición de tareas EPC.
+La construcción del grafo compilado (workflow.compile()).</t>
+  </si>
+  <si>
+    <t>Una vez que el WBSGeneratorAgent ha definido qué hay que hacer, el BOMBuilderAgent define con qué lo vamos a hacer. Este agente es crítico porque conecta el mundo técnico (Ingeniería) con el económico (Presupuesto) y el logístico (Compras).
+Según el Roadmap, este agente no solo lista materiales; debe ser capaz de inferir Lead Times (tiempos de entrega) y cruzar los datos con el presupuesto para cumplir la Regla R15 ("BOM sin partida presupuestaria").
+📝 Actividad 2: S3.5 (Sprint 3)
+Nombre: BOMBuilderAgent Implementation Dominio: AI / Backend / Supply Chain Story Points: 5 Dependencias: S3.4 (WBS), CE-S2-001 (Schemas)
+Aquí tienes el prompt optimizado para construir este agente experto en logística.
+🚀 Prompt Optimizado
+Contexto: Estamos desarrollando el BOMBuilderAgent (Bill of Materials) para C2Pro. Este agente recibe como entrada la WBS (generada en el paso anterior) y el Presupuesto Desglosado (partidas extraídas del BC3/Excel). Su misión es generar la lista de materiales, equipos y servicios necesarios para ejecutar cada paquete de trabajo de la WBS. Además, debe actuar como un planificador logístico experto: debe estimar los tiempos de suministro (lead_time_days) basándose en la naturaleza del ítem (ej. "Válvula especial" tarda más que "Cemento") para alimentar posteriormente las alertas de riesgo R14.
+Rol: Actúa como un Senior Supply Chain Architect y experto en LangGraph.
+Tarea: Crear el módulo agents/bom_builder.py.
+Requisitos del Grafo (State Machine):
+Estado (BOMAgentState):
+wbs_items: List[WBSItem] (Input)
+budget_items: List[BudgetItem] (Input)
+bom_items: List[BOMItem] (Output)
+Lógica del Nodo Generador (materializer_node):
+Iteración Inteligente: El agente no debe alucinar; debe iterar sobre los ítems "hoja" de la WBS.
+System Prompt: "Eres un Jefe de Compras experto en proyectos EPC. Para cada paquete de trabajo, deduce los materiales necesarios."
+Inferencia Logística: Para cada ítem generado, el LLM debe estimar:
+production_time_days: Tiempo de fabricación.
+transit_time_days: Tiempo de transporte (asumir internacional si es complejo).
+total_lead_time_days: Suma + buffer.
+Cruce Presupuestario (Regla R15): Debe intentar encontrar el budget_item_id que financia este material basándose en similitud de nombres/códigos con la lista de budget_items. Si no encuentra coincidencia clara, debe dejarlo null (lo cual disparará una alerta después).
+Integridad de Datos (Pydantic):
+El output debe cumplir estrictamente con el esquema BOMItemCreate definido en schemas/bom.py.
+Trazabilidad: Debe heredar el clause_id del ítem WBS padre.
+Optimización de Contexto:
+Dado que la WBS y el Presupuesto pueden ser enormes, implementa una estrategia de "Map-Reduce" o procesamiento por lotes (batches) en LangGraph para no desbordar la ventana de contexto de Claude.
+Entregable: Python con:
+La definición del BOMAgentState.
+La función materializer_node con la lógica de inferencia de lead times.
+El prompt del sistema especializado en Supply Chain.
+La configuración del grafo.</t>
+  </si>
+  <si>
+    <t>Esta actividad marca el hito de completitud del Motor de Coherencia. Hasta ahora teníamos el esqueleto y un par de reglas de ejemplo; ahora vamos a dotar al sistema de su verdadera inteligencia de negocio implementando las reglas complejas que cruzan Cronograma, Coste y Alcance.
+Estas reglas no son simples if/else; requieren lógica de conjuntos, comparaciones de fechas y cruces de datos entre entidades dispares (BOM vs Presupuesto).
+Aquí tienes el prompt optimizado para un AI Lead / Backend Developer.
+📝 Actividad: CE-S4-005
+Nombre: Implementación 8 Reglas de Coherencia Restantes (Core Logic) Dominio: Backend / Business Logic Story Points: 4 (Alta densidad lógica) Dependencias: CE-S3-006 (Engine Arch), CE-S4-003/004 (Agents Data) Gate: Gate 5 (Coherence Metric)
+🚀 Prompt Optimizado
+Contexto: Estamos completando el set de reglas del Coherence Engine en apps/api/src/coherence/rules/. Ya tenemos la clase base CoherenceRule y la estructura del ProjectContext. Ahora debemos implementar la lógica dura de las 8 reglas restantes para alcanzar el objetivo de "10 Reglas Core" del MVP. Estas reglas deben ser puras (sin I/O, operando sobre los datos en memoria del contexto) para asegurar velocidad y testabilidad.
+Rol: Actúa como un Business Logic Developer experto en gestión de proyectos (PMBOK) y algoritmos en Python.
+Tarea: Implementar las siguientes clases heredando de CoherenceRule.
+Detalle de las Reglas a Implementar:
+Reglas de Alcance y Coste:
+R2 (Cost Variance): Comparar Sum(BudgetItems.total) vs Contract.total_amount.
+Umbral: Si la diferencia es &gt; 5%, generar alerta HIGH. Si es &gt; 10%, CRITICAL.
+R15 (Unbudgeted Items - Zombie BOM): Iterar sobre BOMItems. Si bom_item.budget_item_id es None (no se encontró partida financiera), generar alerta HIGH por cada ítem huérfano. Evidencia: Nombre del material.
+Reglas de Cronograma y Dependencias:
+R12 (Dependency Violation): Para tareas vinculadas (Predecesora -&gt; Sucesora).
+Lógica: Si Successor.start_date &lt; Predecessor.end_date.
+Alerta: CRITICAL "Secuencia imposible".
+R20 (Orphan Tasks): Iterar WBSItems. Si un ítem hoja no tiene stakeholders asignados (RACI 'Responsible' vacío), alerta MEDIUM.
+Reglas de Cadena de Suministro (Logística):
+R14 (Lead Time Risk):
+Calcular: Fecha Necesidad en Sitio (del Cronograma) - Lead Time Total (del BOM Agent) = Fecha Límite Pedido.
+Lógica: Si Fecha Límite Pedido &lt; Hoy, alerta CRITICAL "Material ya retrasado".
+Otras Reglas (Compliance/Quality):
+R6 (Permitting): Si detectamos cláusulas de "Licencia" o "Permiso" en el contrato y no hay hito correspondiente en el cronograma.
+R19 (Cash Flow - Opcional simple): Si la curva de gastos mensual excede el límite de facturación (si tenemos esos datos). Si no, dejar como Pass por ahora.
+Requisitos Técnicos:
+Evidencia Estructurada (evidence_json):
+Cada regla debe retornar un diccionario exacto con los valores que fallaron.
+Ejemplo R14: {"material": "Válvula X", "needed_date": "2024-02-01", "lead_time": 45, "required_order_date": "2023-12-15", "delay_days": 20}. Esto es vital para que el Frontend explique el problema.
+Eficiencia:
+Usa sets o diccionarios (dict) para búsquedas rápidas (O(1)) de IDs. No hagas bucles anidados O(n^2) sobre listas grandes si puedes evitarlo indexando primero.
+Testing (Unitario):
+Para cada regla, crea un test unitario en tests/coherence/test_rules_impl.py con datos mockeados que fuercen el fallo y el éxito.
+Entregable: Python de las 8 clases (cada una en su archivo o agrupadas por dominio: schedule_rules.py, cost_rules.py, etc.) y sus tests unitarios.</t>
+  </si>
+  <si>
+    <t>ctividad: CE-S4-006
+Nombre: Integration Test Full Loop (Upload -&gt; Score) Dominio: QA / Testing Story Points: 3 Dependencias: Todo el Backend (S3 y S4) Gate: Gate 5 (System Coherence)
+🚀 Prompt Optimizado
+Contexto: Hemos completado los componentes individuales. Ahora necesitamos un Test de Integración de Sistema que valide el flujo completo desde la perspectiva del usuario ("Caja Negra" o "Caja Gris"). Este test simulará el viaje de un documento: Subida -&gt; Procesamiento Asíncrono -&gt; Cálculo de Score. El reto principal es manejar la asincronía (Polling) dentro del test y decidir qué mockear (para no gastar dinero en Anthropic en cada test run) y qué dejar real.
+Rol: Actúa como un QA Automation Engineer experto en pytest y pytest-asyncio.
+Tarea: Crear el test tests/integration/flows/test_full_scoring_loop.py.
+Requisitos Técnicos:
+Estrategia de Mocking (AI):
+NO llames a la API real de Anthropic.
+Usa unittest.mock o respx para interceptar las llamadas del AIService.
+Prepara "Canned Responses" (Respuestas enlatadas) realistas:
+Una respuesta para WBS Extraction (JSON con tareas).
+Una respuesta para Stakeholder Extraction (JSON con roles).
+El resto del sistema (DB, Celery, Reglas, Parsers) debe ser REAL.
+Flujo del Test (test_upload_and_calculate_score):
+Paso 1 (Upload): POST /projects/{id}/documents con un PDF de prueba (tests/fixtures/files/contract_sample.pdf).
+Assert: Status 202, retorna task_id.
+Paso 2 (Polling): Implementa un bucle while que llame a GET /projects/{id}/documents cada 0.5s (máximo 10s).
+Wait condition: Esperar hasta que el status sea PARSED.
+Paso 3 (Trigger Calculation): (Si no es automático) Llama al endpoint que dispara el cálculo de coherencia (o espera si es automático tras el parseo).
+Paso 4 (Validation): GET /projects/{id}/coherence-score.
+Assert: Status 200.
+Assert: score es un entero entre 0 y 100.
+Assert: breakdown contiene datos (no está vacío).
+Configuración Celery (Modo Test):
+Para evitar levantar un worker de Redis separado durante los tests, configura Celery en modo task_always_eager = True dentro del conftest.py. Esto hace que las tareas asíncronas se ejecuten síncronamente en el mismo hilo, facilitando el debugging y eliminando la necesidad de time.sleep().
+Entregable: Python del test de integración completo, incluyendo los mocks necesarios para simular la "inteligencia" de la IA sin coste.</t>
+  </si>
+  <si>
+    <t>gemini luego codex</t>
+  </si>
+  <si>
+    <t>Esta actividad es crítica para la lógica RACI (Responsible, Accountable, Consulted, Informed).
+Si el sistema no sabe quién está trabajando en el proyecto, no puede detectar si hay tareas huérfanas (Regla R20). El StakeholderExtractorAgent debe leer las primeras páginas del contrato (donde suelen estar las "Partes Intervinientes") y extraer estructuradamente a las empresas y representantes legales.
+📝 Actividad: CE-S5-001
+Nombre: StakeholderExtractorAgent (NLP Entity Recognition) Dominio: AI / Backend Story Points: 3 Dependencias: CE-S4-001 (Base AI Service) Gate: Gate 5 (Accuracy &gt; 80%)
+🚀 Prompt Optimizado
+Contexto: Estamos construyendo el Agente de Identificación de Partes. Necesitamos que la IA lea el texto crudo del PDF (específicamente las secciones de introducción y firmas) y extraiga quiénes son los actores del proyecto. El objetivo es poblar la tabla stakeholders para luego poder cruzarla con el cronograma (ej. "¿Tiene esta tarea asignada a un responsable válido?").
+Rol: Actúa como un AI Engineer especialista en Procesamiento de Lenguaje Natural (NLP) y Prompt Engineering.
+Tarea: Implementar la clase StakeholderExtractorAgent en apps/api/src/agents/stakeholder_extractor.py.
+Requisitos Técnicos:
+Definición del System Prompt:
+Diseña un prompt para Claude 3.5 Sonnet que reciba texto legal desordenado y devuelva JSON estricto.
+Instrucciones Clave:
+"Identifica a la entidad 'Cliente' (Dueño de la obra) y 'Contratista' (Ejecutor)".
+"Extrae nombres de representantes legales y sus cargos si aparecen".
+"Ignora notarios o figuras irrelevantes para la ejecución (ej. registro mercantil)".
+Schema de Salida (JSON):
+JSON
+{
+  "stakeholders": [
+    {
+      "name": "Juan Pérez",
+      "role": "Project Manager", // o "Legal Representative"
+      "company": "Construcciones S.A.",
+      "type": "CONTRACTOR", // Enum: CLIENT, CONTRACTOR, SUBCONTRACTOR, SUPERVISION
+      "contact_email": "juan@construcciones.com" // Si existe
+    }
+  ]
+}
+Lógica del Agente:
+Heredar de la clase base BaseAgent.
+Implementar el método extract(text_chunk: str) -&gt; List[Stakeholder].
+Pre-procesamiento: El agente probablemente solo necesite las primeras 10 páginas y las últimas 5 (firmas) del contrato. No le envíes el documento entero de 200 páginas para ahorrar tokens.
+Manejo de Errores:
+Si el modelo alucina o devuelve JSON inválido, implementar un mecanismo de retry o usar el modo json_mode de la API de Anthropic para forzar la estructura.
+Entregable: Python de la clase StakeholderExtractorAgent y el prompt del sistema optimizado.</t>
+  </si>
+  <si>
+    <t>Nombre: AlertGenerator Service Implementation Dominio: Backend / Core Logic Story Points: 3 Dependencias: S3.6 (Coherence Engine), CE-S2-002 (Schemas)
+Aquí tienes el prompt optimizado para implementar este servicio de persistencia inteligente.
+🚀 Prompt Optimizado
+Contexto: Estamos implementando el AlertGenerator para C2Pro. El CoherenceEngine nos entrega una lista cruda de violaciones detectadas cada vez que corre (ej. cada vez que se sube un documento). Si guardamos todo ciegamente, llenaremos la base de datos de duplicados cada vez que se ejecute el análisis. Este servicio debe actuar como un filtro inteligente: solo persistir alertas nuevas, actualizar la evidencia de las existentes y reabrir las que se creían resueltas pero han reaparecido (regresión).
+Rol: Actúa como un Backend Developer experto en patrones de diseño de sistemas de monitoreo y deduplicación de eventos.
+Tarea: Crear el módulo services/alerts/generator.py.
+Requisitos Técnicos:
+Input:
+project_id: UUID.
+detected_violations: Lista de objetos AlertCreate (generados por las reglas de S3.6).
+Lógica de Deduplicación (Fingerprinting):
+Genera un "Fingerprint" único para cada alerta basado en: rule_id + affected_entity_ids (ej. R1_schedule_123_contract_456).
+Escenario A (Nueva): Si no existe alerta activa con ese fingerprint -&gt; INSERT.
+Escenario B (Existente Open): Si ya existe y está open -&gt; UPDATE solo el evidence_json (por si los valores cambiaron) y updated_at. No crear duplicado.
+Escenario C (Regresión): Si existe pero estaba resolved -&gt; UPDATE status a open y añadir nota de sistema "Regresión detectada autom".
+Escenario D (Auto-resolve): (Opcional) Si una alerta abierta en BD ya no viene en la lista de detected_violations (el usuario arregló el problema), marcarla como resolved automáticamente.
+Human-in-the-Loop (Gate 6):
+Implementa la lógica de asignación automática de requires_human_review:
+SI severity es 'critical' O 'high' -&gt; True.
+SI rule_id afecta a cláusulas de penalización -&gt; True.
+ELSE -&gt; False (informativa).
+Trazabilidad y Persistencia:
+Asegura que el source_clause_id  se guarde correctamente.
+Usa transacciones de base de datos (atomic) para procesar el lote completo.
+Entregable: Python con la clase AlertGeneratorService y el método process_violations(project_id, violations). Incluye la lógica de generación del hash/fingerprint para deduplicación.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el Traductor de Negocio.
+Las reglas que implementamos en el paso anterior (CE-S4-005) devuelven datos crudos (ej: R14: Failed, delay=20). El usuario final no entiende de reglas; necesita un mensaje claro: "La Válvula X llegará 20 días tarde según el Lead Time".
+El AlertGenerator toma la lógica técnica y la convierte en Mensajes Accionables con hipervínculos a la fuente del problema (Trazabilidad).
+📝 Actividad: CE-S4-006
+Nombre: AlertGenerator con Evidencias Estructuradas Dominio: Backend / Business Logic Story Points: 1 Dependencias: CE-S4-005 (Rules Implementation) Gate: Gate 5 (Coherence Metric)
+🚀 Prompt Optimizado
+Contexto: Hemos ejecutado el motor de reglas y tenemos una lista de resultados (algunos PASS, otros FAIL). Necesitamos persistir los fallos como Alertas en la base de datos para mostrarlas en el Dashboard. El AlertGenerator en apps/api/src/coherence/alert_generator.py es responsable de:
+Recibir el output crudo de una regla.
+Formatear un mensaje humano legible usando plantillas (Templates).
+Vincular la alerta a los objetos afectados (ID de la tarea, ID del material) para que el usuario pueda hacer clic y navegar al problema (affected_ids).
+Vincular la alerta a la cláusula del contrato que se está violando (source_clause_id), si aplica.
+Rol: Actúa como un Product Engineer enfocado en la Explicabilidad (Explainability) del sistema.
+Tarea: Implementar la clase AlertGenerator.
+Requisitos Técnicos:
+Sistema de Plantillas (Message Templates):
+Define un diccionario de templates mapeado por rule_id.
+Ejemplo:
+Python
+TEMPLATES = {
+    "R14": "El material '{material}' tiene un Lead Time de {lead_time} días, lo que retrasa la tarea '{task_name}' en {delay_days} días.",
+    "R02": "La partida presupuestaria '{code}' excede el monto contractual en {variance_percent}%.",
+    # ... resto de reglas
+}
+Usa str.format(**evidence_json) para inyectar los datos dinámicamente.
+Generación de Objetos AlertCreate:
+El método generate(rule_result: RuleResult) -&gt; AlertCreate debe mapear:
+severity: Derivado de la regla (CRITICAL/HIGH/MEDIUM/LOW).
+title: Nombre corto de la regla.
+description: El mensaje formateado.
+evidence_json: El objeto JSON crudo (para debug o visualizaciones avanzadas).
+affected_object_ids: Lista de UUIDs (ej. ID del WBS Item, ID del BOM Item).
+source_clause_id: Si la regla detectó una cláusula específica.
+Deduplicación (Opcional pero recomendada):
+Si una regla genera 100 alertas idénticas (ej. "Falta fecha de inicio"), considera agruparlas o generar una sola alerta resumen ("100 tareas sin fecha de inicio") para no inundar al usuario. Para este MVP, genera alertas individuales pero pon un comentario TODO sobre la agrupación.
+Interface Limpia:
+El generador debe ser agnóstico de la base de datos. Solo transforma datos en memoria.
+Entregable: Python de la clase AlertGenerator con los templates definidos para las reglas implementadas en la actividad anterior.</t>
+  </si>
+  <si>
+    <t>estp hay que revisar, no me fio</t>
+  </si>
+  <si>
+    <t>Esta es la validación funcional definitiva. A diferencia de los tests unitarios (que prueban si una función "crachea"), estos tests prueban si la Lógica de Negocio es correcta.
+Si tenemos un proyecto de prueba diseñado específicamente para tener un "retraso en materiales", este test debe asegurar que la Regla R14 salte. Si no salta, tenemos un bug silencioso en la lógica.
+Aquí tienes el prompt para un QA Lead.
+📝 Actividad: CE-S4-015
+Nombre: Tests Integración Coherence Engine (Logic Validation) Dominio: Testing / QA Story Points: 1 Dependencias: CE-S4-005 (Reglas), CE-S2-015 (Golden Dataset) Gate: Gate 5 (Logic Correctness)
+🚀 Prompt Optimizado
+Contexto: El Motor de Coherencia es el corazón del producto. Hemos implementado 10 reglas complejas. Necesitamos asegurar que el motor detecta los problemas conocidos de forma determinista. Usaremos el Golden Dataset (proyectos JSON pre-fabricados con errores intencionales) para validar que las reglas se activan cuando deben. Ejemplo: Si el dataset project_broken_dates.json tiene una tarea que empieza antes de que acabe su predecesora, el test debe fallar si la regla R12 no genera una alerta CRITICAL.
+Rol: Actúa como un QA Automation Engineer especializado en validación de lógica de negocio.
+Tarea: Crear la suite de tests tests/integration/coherence/test_engine_logic.py.
+Requisitos Técnicos:
+Fixtures ("Casos de Laboratorio"):
+Crea o asegura la existencia de 2 fixtures JSON en tests/fixtures/scenarios/:
+scenario_perfect.json: Un proyecto coherente. Score esperado &gt; 90.
+scenario_disaster.json: Un proyecto con fechas imposibles, sin presupuesto y materiales tardíos. Score esperado &lt; 40.
+Test de Reglas Específicas:
+Test R12 (Dependencias): Carga un escenario con violación de secuencia. Ejecuta el motor.
+Assert: Existe una alerta con rule_id="R12".
+Assert: La severidad es CRITICAL.
+Test R02 (Sobrecoste): Carga escenario con Budget &gt; Contract.
+Assert: Existe alerta R02.
+Test de Estabilidad del Score:
+Ejecuta el motor sobre scenario_perfect.json.
+Assert: score &gt;= 90.
+Assert: La lista de alertas está vacía (o solo tiene LOW).
+Performance Check (Soft Real-time):
+Mide el tiempo de ejecución del calculate_score.
+Assert: Debe ser menor a 200ms para un proyecto de tamaño medio (el motor trabaja en memoria, debe ser rapidísimo).
+No Mocking Logic:
+A diferencia de los tests de API, aquí NO mockees las reglas. Queremos ejecutar la implementación real de CoherenceService sobre datos estáticos.
+Entregable: Python de los tests de integración usando pytest.</t>
+  </si>
+  <si>
+    <t>gemini y el otro codex</t>
+  </si>
+  <si>
+    <t>Esta es la actividad que diferencia un "Juguete de IA" de una "Herramienta Profesional".
+Si el sistema dice que el proyecto va "Mal" (Score 40) pero un Project Manager experto dice que va "Bien" (Score 80), el usuario perderá la confianza en el primer minuto. La Calibración consiste en ajustar los Pesos (Weights) de cada regla para que la opinión de la máquina se alinee matemáticamente con la intuición humana.
+📝 Actividad: CE-S4-007
+Nombre: Calibración del Coherence Score (10 Reglas) Dominio: AI / Data Science Story Points: 1 Dependencias: CE-S4-005 (Reglas), CE-S2-015 (Gold Standard Dataset) Gate: Gate 5 (Quality Threshold &gt; 0.85 Correlation)
+🚀 Prompt Optimizado
+Contexto: Hemos implementado las 10 reglas de coherencia. Ahora debemos asignarles importancia relativa. ¿Qué es más grave: Un retraso de 2 días (R12) o un sobrecoste del 1% (R02)? Tenemos un Gold Standard Dataset (preparado en S2) con 20 proyectos anonimizados y su puntuación asignada por expertos humanos (0-100). Necesitamos un script que ejecute nuestro motor sobre estos proyectos, compare el resultado con la nota humana y calcule la correlación.
+Rol: Actúa como un Lead Data Scientist experto en validación de modelos.
+Tarea: Crear el script scripts/run_calibration.py.
+Requisitos Técnicos:
+Carga de Datos (Ground Truth):
+Leer un archivo calibration_dataset.json que contiene una lista de proyectos con sus datos crudos (WBS, BOM, Contrato) y su human_score.
+Batch Execution:
+Importar el CoherenceService.
+Iterar sobre cada proyecto del dataset e invocar calculate_score(project_context).
+Análisis Estadístico:
+Comparar ai_score vs human_score.
+Calcular:
+MSE (Mean Squared Error): Cuánto nos equivocamos en promedio.
+Correlación de Pearson: Qué tan bien sigue la tendencia (Objetivo &gt; 0.85).
+Ajuste de Pesos (Weight Tuning):
+El script debe cargar la configuración de pesos actual (DEFAULT_WEIGHTS).
+Modo Iterativo (Opcional pero valioso): Si puedes, implementa un pequeño bucle que ajuste ligeramente los pesos de las reglas críticas (CRITICAL vs HIGH) para intentar minimizar el MSE automáticamente (Hill Climbing simple), o simplemente imprime un reporte detallado sugiriendo qué reglas están penalizando demasiado.
+Output Gráfico:
+Generar un gráfico de dispersión (Scatter Plot) usando matplotlib o imprimir una tabla ASCII en consola mostrando la desviación por proyecto.
+Entregable: Python del script de calibración y un archivo de configuración weights_config.py optimizado</t>
+  </si>
+  <si>
+    <t>El Coherence Score no es un simple contador de errores. Es un KPI matemático (0-100) que debe resumir la salud del proyecto en un solo vistazo. Si el algoritmo es demasiado sensible, todos los proyectos tendrán "0" y el usuario se frustrará. Si es muy permisivo, todos tendrán "100" y no verán el valor.
+Según la especificación del Roadmap (Sección 12), debemos implementar una fórmula no lineal (sigmoide) para asegurar que el score siempre se mantenga entre 0 y 100, independientemente de cuántas alertas existan.
+📝 Actividad 5: S3.8 (Sprint 3)
+Nombre: Coherence Score v1 Implementation Dominio: Backend / Analytics / Math Story Points: 3 Dependencias: S3.7 (Alerts), CE-S2-002 (Schemas)
+Aquí tienes el prompt optimizado para implementar la lógica matemática definida en el Anexo técnico.
+🚀 Prompt Optimizado
+Contexto: Estamos implementando la lógica de cálculo del Coherence Score v1 para C2Pro. Este score es el indicador principal del Dashboard. Debe ser un entero entre 0 (Caos total) y 100 (Coherencia perfecta). No podemos usar una resta lineal simple (ej. 100 - (n_errores * puntos)) porque un proyecto grande con muchas alertas podría tener puntuación negativa. Según la especificación técnica del Roadmap, debemos usar una función de normalización (curva suave) y ponderar las alertas por severidad.
+Rol: Actúa como un Algorithm Engineer o Data Scientist con experiencia en implementación de métricas de riesgo (Scoring Models).
+Tarea: Crear el módulo services/scoring/calculator.py y services/scoring/weights.py.
+Requisitos del Algoritmo (Especificación Gate 5):
+Definición de Pesos (Weights):
+Define constantes para la "Penalización Base" según severidad:
+CRITICAL: 25 puntos.
+HIGH: 10 puntos.
+MEDIUM: 5 puntos.
+LOW: 1 punto.
+Cálculo de Penalización Bruta (Raw Penalty):
+Sumar el peso de todas las alertas abiertas.
+Refinamiento: Si hay múltiples alertas de la misma regla (ej. 50 materiales retrasados R14), aplicar un factor de "amortiguación logarítmica" para que no destruyan el score desproporcionadamente (ej. la primera cuenta 100%, la segunda 80%, etc., o simplemente agrupar por regla). Para v1, suma lineal por severidad es aceptable si normalizamos después.
+Fórmula de Normalización (0-100):
+Implementa la fórmula de decaimiento definida en el roadmap:
+Python
+# raw_penalty = suma de pesos
+# sensitivity = 50 (ajustable para calibración)
+normalized_score = 100 / (1 + (raw_penalty / sensitivity))
+final_score = int(max(0, min(100, normalized_score)))
+Breakdown (Explicabilidad):
+El usuario necesita saber por qué tiene un 65.
+Genera una lista de Top Drivers: Las 5 reglas que más penalización están aportando al cálculo, ordenadas descendentemente.
+Output:
+Objeto ScoreResult con: value (int), severity_breakdown (count por tipo), top_drivers (list) y calculated_at.
+Entregable: Python completo de la clase ScoreCalculator. Incluye comentarios explicando la fórmula matemática elegida.</t>
+  </si>
+  <si>
+    <t>Esta actividad es la "Constitución" del sistema.En el software Enterprise (y más en construcción), los usuarios no confían en las "Cajas Negras". Si un Director de Proyecto ve una nota de 45/100, su primera pregunta será: "¿Por qué? ¿Cómo se calcula eso?".Este documento (scoring_methodology_v1.md) es la respuesta oficial. Debe ser lo suficientemente técnico para el CTO y lo suficientemente claro para que el equipo de Ventas pueda explicarlo al cliente.📝 Actividad: CE-S4-008Nombre: Documentar Fórmula Score Auditoría (Whitepaper Interno)Dominio: Documentation / AI GovernanceStory Points: 0.5Dependencias: CE-S4-007 (Pesos calibrados)Gate: Gate 5 (Auditability)🚀 Prompt OptimizadoContexto:Hemos calibrado el motor de IA y tenemos los pesos finales (CRITICAL, HIGH, MEDIUM, LOW).Ahora debemos "congelar" esta lógica en un documento oficial antes de lanzar la V1.Este documento servirá de base para la auditoría técnica y para responder dudas de clientes sobre la imparcialidad del algoritmo.La fórmula debe ser determinista: Mismos inputs = Mismo Score.Rol:Actúa como un Technical Writer con conocimientos de Data Science.Tarea:Crear el archivo docs/coherence_engine/scoring_methodology_v1.md.Requisitos del Contenido:Definición de la Fórmula Matemática:Documenta explícitamente cómo se llega al número final.Sugerencia de modelo: Modelo Deductivo (Score de Penalización).$$Score = 100 - \sum (Weight_i \times Count_i)$$(Con un suelo de 0, no negativos).O Modelo de Promedio Ponderado. Elige el que hayamos implementado en el código y explícalo con LaTeX.Tabla de Pesos (Weight Table):Lista los valores exactos acordados tras la calibración (S4-007).CRITICAL: (ej. -15 puntos).HIGH: (ej. -5 puntos).MEDIUM: (ej. -2 puntos).LOW: (ej. -0.5 puntos).Catálogo de Reglas V1:Lista las 10 reglas activas (R2, R6, R12, etc.) con una breve descripción de "Qué penaliza".Ejemplo: "R14 (Supply Chain): Penaliza si la fecha de pedido calculada es anterior a hoy."Justificación de Calibración:Añade una nota breve indicando que estos pesos fueron validados contra un dataset de 20 proyectos reales con una correlación de &gt;0.85 respecto al juicio experto.Control de Versiones:Encabezado con Version: 1.0, Date: 2026-01-24, Status: APPROVED.Entregable:Contenido en formato Markdown profesional, listo para ser commiteado al repositorio.,</t>
   </si>
 </sst>
 </file>
@@ -6330,7 +6339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6407,9 +6416,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6418,6 +6424,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6725,7 +6740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -6738,15 +6753,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7352,7 +7367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7943,7 +7960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8199,9 +8218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8288,7 +8307,7 @@
         <v>ID Nombre Sprint Semana Fecha_Inicio Fecha_Fin Duracion_Dias Prioridad Estado Dominio CTO_Gate Dependencias Asignado Criterio_Aceptacion Riesgo Entregable</v>
       </c>
       <c r="W1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
@@ -8347,14 +8366,14 @@
         <v>677</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="V2" t="str">
         <f>A2 &amp; " " &amp; B2 &amp; " " &amp; C2 &amp; " " &amp; D2 &amp; " " &amp; E2 &amp; " " &amp; F2 &amp; " " &amp; G2 &amp; " " &amp; H2 &amp; " " &amp; I2 &amp; " " &amp; J2 &amp; " " &amp; K2 &amp; " " &amp; L2 &amp; " " &amp; M2 &amp; " " &amp; N2 &amp; " " &amp; O2 &amp; " " &amp; P2</f>
         <v>CE-S2-001 Schemas Pydantic Documents Module Sprint 2 Semana 2 2026-01-09 2026-01-10 2 P0 done Backend Gate 5 Ninguna Backend Lead Request/Response DTOs con clause_id y OpenAPI spec generada Bajo apps/api/src/modules/documents/schemas.py</v>
       </c>
       <c r="W2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="259.2" x14ac:dyDescent="0.3">
@@ -8413,14 +8432,14 @@
         <v>677</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V84" si="0">A3 &amp; " " &amp; B3 &amp; " " &amp; C3 &amp; " " &amp; D3 &amp; " " &amp; E3 &amp; " " &amp; F3 &amp; " " &amp; G3 &amp; " " &amp; H3 &amp; " " &amp; I3 &amp; " " &amp; J3 &amp; " " &amp; K3 &amp; " " &amp; L3 &amp; " " &amp; M3 &amp; " " &amp; N3 &amp; " " &amp; O3 &amp; " " &amp; P3</f>
         <v>CE-S2-002 Schemas Pydantic Analysis Module Sprint 2 Semana 2 2026-01-09 2026-01-10 2 P0 done Backend Gate 5 Ninguna Backend Lead DTOs Alert/Analysis con evidence_json y validaciones Pydantic v2 Bajo apps/api/src/modules/analysis/schemas.py</v>
       </c>
       <c r="W3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -8483,7 +8502,7 @@
         <v>CE-S2-003 Schemas Pydantic Stakeholders Module Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P0 done Backend Gate 5 CE-S2-001 Backend Lead DTOs Stakeholder/WBS/BOM/RACI con clause_id FK Bajo apps/api/src/modules/stakeholders/schemas.py</v>
       </c>
       <c r="W4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -8546,7 +8565,7 @@
         <v>CE-S2-004 Implementar Redis/Upstash Cache Sprint 2 Semana 2 2026-01-09 2026-01-09 1 P0 done Infrastructure Gate 7 Ninguna DevOps Cache extracciones por hash documento TTL 24h hit ratio &gt;80% Medio apps/api/src/core/cache.py</v>
       </c>
       <c r="W5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -8609,7 +8628,7 @@
         <v>CE-S2-005 Model Routing Dinámico Config Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done AI Gate 7 Ninguna AI Lead Config YAML routing Sonnet/Haiku por operación Bajo apps/api/src/ai/model_routing.yaml</v>
       </c>
       <c r="W6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -8672,7 +8691,7 @@
         <v>CE-S2-006 Caché de Prompts Idénticos Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P1 done AI Gate 7 CE-S2-004 AI Lead Hash SHA-256 input resultado cacheado 24h Bajo apps/api/src/ai/prompt_cache.py</v>
       </c>
       <c r="W7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -8735,7 +8754,7 @@
         <v>CE-S2-007 LLM Client Wrapper Anthropic Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P0 done AI Gate 7 Ninguna AI Lead SDK retry exponential backoff logging cost tracking Medio apps/api/src/ai/llm_client.py</v>
       </c>
       <c r="W8" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="180" customHeight="1" x14ac:dyDescent="0.3">
@@ -8835,7 +8854,7 @@
 Snippet mostrando cómo añadir app.add_exception_handler(...) en el archivo main.py.</v>
       </c>
       <c r="W9" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8892,14 +8911,14 @@
         <v>677</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="0"/>
         <v>CE-S2-009 Error Handling Consistente API Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done Backend  Ninguna Backend Lead Excepciones custom códigos HTTP JSON estructurado Bajo apps/api/src/core/exceptions.py</v>
       </c>
       <c r="W10" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
@@ -8958,14 +8977,14 @@
         <v>681</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="0"/>
         <v>CE-S2-010 Wireframes 6 Vistas Core Sprint 2 Semana 2 2026-01-09 2026-01-09 1 P0 done UX/UI Gate 6 Ninguna UX Designer Wireframes Dashboard/Projects/Evidence/Alerts/Stakeholders/RACI Medio docs/wireframes/</v>
       </c>
       <c r="W11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="221.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9019,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="S12" s="29" t="s">
         <v>683</v>
@@ -9029,7 +9048,7 @@
         <v>CE-S2-011 Setup Next.js 14 + Tailwind + shadcn/ui Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done Frontend  Ninguna Frontend Lead Proyecto configurado componentes base app renderiza Bajo apps/web/</v>
       </c>
       <c r="W12" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="168" customHeight="1" x14ac:dyDescent="0.3">
@@ -9086,14 +9105,14 @@
         <v>677</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="0"/>
         <v>CE-S2-012 GitHub Actions CI Completo Sprint 2 Semana 2 2026-01-09 2026-01-09 1 P0 done DevOps  Ninguna DevOps Lint/test/build cada PR bloqueados sin CI verde Bajo .github/workflows/ci.yml</v>
       </c>
       <c r="W13" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="246" customHeight="1" x14ac:dyDescent="0.3">
@@ -9150,14 +9169,14 @@
         <v>677</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="0"/>
         <v>CE-S2-013 Auto-deploy Staging on Merge Main Sprint 2 Semana 2 2026-01-10 2026-01-10 0,5 P0 done DevOps  CE-S2-012 DevOps Railway + Vercel webhooks merge deploy &lt;5 min Bajo .github/workflows/deploy-staging.yml</v>
       </c>
       <c r="W14" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9221,7 +9240,7 @@
         <v>CE-S2-014 Benchmark Baseline Endpoints Sprint 2 Semana 2 2026-01-11 2026-01-11 0,5 P1 done Performance  Ninguna Backend Lead Latencia P50/P95/P99 métricas baseline documentadas Bajo docs/performance/baseline.md</v>
       </c>
       <c r="W15" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9280,7 +9299,7 @@
         <v>677</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T16" s="28" t="s">
         <v>685</v>
@@ -9290,7 +9309,7 @@
         <v>CE-S2-015 Golden Dataset v1.0 (10 proyectos) Sprint 2 Semana 2 2026-01-09 2026-01-10 2 P0 done Testing Gate 5 Ninguna QA Lead 10 proyectos sintéticos anotados README incluido Medio tests/golden/</v>
       </c>
       <c r="W16" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9352,14 +9371,14 @@
         <v>686</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="0"/>
         <v>CE-S2-016 Tests Regresión Accuracy CI Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P0 done Testing Gate 5 CE-S2-015 QA Lead CI compara accuracy vs baseline falla si &lt;85% Medio tests/accuracy/</v>
       </c>
       <c r="W17" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9418,17 +9437,17 @@
         <v>677</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="T18" s="28" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-001 Parser PDF con PyMuPDF Sprint 3 Semana 3 2026-01-13 2026-01-15 3 P0 done Backend Gate 4 Ninguna Backend Lead Extracción texto posiciones offsets 10 PDFs test Medio apps/api/src/parsers/pdf_parser.py</v>
       </c>
       <c r="W18" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9487,17 +9506,17 @@
         <v>677</v>
       </c>
       <c r="S19" s="28" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="T19" s="28" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-002 Parser Excel con openpyxl Sprint 3 Semana 3 2026-01-13 2026-01-14 2 P0 done Backend Gate 4 Ninguna Backend Lead Lectura cronogramas presupuestos formatos estándar Bajo apps/api/src/parsers/excel_parser.py</v>
       </c>
       <c r="W19" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9556,17 +9575,17 @@
         <v>677</v>
       </c>
       <c r="S20" s="28" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="T20" s="28" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-003 Parser BC3 con pyfiebdc Sprint 3 Semana 3 2026-01-15 2026-01-16 2 P0 done Backend Gate 4 Ninguna Backend Lead Partidas presupuestarias españolas BC3 100% Medio apps/api/src/parsers/bc3_parser.py</v>
       </c>
       <c r="W20" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9625,14 +9644,14 @@
         <v>677</v>
       </c>
       <c r="S21" s="28" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-004 Anonymizer Service PII Sprint 3 Semana 3 2026-01-16 2026-01-17 2 P0 done Security Gate 8 CE-S3-001 Security Lead Detección hash DNI/email/teléfono/IBAN 0 PII Claude Alto apps/api/src/services/anonymizer.py</v>
       </c>
       <c r="W21" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9691,18 +9710,18 @@
         <v>677</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-005 ClauseExtractorAgent Sprint 3 Semana 3 2026-01-15 2026-01-16 2 P0 done AI Gate 4 CE-S3-001 AI Lead Extracción cláusulas IDs estables únicos documento Alto apps/api/src/agents/clause_extractor.py</v>
       </c>
       <c r="W22" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="33" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -9757,17 +9776,17 @@
         <v>677</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-006 Task Queue Celery/Redis Sprint 3 Semana 3 2026-01-13 2026-01-14 2 P0 done Infrastructure Gate 7 CE-S2-004 DevOps Jobs async parsing coherence 100 pág no bloquea Medio apps/api/src/tasks/</v>
       </c>
       <c r="W23" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9826,17 +9845,17 @@
         <v>677</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-007 Endpoint GET /projects/{id}/coherence-score Sprint 3 Semana 3 2026-01-14 2026-01-14 0,5 P0 done API Gate 5 CE-S2-001 Backend Lead Response schema validado score + breakdown Bajo apps/api/src/routers/projects.py</v>
       </c>
       <c r="W24" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="213.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9893,17 +9912,17 @@
         <v>677</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-008 Endpoints CRUD /projects Sprint 3 Semana 3 2026-01-14 2026-01-15 1 P0 done API  CE-S2-001 Backend Lead List/Get/Create/Update/Delete tests integración Bajo apps/api/src/routers/projects.py</v>
       </c>
       <c r="W25" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9960,20 +9979,20 @@
         <v>677</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="U26" s="29" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-009 Health Check Endpoints Sprint 3 Semana 3 2026-01-13 2026-01-13 0,5 P0 en curso DevOps  Ninguna DevOps /health /ready /live UptimeRobot configurado Bajo apps/api/src/routers/health.py</v>
       </c>
       <c r="W26" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10032,7 +10051,7 @@
         <v>678</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="U27" t="e" cm="1">
         <f t="array" aca="1" ref="U27" ca="1">unirtexto()</f>
@@ -10043,7 +10062,7 @@
         <v>CE-S3-010 Secrets Management GitHub Sprint 3 Semana 3 2026-01-14 2026-01-14 1 P0 done DevOps Gate 8 Ninguna DevOps Separación secrets entorno 0 secrets código Bajo .github/workflows/</v>
       </c>
       <c r="W27" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10097,14 +10116,14 @@
         <v>2</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-011 Tests Integración Parsers Sprint 3 Semana 3 2026-01-17 2026-01-17 1 P0 done Testing  CE-S3-001;CE-S3-002;CE-S3-003 QA Lead Tests archivos reales PDF/Excel/BC3 10 correctos Medio tests/integration/parsers/</v>
       </c>
       <c r="W28" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10160,22 +10179,22 @@
         <v>2</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-012 Propagar clause_id a Stakeholders Sprint 3 Semana 3 2026-01-16 2026-01-16 1 P0 done Backend Gate 4 CE-S3-005 Backend Lead source_clause_id populated 100% stakeholders FK Medio apps/api/src/services/stakeholder_service.py</v>
       </c>
       <c r="W29" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="33" t="s">
         <v>211</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>19</v>
@@ -10196,7 +10215,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>99</v>
@@ -10226,24 +10245,24 @@
         <v>678</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>711</v>
-      </c>
-      <c r="T30" s="29" t="s">
-        <v>878</v>
-      </c>
-      <c r="U30" s="24" t="s">
-        <v>879</v>
+        <v>707</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="U30" s="28" t="s">
+        <v>867</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-001 opp Sprint 3 Semana 4 2026-01-20 2026-01-21 2 P0 en curso AI Gate 5 CE-S2-007 AI Lead Extracción funciona llamadas logueadas retry Alto apps/api/src/ai/ai_service.py</v>
+        <v>CE-S4-001 opp Sprint 3 Semana 4 2026-01-20 2026-01-21 2 P0 done AI Gate 5 CE-S2-007 AI Lead Extracción funciona llamadas logueadas retry Alto apps/api/src/ai/ai_service.py</v>
       </c>
       <c r="W30" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="33" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -10268,7 +10287,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>99</v>
@@ -10294,19 +10313,22 @@
       <c r="Q31" s="13">
         <v>2</v>
       </c>
-      <c r="S31" s="24" t="s">
-        <v>801</v>
+      <c r="R31" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>868</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-002 Cost Controller Budget Sprint 3 Semana 4 2026-01-20 2026-01-20 1 P0 Pendiente AI Gate 7 CE-S4-001 AI Lead Bloquea LLM exceder budget alertas 50/75/90/100% Alto apps/api/src/ai/cost_controller.py</v>
+        <v>CE-S4-002 Cost Controller Budget Sprint 3 Semana 4 2026-01-20 2026-01-20 1 P0 done AI Gate 7 CE-S4-001 AI Lead Bloquea LLM exceder budget alertas 50/75/90/100% Alto apps/api/src/ai/cost_controller.py</v>
       </c>
       <c r="W31" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="33" t="s">
         <v>222</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -10331,7 +10353,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>99</v>
@@ -10357,22 +10379,25 @@
       <c r="Q32" s="13">
         <v>5</v>
       </c>
-      <c r="R32" s="24" t="s">
-        <v>688</v>
-      </c>
-      <c r="S32" s="24" t="s">
-        <v>698</v>
+      <c r="R32" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>697</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-003 WBSGeneratorAgent Sprint 3 Semana 4 2026-01-21 2026-01-22 2 P0 Pendiente AI Gate 5 CE-S4-001 AI Lead WBS 4 niveles contrato requires_approval=True Alto apps/api/src/agents/wbs_generator.py</v>
+        <v>CE-S4-003 WBSGeneratorAgent Sprint 3 Semana 4 2026-01-21 2026-01-22 2 P0 done AI Gate 5 CE-S4-001 AI Lead WBS 4 niveles contrato requires_approval=True Alto apps/api/src/agents/wbs_generator.py</v>
       </c>
       <c r="W32" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="33" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -10397,7 +10422,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>99</v>
@@ -10423,19 +10448,22 @@
       <c r="Q33" s="13">
         <v>5</v>
       </c>
-      <c r="R33" s="24" t="s">
-        <v>699</v>
+      <c r="R33" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>870</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-004 BOMBuilderAgent Sprint 3 Semana 4 2026-01-22 2026-01-23 2 P0 Pendiente AI Gate 5 CE-S4-001;CE-S4-003 AI Lead BOM lead times WBS contract_clause_id populated Alto apps/api/src/agents/bom_builder.py</v>
+        <v>CE-S4-004 BOMBuilderAgent Sprint 3 Semana 4 2026-01-22 2026-01-23 2 P0 done AI Gate 5 CE-S4-001;CE-S4-003 AI Lead BOM lead times WBS contract_clause_id populated Alto apps/api/src/agents/bom_builder.py</v>
       </c>
       <c r="W33" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="33" t="s">
         <v>233</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -10460,7 +10488,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>99</v>
@@ -10486,18 +10514,21 @@
       <c r="Q34" s="13">
         <v>8</v>
       </c>
-      <c r="S34" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="T34" s="24" t="s">
-        <v>804</v>
+      <c r="R34" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>871</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>872</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-005 Implementar 8 Reglas Coherencia Restantes Sprint 3 Semana 4 2026-01-21 2026-01-24 4 P0 Pendiente AI Gate 5 CE-S4-003;CE-S4-004 AI Lead R2/R6/R11/R12/R14/R15/R19/R20 10/10 reglas tests Alto apps/api/src/coherence/rules/</v>
+        <v>CE-S4-005 Implementar 8 Reglas Coherencia Restantes Sprint 3 Semana 4 2026-01-21 2026-01-24 4 P0 done AI Gate 5 CE-S4-003;CE-S4-004 AI Lead R2/R6/R11/R12/R14/R15/R19/R20 10/10 reglas tests Alto apps/api/src/coherence/rules/</v>
       </c>
       <c r="W34" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10526,7 +10557,7 @@
         <v>15</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>99</v>
@@ -10552,18 +10583,21 @@
       <c r="Q35" s="13">
         <v>2</v>
       </c>
-      <c r="R35" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="S35" s="24" t="s">
-        <v>805</v>
+      <c r="R35" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>875</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>876</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-006 AlertGenerator con Evidencias Sprint 3 Semana 4 2026-01-23 2026-01-23 1 P0 Pendiente AI Gate 5 CE-S4-005 AI Lead Alertas source_clause_id affected_ids evidence_json Medio apps/api/src/coherence/alert_generator.py</v>
+        <v>CE-S4-006 AlertGenerator con Evidencias Sprint 3 Semana 4 2026-01-23 2026-01-23 1 P0 done AI Gate 5 CE-S4-005 AI Lead Alertas source_clause_id affected_ids evidence_json Medio apps/api/src/coherence/alert_generator.py</v>
       </c>
       <c r="W35" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10592,7 +10626,7 @@
         <v>15</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>99</v>
@@ -10618,18 +10652,21 @@
       <c r="Q36" s="13">
         <v>2</v>
       </c>
-      <c r="R36" s="24" t="s">
-        <v>702</v>
-      </c>
-      <c r="S36" s="24" t="s">
-        <v>807</v>
+      <c r="R36" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>880</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-007 Calibrar Coherence Score 10 Reglas Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P0 Pendiente AI Gate 5 CE-S4-005;CE-S2-015 AI Lead Score correlaciona &gt;0.85 evaluación experta Alto scripts/run_calibration.py</v>
+        <v>CE-S4-007 Calibrar Coherence Score 10 Reglas Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P0 done AI Gate 5 CE-S4-005;CE-S2-015 AI Lead Score correlaciona &gt;0.85 evaluación experta Alto scripts/run_calibration.py</v>
       </c>
       <c r="W36" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10658,7 +10695,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>250</v>
@@ -10684,15 +10721,18 @@
       <c r="Q37" s="13">
         <v>1</v>
       </c>
-      <c r="S37" s="24" t="s">
-        <v>808</v>
+      <c r="R37" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="S37" s="28" t="s">
+        <v>882</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-008 Documentar Fórmula Score Auditoría Sprint 3 Semana 4 2026-01-24 2026-01-24 0,5 P0 Pendiente Documentation Gate 5 CE-S4-007 AI Lead scoring_methodology_v1.md pesos finales CTO aprueba Bajo docs/coherence_engine/scoring_methodology_v1.md</v>
+        <v>CE-S4-008 Documentar Fórmula Score Auditoría Sprint 3 Semana 4 2026-01-24 2026-01-24 0,5 P0 done Documentation Gate 5 CE-S4-007 AI Lead scoring_methodology_v1.md pesos finales CTO aprueba Bajo docs/coherence_engine/scoring_methodology_v1.md</v>
       </c>
       <c r="W37" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10751,14 +10791,14 @@
         <v>677</v>
       </c>
       <c r="S38" s="28" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-009 Endpoints /projects/{id}/alerts Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 done API Gate 4 CE-S2-001 Backend Lead List filtros/Get/Resolve incluye source_clause_id Bajo apps/api/src/routers/alerts.py</v>
       </c>
       <c r="W38" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10787,7 +10827,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>188</v>
@@ -10812,17 +10852,20 @@
         <v>2</v>
       </c>
       <c r="R39" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="S39" s="29" t="s">
-        <v>809</v>
+        <v>873</v>
+      </c>
+      <c r="S39" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="T39" s="38" t="s">
+        <v>877</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-010 Endpoints /projects/{id}/documents Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 en curso API  CE-S2-001;CE-S3-006 Backend Lead Upload async status polling List/Get/Delete Bajo apps/api/src/routers/documents.py</v>
+        <v>CE-S4-010 Endpoints /projects/{id}/documents Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 done API  CE-S2-001;CE-S3-006 Backend Lead Upload async status polling List/Get/Delete Bajo apps/api/src/routers/documents.py</v>
       </c>
       <c r="W39" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10875,18 +10918,18 @@
       <c r="Q40" s="13">
         <v>2</v>
       </c>
-      <c r="R40" s="35" t="s">
+      <c r="R40" s="32" t="s">
         <v>677</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-011 Script Rollback Automatizado Sprint 3 Semana 4 2026-01-21 2026-01-21 1 P0 done DevOps  Ninguna DevOps Rollback DB PITR + código git revert staging Medio scripts/rollback.sh</v>
       </c>
       <c r="W40" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10939,18 +10982,18 @@
       <c r="Q41" s="13">
         <v>2</v>
       </c>
-      <c r="R41" s="35" t="s">
+      <c r="R41" s="32" t="s">
         <v>677</v>
       </c>
       <c r="S41" s="28" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-012 Paginación Cursor-based Endpoints Sprint 3 Semana 4 2026-01-23 2026-01-23 1 P0 done API  CE-S3-008 Backend Lead Ningún endpoint &gt;100 items sin paginar Bajo apps/api/src/core/pagination.py</v>
       </c>
       <c r="W41" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11003,18 +11046,18 @@
       <c r="Q42" s="13">
         <v>2</v>
       </c>
-      <c r="R42" s="35" t="s">
+      <c r="R42" s="32" t="s">
         <v>677</v>
       </c>
       <c r="S42" s="28" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-013 Optimizar Queries SQL EXPLAIN Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P1 done Performance  Ninguna Backend Lead Queries lentas optimizadas 0 queries &gt;100ms Medio docs/performance/sql_optimization.md</v>
       </c>
       <c r="W42" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11067,18 +11110,18 @@
       <c r="Q43" s="13">
         <v>1</v>
       </c>
-      <c r="R43" s="37" t="s">
+      <c r="R43" s="34" t="s">
         <v>677</v>
       </c>
       <c r="S43" s="28" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-014 Índices Adicionales Búsqueda Sprint 3 Semana 4 2026-01-24 2026-01-24 0,5 P1 done Database  CE-S4-013 Backend Lead Índices campos filtro queries búsqueda &lt;50ms Bajo infrastructure/supabase/migrations/007_indexes.sql</v>
       </c>
       <c r="W43" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11107,7 +11150,7 @@
         <v>15</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>145</v>
@@ -11133,15 +11176,18 @@
       <c r="Q44" s="13">
         <v>2</v>
       </c>
-      <c r="S44" s="24" t="s">
-        <v>814</v>
+      <c r="R44" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>878</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S4-015 Tests Integración Coherence Engine Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P0 Pendiente Testing Gate 5 CE-S4-005;CE-S2-015 QA Lead Tests proyectos golden 10 reglas correctas Medio tests/integration/coherence/</v>
+        <v>CE-S4-015 Tests Integración Coherence Engine Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P0 done Testing Gate 5 CE-S4-005;CE-S2-015 QA Lead Tests proyectos golden 10 reglas correctas Medio tests/integration/coherence/</v>
       </c>
       <c r="W44" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11163,7 +11209,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="S45" s="24" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11185,7 +11231,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="S46" s="24" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11207,7 +11253,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="S47" s="24" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11229,7 +11275,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="S48" s="24" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11251,7 +11297,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
       <c r="S49" s="24" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11273,7 +11319,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="S50" s="24" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11295,7 +11341,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
       <c r="S51" s="24" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11317,7 +11363,7 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="S52" s="24" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11373,20 +11419,20 @@
         <v>5</v>
       </c>
       <c r="S53" s="24" t="s">
-        <v>815</v>
+        <v>874</v>
       </c>
       <c r="T53" s="24" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="U53" s="24" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-001 StakeholderExtractorAgent Sprint 4 Semana 5 2026-01-27 2026-01-29 3 P0 Pendiente AI Gate 5 CE-S4-001 AI Lead Extracción NLP nombres/roles &gt;80% accuracy golden Alto apps/api/src/agents/stakeholder_extractor.py</v>
       </c>
       <c r="W53" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11442,14 +11488,14 @@
         <v>2</v>
       </c>
       <c r="S54" s="24" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-002 StakeholderClassifier Power/Interest Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S5-001 AI Lead Cuadrante asignado automáticamente 4 cuadrantes Medio apps/api/src/services/stakeholder_classifier.py</v>
       </c>
       <c r="W54" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11505,14 +11551,14 @@
         <v>5</v>
       </c>
       <c r="R55" s="24" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-003 RACIGeneratorAgent Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P0 Pendiente AI Gate 6 CE-S5-001;CE-S4-003 AI Lead Matriz RACI generada requires_review=True Alto apps/api/src/agents/raci_generator.py</v>
       </c>
       <c r="W55" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11534,7 +11580,7 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
       <c r="R56" s="24" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11558,7 +11604,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
       <c r="R57" s="28" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11582,7 +11628,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="28" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11602,14 +11648,14 @@
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="31" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="Q59" s="14"/>
       <c r="R59" s="27" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="S59" s="27" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11633,7 +11679,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
       <c r="R60" s="29" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11657,7 +11703,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
       <c r="R61" s="28" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11679,7 +11725,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
       <c r="R62" s="24" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11701,7 +11747,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="24" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11723,7 +11769,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
       <c r="R64" s="24" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -11799,14 +11845,14 @@
         <v>3</v>
       </c>
       <c r="S66" s="24" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-004 Human-in-Loop Workflow Backend Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Backend Gate 6 CE-S2-001 Backend Lead Endpoint aprobar/rechazar outputs agentes Alto apps/api/src/routers/approvals.py</v>
       </c>
       <c r="W66" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11862,14 +11908,14 @@
         <v>3</v>
       </c>
       <c r="S67" s="24" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-005 Knowledge Graph Básico NetworkX Sprint 4 Semana 5 2026-01-30 2026-01-31 2 P1 Pendiente Backend Gate 4 CE-S4-003 Backend Lead Nodos + edges queries multi-hop funcionan Medio apps/api/src/services/knowledge_graph.py</v>
       </c>
       <c r="W67" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11925,14 +11971,14 @@
         <v>3</v>
       </c>
       <c r="S68" s="24" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-006 Prompt Extracción Cláusulas Optimizado Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;85% accuracy tipo/código/texto golden dataset Alto prompts/v1/clause_extraction.md</v>
       </c>
       <c r="W68" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11988,17 +12034,17 @@
         <v>2</v>
       </c>
       <c r="S69" s="24" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="T69" s="24" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-007 Prompt Clasificación Stakeholders Sprint 4 Semana 5 2026-01-29 2026-01-29 1 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;80% accuracy clasificación poder/interés Medio prompts/v1/stakeholder_classification.md</v>
       </c>
       <c r="W69" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12054,20 +12100,20 @@
         <v>2</v>
       </c>
       <c r="S70" s="24" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="T70" s="24" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="U70" s="24" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-008 LlmRuleEvaluator Base Class Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S2-007 AI Lead Evaluador prompts reglas cualitativas interface Medio apps/api/src/coherence/llm_rule_evaluator.py</v>
       </c>
       <c r="W70" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12123,17 +12169,17 @@
         <v>3</v>
       </c>
       <c r="S71" s="24" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="T71" s="24" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-009 Primera Regla LLM Cualitativa Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P1 Pendiente AI Gate 5 CE-S5-008 AI Lead Regla detectar ambigüedades alcance evaluable Alto apps/api/src/coherence/rules/scope_ambiguity.py</v>
       </c>
       <c r="W71" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12189,14 +12235,14 @@
         <v>2</v>
       </c>
       <c r="S72" s="24" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-010 Endpoints /projects/{id}/stakeholders Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD + clasificación source_clause_id Bajo apps/api/src/routers/stakeholders.py</v>
       </c>
       <c r="W72" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12252,14 +12298,14 @@
         <v>1</v>
       </c>
       <c r="S73" s="24" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-011 Endpoints /projects/{id}/raci Sprint 4 Semana 5 2026-01-29 2026-01-29 0,5 P0 Pendiente API Gate 6 CE-S2-003 Backend Lead Get matrix/Update human-in-loop flag Bajo apps/api/src/routers/raci.py</v>
       </c>
       <c r="W73" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12315,14 +12361,14 @@
         <v>3</v>
       </c>
       <c r="S74" s="24" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-012 Dashboard Observabilidad Básico Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Frontend Gate 7 CE-S2-011 Frontend Lead Vista consumo tokens alertas automáticas budget Medio apps/web/src/pages/admin/observability.tsx</v>
       </c>
       <c r="W74" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12378,14 +12424,14 @@
         <v>2</v>
       </c>
       <c r="S75" s="24" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-013 Rate Limiting por Tenant Redis Sprint 4 Semana 5 2026-01-30 2026-01-30 1 P0 Pendiente Security Gate 7 CE-S2-004 Security Lead 60 req/min tenant 20 req/min user configurable Medio apps/api/src/middleware/rate_limiter.py</v>
       </c>
       <c r="W75" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12441,14 +12487,14 @@
         <v>2</v>
       </c>
       <c r="S76" s="24" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-014 Budget Alerts Email/Webhook Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Notificaciones admin 50/75/90/100% budget Medio apps/api/src/services/budget_alerts.py</v>
       </c>
       <c r="W76" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12504,14 +12550,14 @@
         <v>2</v>
       </c>
       <c r="S77" s="24" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="V77" t="str">
         <f t="shared" si="0"/>
         <v>CE-S5-015 Tests Integración Stakeholder Flow Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Testing Gate 5 CE-S5-001;CE-S5-003 QA Lead Extracción Clasificación RACI flujo completo Medio tests/integration/stakeholders/</v>
       </c>
       <c r="W77" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12567,14 +12613,14 @@
         <v>3</v>
       </c>
       <c r="S78" s="24" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="V78" t="str">
         <f t="shared" si="0"/>
         <v>CE-S6-001 Vista Dashboard + Score Gauge Sprint 4 Semana 6 2026-02-02 2026-02-03 2 P0 Pendiente Frontend Gate 6 CE-S3-007 Frontend Lead Score 0-100 visual colores carga &lt;2s gauge animado Medio apps/web/src/pages/dashboard.tsx</v>
       </c>
       <c r="W78" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12628,17 +12674,17 @@
         <v>2</v>
       </c>
       <c r="S79" s="24" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="T79" s="24" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="V79" t="str">
         <f t="shared" si="0"/>
         <v>CE-S6-002 Vista Lista Proyectos Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Frontend  CE-S3-008 Frontend Lead Filtros estado/búsqueda/orden paginación Bajo apps/web/src/pages/projects/index.tsx</v>
       </c>
       <c r="W79" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12694,14 +12740,14 @@
         <v>5</v>
       </c>
       <c r="S80" s="24" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="V80" t="str">
         <f t="shared" si="0"/>
         <v>CE-S6-003 Evidence Viewer Links Cláusulas Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P0 Pendiente Frontend Gate 4 CE-S4-009 Frontend Lead Click alerta cláusula WBS/BOM navegación bidireccional Alto apps/web/src/components/EvidenceViewer.tsx</v>
       </c>
       <c r="W80" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12755,14 +12801,14 @@
         <v>2</v>
       </c>
       <c r="S81" s="24" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="V81" t="str">
         <f t="shared" si="0"/>
         <v>CE-S6-004 Panel Alertas Filtros Severidad Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Frontend  CE-S6-003 Frontend Lead Vista alertas abiertas/resolved filtros bulk actions Bajo apps/web/src/pages/alerts.tsx</v>
       </c>
       <c r="W81" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12818,14 +12864,14 @@
         <v>3</v>
       </c>
       <c r="S82" s="24" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" si="0"/>
         <v>CE-S6-005 Stakeholder Map Matriz Poder/Interés Sprint 4 Semana 6 2026-02-04 2026-02-05 2 P0 Pendiente Frontend Gate 6 CE-S5-010 Frontend Lead Visualización interactiva cuadrantes drag &amp; drop Medio apps/web/src/components/StakeholderMap.tsx</v>
       </c>
       <c r="W82" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12881,14 +12927,14 @@
         <v>2</v>
       </c>
       <c r="S83" s="24" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="V83" t="str">
         <f t="shared" si="0"/>
         <v>CE-S6-006 RACI Viewer Editable Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Frontend Gate 6 CE-S5-011 Frontend Lead Tabla WBS x Stakeholders RACI edición inline Medio apps/web/src/components/RACIViewer.tsx</v>
       </c>
       <c r="W83" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -12944,14 +12990,14 @@
         <v>1</v>
       </c>
       <c r="S84" s="24" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="V84" t="str">
         <f t="shared" si="0"/>
         <v>CE-S6-007 Modal Human-in-Loop Confirmación Sprint 4 Semana 6 2026-02-05 2026-02-05 0,5 P0 Pendiente Frontend Gate 6 CE-S5-004 Frontend Lead Confirmación aprobar/rechazar outputs IA workflow Medio apps/web/src/components/ApprovalModal.tsx</v>
       </c>
       <c r="W84" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13007,17 +13053,17 @@
         <v>2</v>
       </c>
       <c r="S85" s="24" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="T85" s="24" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="V85" t="str">
         <f t="shared" ref="V85:V100" si="1">A85 &amp; " " &amp; B85 &amp; " " &amp; C85 &amp; " " &amp; D85 &amp; " " &amp; E85 &amp; " " &amp; F85 &amp; " " &amp; G85 &amp; " " &amp; H85 &amp; " " &amp; I85 &amp; " " &amp; J85 &amp; " " &amp; K85 &amp; " " &amp; L85 &amp; " " &amp; M85 &amp; " " &amp; N85 &amp; " " &amp; O85 &amp; " " &amp; P85</f>
         <v>CE-S6-008 Endpoints /projects/{id}/wbs y /bom Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD WBS/BOM jerarquía WBS representada Bajo apps/api/src/routers/wbs.py</v>
       </c>
       <c r="W85" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13071,14 +13117,14 @@
         <v>2</v>
       </c>
       <c r="S86" s="24" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="V86" t="str">
         <f t="shared" si="1"/>
         <v>CE-S6-009 Endpoint POST /projects/{id}/analyze Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente API  CE-S3-006 Backend Lead Trigger análisis async retorna job_id polling Bajo apps/api/src/routers/analysis.py</v>
       </c>
       <c r="W86" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13134,14 +13180,14 @@
         <v>2</v>
       </c>
       <c r="S87" s="24" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" si="1"/>
         <v>CE-S6-010 Propagar clause_id a WBS Items Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead funded_by_clause_id auto 100% WBS con FK Medio apps/api/src/services/wbs_service.py</v>
       </c>
       <c r="W87" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13197,17 +13243,17 @@
         <v>2</v>
       </c>
       <c r="S88" s="24" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="T88" s="24" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="V88" t="str">
         <f t="shared" si="1"/>
         <v>CE-S6-011 Propagar clause_id a BOM Items Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead contract_clause_id auto 100% BOM con FK Medio apps/api/src/services/bom_service.py</v>
       </c>
       <c r="W88" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13263,14 +13309,14 @@
         <v>2</v>
       </c>
       <c r="S89" s="24" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="V89" t="str">
         <f t="shared" si="1"/>
         <v>CE-S6-012 Evidence Viewer Logic Query Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Backend Gate 4 CE-S6-010;CE-S6-011 Backend Lead Query reconstruye clause WBS BOM dado alert_id Medio apps/api/src/services/evidence_service.py</v>
       </c>
       <c r="W89" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13324,14 +13370,14 @@
         <v>3</v>
       </c>
       <c r="S90" s="24" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="V90" t="str">
         <f t="shared" si="1"/>
         <v>CE-S6-013 Graph RAG Service Abstracción Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P1 Pendiente Backend  CE-S5-005 Backend Lead Interface GraphStore impl NetworkX tests mock Medio apps/api/src/services/graph_store.py</v>
       </c>
       <c r="W90" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13387,14 +13433,14 @@
         <v>2</v>
       </c>
       <c r="S91" s="24" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="V91" t="str">
         <f t="shared" si="1"/>
         <v>CE-S6-014 Circuit Breaker Claude API Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P1 Pendiente Backend Gate 7 CE-S2-004 Backend Lead Retry backoff fallback caché API degradada ok Medio apps/api/src/ai/circuit_breaker.py</v>
       </c>
       <c r="W91" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -13448,14 +13494,14 @@
         <v>2</v>
       </c>
       <c r="S92" s="24" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="V92" t="str">
         <f t="shared" si="1"/>
         <v>CE-S6-015 Async Processing Parsing Background Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Backend  CE-S3-006 Backend Lead Parsing background polling status upload inmediato Bajo apps/api/src/tasks/parsing_tasks.py</v>
       </c>
       <c r="W92" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
@@ -13515,7 +13561,7 @@
         <v>CE-S7-001 Cifrado Documentos R2 AES-256 Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Server-side encryption keys tenant docs cifrados Alto apps/api/src/storage/encryption.py</v>
       </c>
       <c r="W93" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
@@ -13575,7 +13621,7 @@
         <v>CE-S7-002 Política Retención Soft Delete Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Soft delete hard delete 30 días job limpieza Medio apps/api/src/tasks/retention_job.py</v>
       </c>
       <c r="W94" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
@@ -13635,7 +13681,7 @@
         <v>CE-S7-003 Auto-block Degradación Graceful Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Bloquear LLM 100% budget sistema sigue sin IA Alto apps/api/src/ai/budget_blocker.py</v>
       </c>
       <c r="W95" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
@@ -13695,7 +13741,7 @@
         <v>CE-S7-004 Optimizar Prompts Reducir Tokens Sprint 5 Semana 7 2026-02-10 2026-02-11 2 P1 Pendiente AI Gate 7 CE-S2-008 AI Lead Few-shot reducido 20% reducción tokens promedio Medio prompts/v1/</v>
       </c>
       <c r="W96" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
@@ -13755,7 +13801,7 @@
         <v>CE-S7-005 Dashboard Costes por Proyecto Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Frontend Gate 7 CE-S5-012 Frontend Lead Breakdown costes operación/modelo coste real-time Bajo apps/web/src/components/CostDashboard.tsx</v>
       </c>
       <c r="W97" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
@@ -13815,7 +13861,7 @@
         <v>CE-S7-006 Batch Processing Múltiples Docs Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Backend Gate 7 CE-S3-006 Backend Lead 3 docs &lt;3x individual descuento contexto Medio apps/api/src/tasks/batch_processing.py</v>
       </c>
       <c r="W98" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
@@ -13875,7 +13921,7 @@
         <v>CE-S7-007 Prompt Generación RACI Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P1 Pendiente AI Gate 5 CE-S2-008 AI Lead Mapeo stakeholder WBS razonamiento RACI coherente Medio prompts/v1/raci_generation.md</v>
       </c>
       <c r="W99" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
@@ -13933,7 +13979,7 @@
         <v>CE-S7-008 A/B Testing Prompts Framework Sprint 5 Semana 7 2026-02-12 2026-02-12 1 P2 Pendiente AI  CE-S2-008 AI Lead Framework comparar versiones métricas auto Bajo apps/api/src/ai/ab_testing.py</v>
       </c>
       <c r="W100" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
@@ -14299,7 +14345,7 @@
         <v>2</v>
       </c>
       <c r="R107" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
@@ -15754,6 +15800,2822 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="8">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="8">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="8">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="8">
+        <v>3</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G32" s="8">
+        <v>3</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="8">
+        <v>3</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" s="8">
+        <v>3</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="8">
+        <v>3</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15773,2824 +18635,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="8">
-        <v>2</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="8">
-        <v>3</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>617</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="8">
-        <v>8</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="8">
-        <v>5</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="8">
-        <v>3</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="8">
-        <v>2</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="8">
-        <v>3</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="8">
-        <v>5</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="8">
-        <v>3</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="8">
-        <v>3</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="8">
-        <v>3</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="8">
-        <v>2</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>619</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="8">
-        <v>3</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="8">
-        <v>3</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="8">
-        <v>2</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="8">
-        <v>2</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="8">
-        <v>3</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="8">
-        <v>3</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G27" s="8">
-        <v>5</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" s="8">
-        <v>2</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="8">
-        <v>2</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="8">
-        <v>3</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="8">
-        <v>3</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G34" s="8">
-        <v>3</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="G7" s="8">
-        <v>3</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="G13" s="8">
-        <v>3</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="8">
-        <v>2</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G21" s="8">
-        <v>2</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" s="8">
-        <v>2</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="G24" s="8">
-        <v>2</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="G26" s="8">
-        <v>2</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="8">
-        <v>2</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="8">
-        <v>3</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="8">
-        <v>3</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -19025,7 +19079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21736,7 +21792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A48" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/docs/C2PRO_CRONOGRAMA_MAESTRO_v1.0.xlsx
+++ b/docs/C2PRO_CRONOGRAMA_MAESTRO_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17031C6-6E2E-443F-A7C6-4F6E8D73DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD2AB5-FE67-40A0-9F56-19211FE49371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="📊 Resumen Ejecutivo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="📅 Timeline Semanal" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'📋 Backlog Completo'!$A$1:$Q$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'📋 Backlog Completo'!$A$1:$Q$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="883">
   <si>
     <t>C2Pro - Cronograma Maestro MVP Fase 1</t>
   </si>
@@ -2728,40 +2728,6 @@
 Manejo de Anonimización:
 El agente debe ser robusto ante datos anonimizados. Si recibe "El &lt;PERSON_1&gt; será el Director de Obra", debe extraer: {name: "&lt;PERSON_1&gt;", role: "PROJECT_MANAGER"}. No debe alucinar nombres reales si no están en el texto.
 Entregable: Código Python con la configuración del agente (puede ser una Chain simple de LangChain o un nodo de LangGraph si prefieres consistencia) y los esquemas Pydantic de salida.</t>
-  </si>
-  <si>
-    <t>ctividad 2: S4.2 (Sprint 4)
-Nombre: RACI Matrix Generator Agent Dominio: AI / Agents Story Points: 5 (Complejidad Lógica Alta) Dependencias: S3.4 (WBS), S4.1 (Stakeholders)
-Aquí tienes el prompt optimizado para construir este agente de razonamiento.
-🚀 Prompt Optimizado
-Contexto: Estamos desarrollando el Generador de Matrices RACI para C2Pro. Este agente tiene una tarea cognitiva compleja: leer los entregables definidos en la WBS y, cruzándolos con las cláusulas contractuales, determinar qué rol juega cada Stakeholder en cada tarea. Debe asignar uno de los 4 valores estándar:
-R (Responsible): Quién hace el trabajo.
-A (Accountable): Quién tiene la autoridad final/firma (Solo puede haber 1 por tarea).
-C (Consulted): A quién se le pregunta antes de decidir (Input bidireccional).
-I (Informed): A quién se le notifica después (Input unidireccional).
-Rol: Actúa como un PMP Certified Project Manager y experto en LangChain.
-Tarea: Crear el módulo agents/raci_generator.py.
-Requisitos Técnicos:
-Inputs del Agente:
-wbs_items: Lista de tareas (nos enfocaremos en el nivel más bajo/hojas).
-stakeholders: Lista de actores identificados.
-relevant_clauses: Texto de las cláusulas vinculadas a esos ítems de la WBS (recuperadas por RAG o por el vínculo source_clause_id de la WBS).
-Lógica de Inferencia (System Prompt):
-El prompt debe instruir al LLM para buscar verbos clave en las cláusulas asociadas a la tarea:
-"El Contratista ejecutará..." -&gt; Contratista = R.
-"Sujeto a la aprobación del Cliente..." -&gt; Cliente = A.
-"Previa revisión de la Ingeniería..." -&gt; Ingeniería = C.
-"Se notificará al Supervisor..." -&gt; Supervisor = I.
-Validación de Reglas RACI (Post-processing):
-Regla de Oro: Cada fila (tarea) debe tener exactamente un 'A'. Si el LLM no encuentra ninguno, debe inferirlo (generalmente el Client o el Project Manager) o marcarlo como warning.
-Regla de Acción: Cada fila debe tener al menos un 'R'.
-Formato de Salida:
-Lista de objetos RaciAssignment:
-wbs_item_id: UUID.
-stakeholder_id: UUID.
-role: Enum (R, A, C, I).
-evidence_text: Fragmento de texto que justifica esta asignación ("...el Cliente aprobará en 5 días...").
-Entregable: Código Python con la configuración del Agente y un validador simple (check_raci_rules) que alerte si una tarea se quedó sin "Accountable".</t>
   </si>
   <si>
     <t>Una vez cubiertos los documentos PDF (contratos), debemos atacar la "verdad económica" del proyecto: el Presupuesto. En el sector EPC, estos archivos suelen venir en Excel con formatos muy variados. No basta con un simple pandas.read_excel; necesitamos un parser inteligente que encuentre dónde empieza realmente la tabla de precios, ignorando logotipos y celdas combinadas en la cabecera.
@@ -3980,93 +3946,6 @@
 Entregable: Código Python del servicio stakeholder_classifier.py incluyendo los Pydantic Models y el System Prompt.</t>
   </si>
   <si>
-    <t>Perfecto, retomamos el camino del Backend Profundo.
-Como bien dices, el StakeholderClassifier nos dice quién está, pero el RiskExtractorAgent nos dice qué puede matarnos. Esta es la funcionalidad que justifica el precio "Enterprise" del software.
-Vamos a implementar el agente que lee las "Condiciones Particulares" del contrato y busca cláusulas venenosas.
-📝 Actividad: CE-S5-003
-Nombre: RiskExtractorAgent (Inferencia de Riesgos Contractuales) Dominio: AI / Backend Story Points: 3 Dependencias: CE-S4-001 (Base AI), CE-S5-001 (Stakeholder Extractor) Gate: Gate 5 (Risk Identification)
-🚀 Prompt Optimizado
-Contexto: Necesitamos crear apps/api/src/agents/risk_extractor.py. Este agente es diferente a los anteriores: no busca datos estructurados (como fechas o nombres), sino que realiza Juicios de Valor. Debe leer párrafos de texto legal y determinar: "¿Es esto peligroso para el contratista?". Se enfocará en 5 dimensiones: Legal, Financiera, Cronograma, Técnica y HSE (Seguridad).
-Rol: Actúa como un Senior Contract Manager y AI Engineer.
-Tarea:
-Diseñar el System Prompt para análisis de riesgos.
-Implementar la clase RiskExtractorAgent.
-Definir la estructura de datos para persistir estos riesgos.
-Requisitos Técnicos:
-System Prompt (Persona: "El Auditor Paranoico"):
-Instruye al modelo para que actúe como un auditor de riesgos conservador.
-Input: Fragmentos del contrato (limitado a secciones de penalizaciones, garantías, alcance y condiciones de sitio).
-Heurística de Detección:
-Vaguedad: "El contratista hará lo necesario..." (Riesgo: Alcance indefinido).
-Asimetría: "El cliente puede cancelar sin coste, el contratista paga 10%..." (Riesgo: Legal).
-Imposibilidad: "Hormigonado en temperaturas bajo cero sin aditivos..." (Riesgo: Técnico).
-Schema de Salida (JSON):
-JSON
-{
-  "risks": [
-    {
-      "title": "Penalización por retraso sin límite (Cap)",
-      "description": "La cláusula 14.2 impone 1% diario de multa sin establecer un máximo acumulado del contrato.",
-      "category": "FINANCIAL", // LEGAL, SCHEDULE, TECHNICAL, HSE
-      "probability": "LOW",    // LOW, MEDIUM, HIGH
-      "impact": "CRITICAL",    // LOW, MEDIUM, HIGH, CRITICAL
-      "mitigation_suggestion": "Solicitar adenda para topar la penalización al 10% del total.",
-      "source_text_snippet": "Clause 14.2: ...penalty of 1% per day..."
-    }
-  ]
-}
-Procesamiento Inteligente:
-El agente debe calcular un risk_score numérico interno (ej: Impacto Critical (4) * Probabilidad High (3) = 12) para ordenar los resultados antes de devolverlos.
-Integración:
-El método extract() debe recibir el texto y devolver objetos RiskItem validados por Pydantic.
-Entregable: Código Python completo de risk_extractor.py incluyendo los Prompts y los Modelos de Datos.
-Estrategia de Siguientes Pasos:
-Ahora tenemos:
-Stakeholders (Quién).
-Riesgos (Qué puede salir mal).
-Coherencia (Errores lógicos en fechas/costes).
-El backend es extremadamente potente ahora. Para cerrar el Sprint 5 con broche de oro en la parte de IA, nos falta una capacidad muy demandada: "Chat con el Contrato". Los usuarios no siempre quieren leer alertas; a veces quieren preguntar: "¿Qué dice el contrato sobre la lluvia?".</t>
-  </si>
-  <si>
-    <t>Esta actividad transforma "Archivos muertos" en "Conocimiento Activo".
-Implementar RAG (Retrieval-Augmented Generation) permite que el usuario haga preguntas en lenguaje natural sobre documentos de 500 páginas y obtenga respuestas precisas citando la fuente. Ya no tienen que buscar "Ctrl+F"; simplemente preguntan: "¿Cuáles son las penalizaciones por lluvia?".
-📝 Actividad: CE-S5-004
-Nombre: RAG Implementation (Vector Search &amp; Chat) Dominio: AI / Backend Story Points: 3 Dependencias: CE-S4-010 (Uploads), Setup de Supabase (pgvector) Gate: Gate 5 (Q&amp;A Capability)
-🚀 Prompt Optimizado
-Contexto: Los usuarios necesitan interactuar con los contratos, no solo leer reportes estáticos. Vamos a implementar un motor RAG en apps/api/src/services/rag_service.py. Usaremos Supabase pgvector como nuestra base de datos vectorial (ya que estamos usando Postgres, evitamos añadir Pinecone/Milvus para mantener la infraestructura simple). El flujo tiene dos partes: Ingesta (al subir documento) y Consulta (al chatear).
-Rol: Actúa como un AI Engineer experto en Vector Search y Embeddings.
-Tarea:
-Crear la migración SQL para habilitar vector y crear la tabla de document_chunks.
-Implementar el servicio de Ingesta (Chunking + Embedding).
-Implementar el servicio de Consulta (Retrieval + Generation).
-Requisitos Técnicos:
-Infraestructura SQL (migrations/008_rag_setup.sql):
-Habilitar extensión: CREATE EXTENSION IF NOT EXISTS vector;.
-Tabla document_chunks:
-id: uuid.
-document_id: uuid (FK).
-content: text (el fragmento de texto real).
-embedding: vector(1536) (dimensiones del modelo text-embedding-3-small de OpenAI o similar).
-metadata: jsonb (número de página, sección).
-Función de búsqueda: Procedimiento almacenado match_documents que use el operador &lt;=&gt; (cosine distance) para encontrar similitudes.
-Servicio de Ingesta (ingest_document):
-Chunking Strategy: Usa RecursiveCharacterTextSplitter (de LangChain o implementación propia).
-chunk_size: 1000 caracteres.
-chunk_overlap: 200 caracteres (para no cortar contexto entre frases).
-Embedding: Genera vectores para cada chunk usando la API de OpenAI (text-embedding-3-small) o un modelo local si prefieres.
-Persistencia: Guarda los chunks y vectores en Supabase.
-Servicio de Consulta (answer_question):
-Input: question (str), project_id (uuid).
-Retrieval:
-Vectoriza la pregunta.
-Llama a match_documents filtrando por project_id (¡Crucial! No mezclar datos de clientes).
-Recupera los top 5 chunks más relevantes.
-Augmentation (Prompt):
-Construye un prompt: "Usa el siguiente CONTEXTO para responder la PREGUNTA. Si no sabes, di 'No lo encuentro en el documento'."
-Generation: Llama a Anthropic/OpenAI con el prompt enriquecido.
-Entregable: Código Python del RagService y el archivo SQL de migración.</t>
-  </si>
-  <si>
     <t>Esta actividad introduce el concepto de "Confianza Supervisada".
 La IA no es perfecta. Si el sistema alucina un riesgo o clasifica mal a un stakeholder, el usuario debe tener la última palabra. Este flujo HITL (Human-in-the-Loop) convierte la herramienta en un asistente colaborativo en lugar de una caja negra autoritaria. Además, cada corrección del usuario es un dato de entrenamiento puro para futuras versiones ("Data Flywheel").
 📝 Actividad: CE-S5-004
@@ -4113,111 +3992,6 @@
   - Configuración de usuario
   - Historial de cambios
   - Estadísticas de uso</t>
-  </si>
-  <si>
-    <t>Esta actividad es el paso de "Información" a "Conocimiento".
-Hasta ahora, tenemos listas aisladas: una lista de Riesgos, una lista de Personas y una lista de Tareas. Un Knowledge Graph (Grafo de Conocimiento) conecta estos puntos. Permite responder preguntas complejas como: "¿Qué cláusula del contrato (A) generó el riesgo (B) que está retrasando la tarea (C) supervisada por el Stakeholder (D)?"
-Usaremos NetworkX (una librería Python ligera) para construir este grafo en memoria y analizar impactos indirectos.
-📝 Actividad: CE-S5-005
-Nombre: Knowledge Graph Básico (NetworkX) Dominio: Backend / Data Science Story Points: 2 Dependencias: CE-S4-003 (Data Parsers), CE-S5-001 (Stakeholders), CE-S5-003 (Risks) Gate: Gate 4 (Connectivity / Multi-hop queries)
-🚀 Prompt Optimizado
-Contexto: Nuestros datos viven en silos (Tablas SQL separadas). Necesitamos unificar la visión del proyecto para detectar efectos dominó. Implementaremos el servicio apps/api/src/services/knowledge_graph.py utilizando la librería networkx. Este servicio cargará los datos de un proyecto y construirá un Grafo Dirigido (DiGraph) donde:
-Nodos: Entidades (Task, Stakeholder, Risk, Clause).
-Aristas (Edges): Relaciones (MANAGES, AFFECTS, BLOCKS, DERIVED_FROM).
-Rol: Actúa como un Data Engineer especializado en Teoría de Grafos.
-Tarea:
-Implementar la clase ProjectKnowledgeGraph.
-Definir métodos para construir el grafo desde la BD.
-Implementar una consulta "Multi-hop" (Análisis de Impacto).
-Requisitos Técnicos:
-Definición del Grafo:
-Usa networkx.DiGraph().
-Nodos: Deben tener metadatos (type, label, properties).
-Ej: (id="task_123", type="TASK", label="Cimentación").
-Relaciones (Edges):
-Stakeholder --[MANAGES]--&gt; Task (Basado en asignación).
-Task --[DEPENDS_ON]--&gt; Task (Dependencias del cronograma).
-Risk --[IMPACTS]--&gt; Task (Relación inferida o manual).
-Risk --[DERIVED_FROM]--&gt; ContractClause (Trazabilidad).
-Método de Construcción (build_graph(project_id)):
-Debe hacer un fetch de todas las entidades del proyecto y añadir nodos y aristas iterativamente.
-Tip: Usa IDs prefijados para evitar colisiones (ej. tsk_..., stk_...).
-Algoritmo de Análisis (find_impact_chain(source_id, target_id)):
-Implementa nx.shortest_path o nx.all_simple_paths para encontrar cómo dos entidades desconectadas se relacionan.
-Caso de uso: Si el "Stakeholder A" está enfadado, ¿qué tareas y riesgos están bajo su responsabilidad directa o indirecta?
-Centralidad (Opcional):
-Calcula nx.degree_centrality para identificar los "Nodos Críticos" (ej. una Tarea de la que dependen 50 otras tareas y 3 riesgos).
-Entregable: Código Python del servicio knowledge_graph.py y un script de prueba que imprima un camino entre un Riesgo y un Stakeholder.</t>
-  </si>
-  <si>
-    <t>Esta actividad es el "refinado de combustible".
-En el Sprint 2 (CE-S2-008) hicimos una extracción básica. Ahora, para que el RiskExtractorAgent y el Coherence Engine funcionen con precisión, necesitamos pasar de un "OCR glorificado" a una Extracción Semántica Estructurada. Si el sistema confunde una cláusula de "Pago" con una de "Penalización", todo el análisis de riesgos posterior será basura. Necesitamos una precisión quirúrgica (&gt;85%).
-📝 Actividad: CE-S5-006
-Nombre: Prompt Extracción Cláusulas Optimizado (High-Precision Extraction) Dominio: AI / Prompt Engineering Story Points: 2 Dependencias: CE-S2-008 (Dataset inicial) Gate: Gate 5 (Accuracy &gt; 85% en Golden Dataset)
-🚀 Prompt Optimizado
-Contexto: Estamos mejorando la capacidad del sistema para leer contratos PDF. Necesitamos crear el archivo maestro de instrucciones prompts/v1/clause_extraction.md. Este prompt será consumido por el modelo (Claude 3.5 o GPT-4o) para convertir texto plano y sucio (procedente de OCR) en una lista limpia de objetos JSON. El reto es manejar la jerarquía (1.1, 1.1.a), las referencias cruzadas ("Ver cláusula 5") y la categorización automática (¿Es esto un hito de pago o una multa?).
-Rol: Actúa como un Lead Prompt Engineer especializado en NLP Legal.
-Tarea: Redactar el prompt del sistema optimizado utilizando técnicas de Few-Shot Learning (dar ejemplos) y Chain of Thought (pedirle que razone antes de extraer).
-Requisitos Técnicos del Prompt:
-Definición de Persona:
-"Eres un analista legal experto en contratos de construcción (FIDIC/NEC). Tu objetivo es estructurar texto legal sin perder ni alterar una sola palabra del contenido original."
-Schema de Salida (JSON Enforcement):
-El modelo debe devolver estrictamente:
-JSON
-{
-  "clauses": [
-    {
-      "id": "14.2",
-      "title": "Advance Payment",
-      "text": "The Employer shall make an advance payment...",
-      "category": "PAYMENT", // PAYMENT, PENALTY, SCOPE, TERMINATION, GENERAL
-      "page_number": 12,
-      "related_clause_ids": ["14.3", "4.2"] // Referencias encontradas en el texto
-    }
-  ]
-}
-Manejo de Casos Borde (Edge Cases):
-Instruye explícitamente qué hacer con:
-Tablas: "¿Convertir a markdown o ignorar?". (Decisión: Resumir contenido).
-Encabezados/Pies de página: "Ignorar números de página y fechas de impresión".
-Texto roto: "Si una frase se corta al final de la página, únerla coherentemente".
-Estrategia de Few-Shot (Ejemplos):
-Incluye en el prompt 3 ejemplos de input (texto sucio) -&gt; output (JSON perfecto).
-Ejemplo 1: Cláusula simple.
-Ejemplo 2: Cláusula con sub-puntos (a, b, c).
-Ejemplo 3: Cláusula tachada o "Intentionally Deleted".
-Entregable: Contenido completo del archivo prompts/v1/clause_extraction.md en formato Markdown/Texto plano.</t>
-  </si>
-  <si>
-    <t>sta actividad es el "cerebro" detrás del servicio que diseñamos hace un momento (CE-S5-002).
-Un script de Python puede orquestar la llamada, pero si el Prompt es malo, la clasificación será aleatoria. Necesitamos que la IA entienda la política de obra: Un "Inspector de Seguridad" tiene Poder Alto (puede cerrar la obra) aunque no sea un directivo. Un "Vecino" tiene Poder Bajo pero Interés Alto (ruido).
-El prompt debe enseñar estos matices al modelo para alcanzar esa precisión del &gt;80%.
-Shutterstock
-📝 Actividad: CE-S5-007
-Nombre: Prompt Clasificación Stakeholders (Matrix Logic) Dominio: AI / Prompt Engineering Story Points: 1 Dependencias: CE-S5-002 (Service Implementation), CE-S2-008 (Golden Dataset) Gate: Gate 5 (Inference Accuracy &gt; 80%)
-🚀 Prompt Optimizado
-Contexto: Necesitamos crear el archivo prompts/v1/stakeholder_classification.md. Este prompt recibirá una lista de stakeholders (Nombre, Rol, Empresa) y el contexto del proyecto. Su salida debe asignar los valores numéricos de Poder (1-10) e Interés (1-10) y determinar el Cuadrante de Gestión. El desafío es reducir la subjetividad: El modelo debe aplicar criterios estándar de gestión de proyectos (PMBOK/Prince2).
-Rol: Actúa como un Lead Prompt Engineer y experto en Gestión de Stakeholders.
-Tarea: Redactar el prompt del sistema optimizado.
-Requisitos Técnicos del Prompt:
-Definiciones Claras (Grounding):
-Define explícitamente qué significa Poder en este contexto: "Capacidad de detener el proyecto, aprobar presupuesto o cambiar el alcance."
-Define Interés: "Grado en que el proyecto afecta sus operaciones diarias, reputación o finanzas."
-Instrucciones de Razonamiento (Chain of Thought):
-Pide al modelo que genere un campo rationale antes de asignar el score.
-Ejemplo: "Rol: Health &amp; Safety Officer. Rationale: Tienen autoridad legal para detener trabajos inseguros (High Power), y su trabajo depende de la métrica de accidentes (High Interest)."
-Mapeo de Cuadrantes:
-Instruye al modelo para mapear los scores a los cuadrantes:
-Power &gt; 5 &amp; Interest &gt; 5 -&gt; MANAGE_CLOSELY
-Power &gt; 5 &amp; Interest &lt;= 5 -&gt; KEEP_SATISFIED
-Power &lt;= 5 &amp; Interest &gt; 5 -&gt; KEEP_INFORMED
-Power &lt;= 5 &amp; Interest &lt;= 5 -&gt; MONITOR
-Manejo de Ambigüedad:
-Instruye: "Si el rol es genérico (ej. 'Asistente') y no hay más contexto, asume bajo poder."
-Instruye: "Si la empresa es el 'Cliente' (Client/Employer), asume Poder máximo por defecto."
-Output JSON:
-Estructura exacta para que pydantic pueda validarlo sin errores.
-Entregable: Contenido del archivo prompts/v1/stakeholder_classification.md con ejemplos Few-Shot incluidos.</t>
   </si>
   <si>
     <t>Esta actividad es el "Paso de la Verdad". Hemos escrito mucho código de parseo (PDF, Excel, BC3), pero hasta que no le lancemos archivos reales, sucios y mal formateados, no sabremos si funciona.
@@ -4306,44 +4080,6 @@
   4. Baja Prioridad: WebSockets para updates en tiempo real</t>
   </si>
   <si>
-    <t>Esta actividad marca el salto de la Lógica Determinista (Matemáticas) a la Lógica Semántica (Juicio).
-Hasta ahora, nuestras reglas eran rígidas: if date_a &gt; date_b. Pero hay reglas que requieren "entender":
-"¿Es la descripción técnica del presupuesto coherente con los planos?"
-"¿Se mencionan todas las exclusiones del contrato en el alcance?"
-Para esto no sirve un if. Necesitamos un LLM que actúe como juez. El LlmRuleEvaluator es la clase base que estandariza cómo le preguntamos a la IA y cómo procesamos su veredicto.
-📝 Actividad: CE-S5-008
-Nombre: LlmRuleEvaluator Base Class (Semantic Rules Engine) Dominio: AI / Backend architecture Story Points: 1 Dependencias: CE-S2-007 (Base Agent), CE-S4-005 (Rule Interface) Gate: Gate 5 (Semantic Analysis)
-🚀 Prompt Optimizado
-Contexto: Hemos agotado las reglas matemáticas. Ahora entramos en las reglas cualitativas. Necesitamos una clase base abstracta en apps/api/src/coherence/llm_rule_evaluator.py que herede de la interfaz RuleEvaluator que ya tenemos, pero que implemente la lógica específica para llamar a la IA. Esta clase debe encargarse del "trabajo sucio": Inyectar variables en un prompt, enviar la petición a Anthropic/OpenAI, recibir el JSON, validarlo y manejar reintentos si el formato es incorrecto.
-Rol: Actúa como un Software Architect especializado en integración de LLMs.
-Tarea: Implementar la clase base LlmRuleEvaluator.
-Requisitos Técnicos:
-Clase Abstracta:
-Debe requerir que las subclases definan:
-system_prompt_template: La instrucción base (ej. "Eres un experto en costes...").
-user_prompt_template: La plantilla con placeholders (ej. "Compara el texto A: {text_a} con el texto B: {text_b}").
-Método evaluate(context) -&gt; RuleResult:
-Este método debe ser concreto (implementado en la base).
-Flujo:
-Extraer los datos necesarios del context (usando un método hook _prepare_inputs).
-Renderizar los prompts.
-Llamar al AIService solicitando salida JSON.
-Parsear la respuesta en un modelo Pydantic LlmEvaluationOutput (status, reasoning, confidence).
-Mapear eso al RuleResult estándar del sistema.
-Schema de Salida de la IA:
-Forzar siempre esta estructura JSON:
-JSON
-{
-  "compliant": boolean,
-  "reasoning": "string explicando la discrepancia",
-  "severity": "LOW|MEDIUM|HIGH|CRITICAL",
-  "evidence_quote": "fragmento del texto que prueba el fallo"
-}
-Manejo de Errores:
-Si el LLM falla o alucina el formato JSON, debe capturar la excepción y devolver un RuleResult con estado ERROR (para no romper todo el proceso de scoring), o intentar un re-try automático.
-Entregable: Código Python de llm_rule_evaluator.py utilizando abc (Abstract Base Classes) y pydantic</t>
-  </si>
-  <si>
     <t>Esta es la prueba de fuego de la IA. Aquí es donde el sistema demuestra que "entiende" la obra, no solo suma números.
 La Regla R20 busca "Gaps de Alcance".
 Contrato dice: "Incluye cerramiento perimetral de 2 metros".
@@ -4381,170 +4117,6 @@
   "analysis_summary": "El presupuesto cubre la obra civil pero omite los acabados exteriores exigidos."
 }
 Entregable: Código Python de scope_consistency.py integrando la llamada al LLM y el manejo de la respuesta.</t>
-  </si>
-  <si>
-    <t>Esta actividad es la diferencia entre "Creer" y "Saber".
-Cuando la IA acusa al usuario de un error ("Falta el muro"), el usuario se pone a la defensiva. Si la IA simplemente dice "Lo leí por ahí", perdemos su confianza. Si la IA dice: "Lo dice la Cláusula 3.1 en la página 14 (Ver aquí)", ganamos la discusión.
-Como los LLMs trabajan con texto y no con coordenadas PDF, necesitamos un Servicio de Localización Inversa: La IA cita el texto, y nosotros buscamos dónde está ese texto físicamente en el documento.
-📝 Actividad: CE-S5-010
-Nombre: Source Locator Service (Evidence Linking &amp; Fuzzy Search) Dominio: AI / Backend Story Points: 2 Dependencias: CE-S5-009 (Rules), CE-S4-003 (Parsers) Gate: Gate 5 (Explainability)
-🚀 Prompt Optimizado
-Contexto: Las reglas semánticas (RuleScopeConsistency) devuelven un texto de evidencia ("Falta el cerramiento exigido en la sección de Trabajos Exteriores"). Necesitamos convertir esa cita textual en metadatos navegables (page_number, clause_id, snippet_context). Crearemos el servicio apps/api/src/services/source_locator.py. Este servicio recibirá una frase generada por la IA y buscará la mejor coincidencia en nuestra base de datos de fragmentos (document_chunks) para devolver la ubicación exacta.
-Rol: Actúa como un Backend Developer experto en algoritmos de búsqueda de texto.
-Tarea:
-Implementar la clase SourceLocator.
-Integrarla en el flujo de LlmRuleEvaluator.
-Requisitos Técnicos:
-Algoritmo de Fuzzy Matching:
-La IA a veces parafrasea. No podemos usar ==.
-Usa la librería thefuzz (antes fuzzywuzzy) o rapidfuzz en Python.
-Implementa un método find_best_match(query_text, document_id) que itere sobre los chunks del documento y devuelva el que tenga mayor similitud (score &gt; 85).
-Estrategia de Búsqueda Híbrida:
-Paso 1 (Rápido): Búsqueda por ID de Cláusula. Si la IA devuelve "Según Cláusula 14.2", busca directamente en la tabla clauses por ese ID.
-Paso 2 (Lento): Si no hay ID, usa Fuzzy Search sobre el campo content de document_chunks.
-Schema de Evidencia Enriquecida:
-Actualiza el objeto Alert para que incluya:
-JSON
-"evidence_location": {
-  "document_id": "uuid",
-  "page_number": 42,
-  "clause_id": "14.2",
-  "highlight_text": "The Contractor shall construct a perimeter fence...",
-  "confidence": 0.95
-}
-Integración:
-Modifica LlmRuleEvaluator.evaluate: Una vez que tengas el reasoning y el evidence_quote del LLM, pasa ese quote por el SourceLocator antes de guardar la alerta en la base de datos.
-Entregable: Código Python de source_locator.py y un test unitario probando una coincidencia parcia</t>
-  </si>
-  <si>
-    <t>sta actividad ataca uno de los mayores dolores de cabeza en la construcción: La Subjetividad.
-Frases como "acabados de primera calidad" o "a satisfacción del ingeniero" son bombas de relojería. Lo que para el arquitecto es "primera calidad", para el contratista puede ser "estándar". Esta regla usa la IA para leer el Alcance y marcar todas las palabras que no son medibles ni específicas.
-📝 Actividad: CE-S5-009
-Nombre: Primera Regla LLM Cualitativa (Scope Ambiguity Detection) Dominio: AI / Backend Story Points: 2 Dependencias: CE-S5-008 (Base Class) Gate: Gate 5 (Semantic Clarity)
-🚀 Prompt Optimizado
-Contexto: Vamos a implementar la regla apps/api/src/coherence/rules/scope_ambiguity.py. Esta regla hereda de LlmRuleEvaluator. Su objetivo no es comparar documentos, sino analizar la calidad del texto del Alcance (Scope of Works). Buscamos términos vagos, indefinidos o subjetivos que puedan causar disputas futuras ("Claims").
-Rol: Actúa como un Contract Manager muy estricto que odia la ambigüedad.
-Tarea:
-Implementar la clase RuleScopeAmbiguity.
-Diseñar el Prompt de Detección de Ambigüedad.
-Requisitos Técnicos:
-Heredar de LlmRuleEvaluator:
-Reutiliza la lógica de llamada y parseo implementada en la actividad anterior.
-Prompt Engineering (user_prompt_template):
-Instrucción: "Analiza el siguiente texto del Alcance de Obra. Identifica frases vagas, subjetivas o no cuantificables."
-Lista Negra (Ejemplos a detectar):
-Adjetivos subjetivos: "buena calidad", "adecuado", "suficiente", "mejor práctica".
-Indefinición temporal: "lo antes posible", "en tiempo razonable".
-Indefinición de autoridad: "a juicio de la dirección", "según se instruya".
-Generalizaciones: "etc.", "y similares", "incluyendo pero no limitado a" (esta última es legalmente válida pero peligrosa si se abusa).
-Lógica de Evaluación:
-Si se detectan términos de Alto Riesgo (ej. "a coste del contratista" sin especificar cuánto), la regla falla (FAIL).
-Si son términos menores, genera una WARNING.
-Schema de Respuesta (JSON):
-JSON
-{
-  "compliant": false,
-  "ambiguities": [
-    {
-      "term": "finish to be of high quality",
-      "category": "SUBJECTIVE_QUALITY",
-      "risk_explanation": "'High quality' is not a standard. Specify an ISO/ASTM standard instead.",
-      "suggested_fix": "Specify 'Finish level Q4 according to Eurocode...'"
-    }
-  ],
-  "overall_clarity_score": 65
-}
-Entregable: Código Python de scope_ambiguity.py con el prompt optimizado y la lógica de clasificación de severidad.</t>
-  </si>
-  <si>
-    <t>Esta actividad es el puente crítico entre la "Inteligencia Artificial" y la "Evidencia Real".
-Cuando la IA dice "El contrato prohíbe esto", el usuario escéptico preguntará: "¿Dónde?". El SourceLocator responde a esa pregunta. Convierte una cita textual (que puede ser parafraseada por el LLM) en una ubicación física exacta (Página 42, Párrafo 3) usando búsqueda difusa (Fuzzy Search).
-📝 Actividad: CE-S5-010
-Nombre: Source Locator Service (Evidence Linking &amp; Fuzzy Search) Dominio: AI / Backend Story Points: 2 Dependencias: CE-S5-009 (Rules), CE-S4-003 (Parsers) Gate: Gate 5 (Explainability)
-🚀 Prompt Optimizado
-Contexto: Las reglas semánticas generan alertas con una evidence_quote (texto citado). Necesitamos implementar apps/api/src/services/source_locator.py. Este servicio recibe el texto de la IA y busca su ubicación en la base de datos de fragmentos (document_chunks) que creamos durante la fase de RAG/Ingesta. El reto es que la IA a veces cambia una palabra o corta una frase, por lo que una búsqueda exacta (LIKE '%text%') fallará. Necesitamos Fuzzy Matching.
-Rol: Actúa como un Backend Developer experto en algoritmos de búsqueda y Python.
-Tarea:
-Implementar la clase SourceLocator.
-Integrarla en el flujo de evaluación de reglas.
-Requisitos Técnicos:
-Librería de Matching:
-Usa thefuzz (anteriormente fuzzywuzzy) con python-Levenshtein para velocidad.
-Método principal: find_best_match(project_id, document_type, quote_text).
-Estrategia de Búsqueda en 2 Pasos:
-Paso 1 (Contextual): Si la alerta viene con un clause_id (ej. "14.2"), busca primero en los chunks etiquetados con ese ID en los metadatos. Es O(1) y muy preciso.
-Paso 2 (Fuerza Bruta Difusa): Si falla el paso 1, recupera todos los chunks del documento y usa process.extractOne para encontrar el segmento más similar.
-Umbral de Confianza: Si el score es &lt; 85, marca la ubicación como "Aproximada" o no devuelvas nada para evitar falsos positivos.
-Salida Estructurada (SourceLocation):
-Python
-class SourceLocation(BaseModel):
-    document_id: UUID
-    page_number: int
-    chunk_text: str  # El texto real en el PDF, no el de la IA
-    similarity_score: int
-    bbox: Optional[List[float]] = None # Para resaltado futuro en frontend
-Integración con LlmRuleEvaluator:
-En el método evaluate, justo antes de devolver el resultado, llama a SourceLocator.locate().
-Inyecta el objeto SourceLocation dentro de la metadata de la Alerta generada.
-Entregable: Código Python de source_locator.py y un test unitario que demuestre cómo encuentra una frase aunque tenga una errata leve.</t>
-  </si>
-  <si>
-    <t>Esta actividad cierra el círculo de la gestión de Stakeholders.
-Ya tenemos los agentes que extraen (S5-001) y clasifican (S5-002). Ahora necesitamos exponer esos datos al Frontend para que pueda pintar la Matriz de Mendelow y permitir al usuario corregir manualmente (CRUD) si la IA se equivocó ("Este becario no tiene Poder Alto").
-📝 Actividad: CE-S5-010
-Nombre: Endpoints /projects/{id}/stakeholders (CRUD &amp; Classification) Dominio: Backend / API Story Points: 1 Dependencias: CE-S2-003 (DB Models), CE-S5-001 (Extractor Agent) Gate: Gate 4 (API Readiness)
-🚀 Prompt Optimizado
-Contexto: Necesitamos exponer la gestión de Stakeholders en la API: apps/api/src/routers/stakeholders.py. Estos endpoints alimentarán la vista de "Stakeholder Matrix" en el frontend. Es crucial que soportemos la actualización parcial (PATCH), ya que una interacción común en el frontend será arrastrar y soltar un stakeholder de un cuadrante a otro, lo que actualizará sus valores de power e interest.
-Rol: Actúa como un Backend Developer experto en FastAPI y Pydantic.
-Tarea: Implementar el router con las operaciones CRUD estándar.
-Requisitos Técnicos:
-Modelos Pydantic (schemas/stakeholder.py):
-StakeholderCreate: name, role, company, type (Enum), power (1-10, opcional), interest (1-10, opcional).
-StakeholderUpdate: Todos opcionales.
-StakeholderResponse: Incluye id, quadrant (calculado o almacenado), source_clause_id (trazabilidad).
-Endpoints:
-GET /projects/{project_id}/stakeholders: Devuelve la lista. Soporta filtrado por quadrant.
-POST /projects/{project_id}/stakeholders: Creación manual.
-PATCH /stakeholders/{id}: Para actualizar coordenadas (power/interest) o corregir el nombre.
-Lógica de Negocio: Si se actualiza power o interest, recalcula automáticamente el campo quadrant antes de guardar en BD.
-DELETE /stakeholders/{id}: Borrado lógico (soft delete) o físico.
-Validación:
-Asegura que power e interest estén siempre entre 1 y 10.
-Si se proporciona source_clause_id, verifica que exista (opcional, pero recomendado).
-Entregable: Código de stakeholders.py y los esquemas Pydantic asociados.</t>
-  </si>
-  <si>
-    <t>Esta es una actividad pequeña pero vital para la gobernanza del proyecto.
-La Matriz RACI (Responsible, Accountable, Consulted, Informed) cruza las Tareas (del cronograma) con los Stakeholders (extraídos). La IA intentará adivinar quién hace qué ("El Arquitecto probablemente aprueba los Planos"). Este endpoint permite al frontend pintar esa rejilla y, lo más importante, permite al usuario decir: "No, el Arquitecto solo es Consultado, el que aprueba es el Cliente".
-📝 Actividad: CE-S5-011
-Nombre: Endpoints /projects/{id}/raci (Matrix View &amp; HITL Updates) Dominio: Backend / API Story Points: 0.5 Dependencias: CE-S5-010 (Stakeholders), CE-S3-008 (Tasks) Gate: Gate 6 (User Validation)
-🚀 Prompt Optimizado
-Contexto: Necesitamos exponer la matriz de responsabilidades en apps/api/src/routers/raci.py. A diferencia de un CRUD normal, esta vista suele ser una "Pivot Table": Filas = Tareas, Columnas = Stakeholders, Celdas = Rol (R, A, C, I). El frontend consumirá esto para dibujar una tabla interactiva. Además, necesitamos un mecanismo para que el usuario "fije" una asignación manualmente (Human-in-the-Loop), evitando que una re-ejecución de la IA la sobrescriba.
-Rol: Actúa como un Backend Lead experto en diseño de APIs RESTful para estructuras de datos complejas.
-Tarea: Implementar el router para la gestión de la matriz RACI.
-Requisitos Técnicos:
-Endpoint de Lectura (GET /projects/{id}/raci):
-No devuelvas una matriz 2D pura. Devuelve una estructura anidada fácil de iterar:
-JSON
-{
-  "matrix": [
-    {
-      "task_id": "uuid",
-      "task_name": "Cimentación",
-      "assignments": [
-        { "stakeholder_id": "uuid_1", "role": "RESPONSIBLE", "is_verified": false },
-        { "stakeholder_id": "uuid_2", "role": "ACCOUNTABLE", "is_verified": true }
-      ]
-    }
-  ]
-}
-Endpoint de Escritura (PUT /assignments):
-Permite actualizar o crear una asignación específica.
-Payload: { "task_id": "...", "stakeholder_id": "...", "role": "CONSULTED" }.
-Lógica HITL: Al recibir este PUT, el backend debe marcar automáticamente el flag is_verified = true (o source = "HUMAN") en la base de datos. Esto protege el dato de futuros barridos de la IA.
-Validación de Reglas RACI (Opcional pero recomendada):
-Regla de Oro: Solo puede haber un "Accountable" por tarea. Si el usuario intenta asignar un segundo "A", lanza un error 400 o advierte.
-Entregable: Código de raci.py y los modelos Pydantic de respuesta.</t>
   </si>
   <si>
     <t>opp</t>
@@ -4948,68 +4520,6 @@
 Captura de pantalla (mental) de la tabla cargando datos reales de la BD PostgreSQL.</t>
   </si>
   <si>
-    <t>Esta actividad es la última línea de defensa financiera.
-Ya tenemos el Dashboard (S5-012) para verlo y el Rate Limiter (S5-013) para frenarlo, pero si nadie mira el dashboard y el tráfico es legítimo (no spam), el gasto puede dispararse igual. Esta actividad asegura que el sistema grite "¡FUEGO!" (vía Email o Slack) cuando nos acercamos al límite de la tarjeta de crédito.
-📝 Actividad: CE-S5-014
-Nombre: Budget Alerts Email/Webhook (Financial Safeguards) Dominio: Backend / FinOps Story Points: 1 Dependencias: CE-S5-012 (Cost Metrics), Configuración SMTP/Webhook Gate: Gate 7 (Operational Control)
-🚀 Prompt Optimizado
-Contexto: Los LLMs son caros. Un ataque DDoS o un error de código puede consumir el presupuesto mensual en horas. Necesitamos un servicio en segundo plano apps/api/src/services/budget_alerts.py que monitoree el gasto acumulado. Este servicio no bloquea (eso lo hace el Rate Limiter), sino que Notifica. Se ejecutará periódicamente (ej. cada 10 minutos vía Celery Beat).
-Rol: Actúa como un Backend Lead enfocado en FinOps (Operaciones Financieras).
-Tarea:
-Implementar la clase BudgetMonitor.
-Configurar la lógica de umbrales y notificación.
-Requisitos Técnicos:
-Lógica de Umbrales (Stateful):
-Define niveles de alerta: 50%, 75%, 90%, 100%.
-Persistencia: Guarda en Redis/DB el valor last_alert_level para el mes actual.
-Regla: Solo envía alerta si current_usage &gt;= threshold Y threshold &gt; last_alert_level. Esto evita spam (recibir 500 emails porque el gasto está al 91%).
-Cálculo de Gasto:
-Suma el coste de los tokens de input y output del mes en curso (usando los precios de OpenAI/Anthropic definidos en constantes).
-Canales de Notificación:
-Email: Usa FastAPI-Mail o SMTP simple para enviar a la lista de ADMINS.
-Webhook (Opcional pero recomendado): Envía un payload JSON a una URL (ej. Slack Channel Incoming Webhook) para visibilidad inmediata del equipo.
-Payload de la Alerta:
-JSON
-{
-  "level": "CRITICAL",
-  "message": "Budget utilization reached 90%",
-  "current_spend": "$450.00",
-  "limit": "$500.00",
-  "timestamp": "2026-01-31T23:59:00Z"
-}
-Entregable: Código Python de budget_alerts.py y la configuración de la tarea periódica en Celery.</t>
-  </si>
-  <si>
-    <t>Esta actividad asegura que toda la cadena de "Inteligencia Política" funcione sin fisuras antes de conectar el Frontend.
-No sirve de nada tener un extractor y un clasificador si el dato se pierde por el camino o si la API de RACI no encuentra a los usuarios creados. Este test de integración valida el flujo completo: Documento -&gt; Extracción -&gt; Clasificación -&gt; API -&gt; RACI.
-📝 Actividad: CE-S5-015
-Nombre: Tests Integración Stakeholder Flow (End-to-End Backend) Dominio: QA / Testing Story Points: 1 Dependencias: CE-S5-001 (Extractor), CE-S5-002 (Classifier), CE-S5-011 (RACI) Prioridad: P0 (Quality Gate)
-🚀 Prompt Optimizado
-Contexto: Hemos construido componentes aislados para gestionar Stakeholders. Ahora necesitamos un test de integración en tests/integration/test_stakeholder_flow.py que pruebe la historia completa. Dado que llamar a OpenAI es lento y costoso, mockearemos las respuestas del LLM, pero ejecutaremos el resto del código (Base de datos, FastAPI, Pydantic) de forma real.
-Rol: Actúa como un QA Lead experto en Pytest y automatización.
-Tarea: Crear un test que simule el ciclo de vida de un Stakeholder.
-Requisitos Técnicos:
-Setup (conftest.py):
-Usa una base de datos de prueba (SQLite en memoria o contenedor Postgres efímero).
-Crea un project_id de prueba.
-Escenario de Prueba (test_full_stakeholder_lifecycle):
-Paso 1 (Ingesta): Simula la subida de un contrato (o inyecta texto directamente en el servicio de extracción).
-Paso 2 (Mock AI): Intercepta la llamada a AIService.
-Input: Texto del contrato.
-Output Mock: [{"name": "Juan Perez", "role": "Project Manager", "company": "Acme Corp"}].
-Paso 3 (Verificación API): Llama a GET /projects/{id}/stakeholders.
-Assert: Debe devolver 1 stakeholder.
-Assert: power e interest deben ser nulos o valores por defecto.
-Paso 4 (Clasificación): Dispara la clasificación (endpoint o servicio).
-Mock AI: Devuelve power=9, interest=9, rationale="Es el jefe".
-Paso 5 (Validación RACI): Llama a GET /projects/{id}/raci.
-Assert: "Juan Perez" debe aparecer como una columna en la matriz.
-Testing de Edge Cases:
-¿Qué pasa si la IA extrae duplicados? (El sistema debe fusionarlos o descartarlos).
-¿Qué pasa si el rol es desconocido? (Debe clasificarse como Monitor por defecto).
-Entregable: Código de test_stakeholder_flow.py usando pytest y unittest.mock.</t>
-  </si>
-  <si>
     <t>sta actividad marca el inicio oficial del Sprint 6: Visualización Avanzada.
 Vamos a dar vida a la pantalla principal de la aplicación. Hasta ahora, el Dashboard era una carcasa vacía o con datos falsos (mockData). Ahora, conectaremos el Frontend con el servicio de Coherencia (CoherenceService) del Backend para mostrar la salud real del proyecto en tiempo real.
 El componente estrella es el Gauge Chart (Medidor de Coherencia), que debe ser visualmente impactante, animado y con códigos de color estrictos según las especificaciones de UX.
@@ -5282,35 +4792,6 @@
 Story de Storybook (opcional) o ejemplo de uso.</t>
   </si>
   <si>
-    <t>Esta actividad es la base estructural del proyecto.
-Para que el RACI Viewer (S6-006) tenga filas que asignar, y para que el Evidence Viewer (S6-003) pueda vincular una cláusula a un "Muro de Hormigón", necesitamos que el Backend sirva la estructura de desglose de trabajo (WBS) y la lista de materiales (BOM). No es un simple CRUD plano; el WBS es un Árbol Jerárquico (Fases -&gt; Tareas -&gt; Subtareas) y la API debe devolverlo anidado correctamente.
-📝 Actividad: CE-S6-008
-Nombre: Endpoints /projects/{id}/wbs y /bom (Hierarchical Data) Dominio: Backend / API Story Points: 1 Dependencias: CE-S2-003 (DB Models) Prioridad: P0 (Core Data Structure)
-🚀 Prompt Optimizado
-Contexto: El Frontend necesita pintar el árbol del WBS en la Matriz RACI y en el selector de enlaces. Necesitamos exponer apps/api/src/routers/wbs.py y apps/api/src/routers/bom.py. El desafío principal es que el WBS se almacena en la BD como lista de adyacencia (parent_id), pero el Frontend (React) prefiere recibir una estructura anidada (children: []) para renderizarla fácilmente.
-Rol: Actúa como un Backend Lead experto en algoritmos de recursividad y FastAPI.
-Tarea:
-Implementar los endpoints de lectura y escritura para WBS y BOM.
-Implementar la transformación de "Lista Plana" a "Árbol Jerárquico" para el WBS.
-Requisitos Técnicos:
-Modelos Pydantic (Recursivos):
-Define WBSNode que contenga un campo children: List['WBSNode'] = [].
-Usa WBSNode.update_forward_refs() para permitir la auto-referencia.
-Endpoints WBS:
-GET /projects/{id}/wbs:
-Recupera todos los items del proyecto.
-Algoritmo: Construye el árbol en memoria (O(n)) usando un diccionario de mapeo ID-&gt;Nodo antes de devolver el JSON. No hagas N consultas SQL.
-POST /wbs: Crea un item (puede recibir parent_id).
-Endpoints BOM (Bill of Materials):
-GET /projects/{id}/bom: Lista plana de materiales.
-quantity, unit, unit_price, total_price.
-Validación de Integridad:
-Al borrar un nodo WBS (DELETE), asegura que no tenga hijos (o implementa borrado en cascada con advertencia).
-Entregable:
-Código de wbs.py con la lógica de serialización de árbol.
-Código de bom.py.</t>
-  </si>
-  <si>
     <t>Esta actividad transforma la base de datos relacional en un "Mapa del Crimen".
 El backend ya "sabe" cómo se conectan las cosas (usando NetworkX, desarrollado en el Sprint 5). Ahora necesitamos pintar esas conexiones para que el usuario entienda el efecto dominó: Cómo un Retraso (Riesgo) impacta a la Cimentación (WBS) y quién es el responsable (Stakeholder). Usaremos React Flow (ahora llamado @xyflow/react), el estándar de oro para diagramas en React. El reto no es pintar las cajas, sino dónde ponerlas (Layout Automático) para evitar un plato de espaguetis visual.
 📝 Actividad: CE-S6-009
@@ -5348,43 +4829,6 @@
 Directorio src/components/graph/nodes/ con los 3 tipos de nodos personalizados.</t>
   </si>
   <si>
-    <t>Esta actividad es el "Botón de Arranque" de la inteligencia artificial.
-Hasta ahora, los Agentes (Sprint 3) y el RAG (Sprint 5) existen, pero están "dormidos". Necesitamos un endpoint que los despierte. Dado que un análisis completo de un contrato puede tardar de 30 segundos a 2 minutos, no podemos usar una petición HTTP normal (que haría timeout). Implementaremos el patrón Async Job Queue con Polling.
-📝 Actividad: CE-S6-009
-Nombre: Endpoint POST /projects/{id}/analyze (Async Trigger) Dominio: Backend / API Story Points: 1 Dependencias: CE-S3-006 (Orchestrator), Redis (Celery Broker) Prioridad: P0 (Core Functionality)
-🚀 Prompt Optimizado
-Contexto: Necesitamos exponer la funcionalidad de análisis en apps/api/src/routers/analysis.py. El frontend llamará a este endpoint cuando el usuario haga clic en "Analizar Proyecto". El backend debe delegar la tarea pesada a un worker de Celery y devolver inmediatamente un ID de seguimiento (job_id).
-Rol: Actúa como un Backend Lead experto en FastAPI y Patrones Asíncronos.
-Tarea:
-Crear el endpoint de inicio de análisis (POST).
-Crear el endpoint de consulta de estado (GET).
-Implementar bloqueo de concurrencia (evitar doble análisis).
-Requisitos Técnicos:
-Endpoint Trigger (POST /projects/{id}/analyze):
-Idempotencia: Antes de lanzar nada, consulta en Redis si ya existe un job_id en estado PROCESSING para este project_id. Si es así, devuelve 409 Conflict ("Analysis already in progress").
-Disparo: Si está libre, llama a celery_app.send_task('run_project_analysis', args=[project_id]).
-Respuesta: HTTP 202 Accepted.
-JSON
-{
-  "message": "Analysis started",
-  "job_id": "550e8400-e29b-41d4-a716-446655440000",
-  "status_url": "/api/v1/projects/123/analysis/550e..."
-}
-Endpoint Polling (GET /projects/{id}/analysis/{job_id}):
-Consulta el estado de la tarea en Celery (AsyncResult(job_id)).
-Estados Mapeados:
-PENDING -&gt; "Queued"
-STARTED -&gt; "Processing (Reading Documents...)"
-SUCCESS -&gt; "Completed"
-FAILURE -&gt; "Failed"
-Si es SUCCESS, incluye un resumen breve (ej. "Found 5 risks").
-Seguridad:
-Verifica que el usuario tenga permisos WRITE sobre el proyecto antes de iniciar.
-Entregable:
-Código de analysis.py.
-Modelos Pydantic para AnalysisResponse y JobStatus.</t>
-  </si>
-  <si>
     <t>Esta actividad es el "pegamento" lógico del sistema.
 Para que la funcionalidad "Click en Tarea -&gt; Ver Contrato" (S6-003) funcione, no basta con que la IA diga "Esto es parte de la Cláusula 5". Necesitamos que, a nivel de base de datos, la fila WBS_ITEM tenga una Foreign Key apuntando a la fila CLAUSE. Esta actividad convierte las referencias de texto vago de la IA (ej. "según cl. 4.2") en IDs de base de datos firmes (UUIDs).
 📝 Actividad: CE-S6-010
@@ -5408,178 +4852,6 @@
 Entregable:
 Función en wbs_service.py.
 Test unitario con casos de prueba: "Clause 5", "5.1", "Sec. 3.2.1".</t>
-  </si>
-  <si>
-    <t>Esta actividad cierra el círculo de trazabilidad financiera y técnica.
-Igual que vinculamos las Tareas (WBS) al contrato, debemos vincular los Materiales (BOM). Si el contrato dice en la Cláusula 7.2 que "El hormigón debe ser tipo H-30", y la IA extrae "Hormigón H-30" en la lista de materiales, necesitamos que al hacer clic en ese material, el sistema te lleve a la Cláusula 7.2. Esto evita disputas sobre especificaciones técnicas.
-📝 Actividad: CE-S6-011
-Nombre: Propagar clause_id a BOM Items (Material Traceability) Dominio: Backend / Data Integrity Story Points: 1 Dependencias: CE-S3-005 (Extractors), CE-S6-008 (BOM Endpoints) Gate: Gate 4 (Traceability)
-🚀 Prompt Optimizado
-Contexto: Hemos extraído la Lista de Materiales (BOM) usando los agentes del Sprint 3. Cada item del BOM tiene un campo de texto source_ref (ej. "Spec 4.1" o "Cláusula de Precios"). Necesitamos un servicio en apps/api/src/services/bom_service.py que traduzca esas referencias textuales en enlaces duros (Foreign Keys) a la tabla clauses.
-Rol: Actúa como un Backend Lead experto en limpieza de datos (Data Cleansing).
-Tarea:
-Implementar la función link_bom_to_clauses(project_id).
-Aplicar lógica de coincidencia (Matching) similar al WBS pero ajustada a especificaciones técnicas.
-Requisitos Técnicos:
-Lógica de Matching:
-Recupera todos los bom_items del proyecto donde clause_id es NULL.
-Prioridad 1 (Specs): Busca coincidencias en cláusulas etiquetadas como TECHNICAL_SPEC. A menudo los materiales se definen en anexos técnicos, no en el cuerpo legal principal.
-Prioridad 2 (Precios): Si no hay spec, busca en cláusulas de tipo PRICING.
-Regex: Implementa extractores para formatos comunes como "Item 4.2", "Spec 4.2", "4.2.1".
-Validación de Unidades:
-(Opcional pero valioso) Si la cláusula menciona "m3" y el item tiene "kg", marca un flag unit_mismatch para revisión humana.
-Ejecución:
-Integra esta llamada en el pipeline de análisis (analysis.py), inmediatamente después de link_wbs_to_clauses.
-Entregable:
-Función en bom_service.py.
-Script de migración de datos (si aplica) o test unitario.</t>
-  </si>
-  <si>
-    <t>Esta actividad añade la "Voz" al sistema.
-Hasta ahora, la comunicación ha sido unidireccional: El sistema analiza y te muestra tablas. Con el Chat RAG, la comunicación se vuelve bidireccional. El usuario pregunta "¿Quién es responsable de las licencias?" y el sistema responde. El desafío técnico aquí es la Latencia. Un LLM tarda segundos en "pensar". Si el usuario espera 5 segundos mirando una pantalla en blanco, pensará que se rompió. Por eso es obligatorio usar Streaming (efecto de máquina de escribir) para dar feedback instantáneo.
-📝 Actividad: CE-S6-012
-Nombre: Chat UI with Streaming Responses (RAG Client) Dominio: Frontend / AI Interaction Story Points: 3 Dependencias: CE-S6-001 (API Client), CE-S5-004 (RAG Backend) Prioridad: P0 (High User Value)
-🚀 Prompt Optimizado
-Contexto: El backend tiene un endpoint POST /rag/chat que acepta { query, project_id } y devuelve una respuesta generada por IA. Vamos a implementar el componente src/components/chat/ChatWidget.tsx. Puede ser un panel lateral (Sheet) o una ventana flotante. Necesitamos manejar Server-Sent Events (SSE) o Streaming HTTP para que el texto aparezca letra por letra.
-Rol: Actúa como un AI Frontend Engineer experto en interfaces conversacionales (tipo ChatGPT) y React Hooks.
-Tarea:
-Crear la interfaz de chat (Lista de mensajes + Input Area).
-Implementar la lógica de Streaming (Fetch API + ReadableStream).
-Renderizar las citas/fuentes (Citations) de forma interactiva.
-Requisitos Técnicos:
-Gestión de Estado (useChat hook):
-Mantén un array messages: [{ role: 'user', content: '...' }, { role: 'assistant', content: '...', sources: [] }].
-Estado isStreaming: Deshabilita el botón de enviar mientras se genera la respuesta.
-Estado isLoading: Muestra "Thinking..." antes de recibir el primer byte.
-Lógica de Streaming (Critical):
-No uses Axios (complicado para streams en navegador). Usa fetch nativo.
-Loop de Lectura:
-TypeScript
-const response = await fetch('/api/rag/chat', ...);
-const reader = response.body?.getReader();
-const decoder = new TextDecoder();
-while (true) {
-  const { done, value } = await reader.read();
-  if (done) break;
-  const chunk = decoder.decode(value);
-  // Actualiza el último mensaje del estado añadiendo el chunk
-  setMessages(prev =&gt; updateLastMessage(prev, chunk));
-}
-Renderizado de Citas (Source Citations):
-El backend debe devolver las fuentes (quizás al final del stream o en un evento separado).
-Detecta patrones como [1] o [Source: Doc A] en el texto.
-Reemplázalos con un componente &lt;Button variant="link" onClick={() =&gt; openPdf(page)}&gt;.
-Al hacer clic, debe abrir el EvidenceViewer (S6-003) en la página exacta.
-UI/UX:
-Auto-scroll: Mantén el scroll pegado al fondo (scrollIntoView) mientras llega texto nuevo.
-Empty State: Muestra "Preguntas sugeridas" (ej. "¿Cuáles son los hitos de pago?", "¿Hay penalizaciones por retraso?").
-Entregable:
-Componente ChatWidget.tsx.
-Hook personalizado useChatStream.ts.</t>
-  </si>
-  <si>
-    <t>Esta actividad es el "pegamento" final que da sentido a la trazabilidad.
-Ya vinculamos WBS -&gt; Cláusula (S6-010) y BOM -&gt; Cláusula (S6-011). Ahora, cuando el usuario hace clic en una Alerta (que nace de una Cláusula), el sistema debe ser capaz de responder a la pregunta: "¿Qué impacto tiene esta alerta en mi cronograma y mis compras?". No basta con mostrar el PDF; hay que traerse todo el grafo de dependencias en una sola consulta eficiente.
-📝 Actividad: CE-S6-012
-Nombre: Evidence Viewer Logic Query (Impact Analysis) Dominio: Backend / Data Aggregation Story Points: 1 Dependencias: CE-S6-010 (WBS Links), CE-S6-011 (BOM Links) Gate: Gate 4 (Traceability)
-🚀 Prompt Optimizado
-Contexto: El frontend EvidenceViewer tiene una pestaña llamada "Impacto". Para poblarla, necesitamos un servicio en apps/api/src/services/evidence_service.py que, dado un alert_id, reconstruya toda la historia:
-Busque la Alerta.
-Busque la Cláusula asociada (alert.evidence_location suele apuntar a una página, pero la relación lógica es con la cláusula).
-Busque todos los Items del WBS vinculados a esa cláusula (FK creada en S6-010).
-Busque todos los Items del BOM vinculados a esa cláusula (FK creada en S6-011).
-Rol: Actúa como un Backend Lead experto en SQL Optimization y ORM (SQLAlchemy).
-Tarea:
-Implementar get_alert_impact_context(alert_id).
-Optimizar la consulta para evitar el problema "N+1" (muchas consultas pequeñas).
-Requisitos Técnicos:
-Consulta Eager Loading:
-Usa joinedload o selectinload de SQLAlchemy para traer las relaciones en 1 o 2 queries máximo.
-Pseudo-query: SELECT * FROM alerts JOIN clauses ON ... LEFT JOIN wbs_items ON ... LEFT JOIN bom_items ON ... WHERE alert.id = :id
-Estructura de Respuesta (DTO):
-JSON
-{
-  "alert": { "id": "...", "severity": "CRITICAL", "title": "Penalización por Retraso" },
-  "source_clause": { "id": "...", "label": "Cláusula 5.2", "text": "..." },
-  "impacted_schedule": [
-    { "wbs_id": "...", "task_name": "Cimentación", "status": "IN_PROGRESS" }
-  ],
-  "impacted_budget": [
-    { "bom_id": "...", "material": "Hormigón H-30", "cost": 5000 }
-  ]
-}
-Lógica de Fallback:
-Si la alerta no está vinculada directamente a una cláusula (ej. alerta general del proyecto), devuelve arrays vacíos en impacted_schedule y impacted_budget, no errores.
-Entregable:
-Código de evidence_service.py.
-Endpoint GET /alerts/{id}/context en el router de alertas.</t>
-  </si>
-  <si>
-    <t>Esta actividad es pura Arquitectura de Software.
-Estamos construyendo los cimientos para el futuro. Aunque ahora usemos NetworkX (memoria) para manejar el grafo de dependencias, sabemos que si el proyecto escala, necesitaremos una base de datos de grafos real como Neo4j o AWS Neptune. Para no tener que reescribir todo el backend cuando eso pase, crearemos una Capa de Abstracción (Interface). El resto de la aplicación solo hablará con GraphStore, sin saber qué hay debajo.
-📝 Actividad: CE-S6-013
-Nombre: Graph RAG Service Abstracción (GraphStore Interface) Dominio: Backend / Architecture Story Points: 2 Dependencias: CE-S5-005 (NetworkX Prototype) Prioridad: P1 (Scalability &amp; Maintenance)
-🚀 Prompt Optimizado
-Contexto: El frontend (React Flow) y el servicio de RAG necesitan consultar relaciones complejas ("¿Qué riesgos afectan a esta tarea?"). Actualmente, tenemos lógica de NetworkX dispersa. Vamos a centralizarla en apps/api/src/services/graph_store.py implementando el patrón de diseño Adapter/Repository. Esto nos permitirá cambiar de NetworkX a Neo4j en el futuro cambiando solo una línea de configuración.
-Rol: Actúa como un Backend Architect obsesionado con el código limpio y los principios SOLID.
-Tarea:
-Definir la clase base abstracta GraphStore.
-Implementar la versión concreta NetworkXGraphStore.
-Implementar métodos de serialización para el frontend (formato compatible con React Flow).
-Requisitos Técnicos:
-La Interfaz (GraphStore(ABC)):
-Debe definir métodos abstractos:
-add_node(id, type, properties)
-add_edge(source, target, type, properties)
-get_neighbors(id, depth=1)
-get_subgraph(node_ids) -&gt; Retorna un sub-grafo aislado.
-search_nodes(property_filter)
-La Implementación (NetworkXGraphStore):
-Usa networkx.DiGraph() internamente.
-Persistencia (Reto): Como NetworkX es en memoria, implementa métodos save_to_disk(path) y load_from_disk(path) usando pickle o gml para no perder el grafo al reiniciar el servidor (o regenerarlo desde la BD SQL al inicio).
-Método para Frontend (to_react_flow_json):
-Convierte el grafo interno a la estructura que necesita la UI:
-JSON
-{
-  "nodes": [{ "id": "1", "type": "risk", "data": { "label": "..." }, "position": { "x": 0, "y": 0 } }],
-  "edges": [{ "id": "e1-2", "source": "1", "target": "2", "animated": true }]
-}
-Nota: No calcules posiciones (x, y) aquí; de eso se encarga dagre en el frontend (S6-009). Envía x: 0, y: 0.
-Testing con Mocks:
-Crea un MockGraphStore que simule respuestas para usar en los tests unitarios de otros servicios sin levantar la maquinaria pesada.
-Entregable:
-Archivo graph_store.py con la clase base y la implementación NetworkX.
-Tests unitarios básicos en tests/unit/test_graph_store.py.</t>
-  </si>
-  <si>
-    <t>Esta actividad es el "Airbag" de tu aplicación.
-Dependemos de APIs externas (Anthropic/OpenAI) que pueden caerse, ir lentas o lanzarnos un Rate Limit. Si Claude se cae, no queremos que nuestros usuarios se queden viendo un spinner infinito ni que nuestro servidor colapse reintentando mil veces. El patrón Circuit Breaker detecta fallos repetidos y "corta la corriente" temporalmente, devolviendo un error rápido o una respuesta en caché, permitiendo que el sistema externo se recupere.
-📝 Actividad: CE-S6-014
-Nombre: Circuit Breaker Claude API (Resilience Pattern) Dominio: Backend / Reliability Story Points: 1 Dependencias: CE-S2-004 (Infra/Redis), Setup de LLM Client Gate: Gate 7 (Operational Control)
-🚀 Prompt Optimizado
-Contexto: Las llamadas a LLMs son el punto más frágil del sistema (latencia alta, disponibilidad variable). Vamos a implementar apps/api/src/ai/circuit_breaker.py para envolver todas las llamadas a Anthropic o OpenAI. Usaremos Redis para mantener el estado del interruptor (compartido entre todos los workers de Celery/FastAPI).
-Rol: Actúa como un Site Reliability Engineer (SRE) experto en Python y sistemas distribuidos.
-Tarea:
-Implementar la clase AICircuitBreaker.
-Configurar la lógica de Retry con Exponential Backoff.
-Implementar la lógica de corte (Open/Closed) y Fallback.
-Requisitos Técnicos:
-Librerías:
-Usa tenacity para la lógica de reintentos (es el estándar en Python).
-Usa redis-py para persistir el contador de errores.
-Máquina de Estados (Redis):
-CLOSED (Normal): El tráfico fluye. Si hay error, incrementa contador en Redis.
-OPEN (Roto): Si errores &gt; 5 en 1 minuto, el estado pasa a OPEN. Todas las llamadas fallan inmediatamente (fail fast) sin llamar a la API externa.
-HALF-OPEN (Prueba): Después de un reset_timeout (ej. 60s), permite pasar 1 petición de prueba. Si funciona -&gt; CLOSED. Si falla -&gt; OPEN otra vez.
-Decorador @llm_guard:
-Crea un decorador que envuelva las funciones de los agentes.
-Retry: Reintenta 3 veces con espera exponencial (1s, 2s, 4s) antes de contar como "Fallo" para el Circuit Breaker.
-Fallback: Si el circuito está abierto, devuelve un valor por defecto seguro (ej. None o un objeto AnalysisResult(status="DEGRADED")) en lugar de lanzar una excepción 500 al usuario.
-Logging:
-Cada vez que el circuito cambie de estado (Closed -&gt; Open), debe registrarse un log WARNING crítico para que el Dashboard de Observabilidad (S5-012) lo detecte.
-Entregable:
-Archivo circuit_breaker.py.
-Ejemplo de uso en analysis_service.py.</t>
   </si>
   <si>
     <t>Esta actividad soluciona el problema de la "pantalla congelada" al subir archivos grandes.
@@ -6128,12 +5400,740 @@
   <si>
     <t>Esta actividad es la "Constitución" del sistema.En el software Enterprise (y más en construcción), los usuarios no confían en las "Cajas Negras". Si un Director de Proyecto ve una nota de 45/100, su primera pregunta será: "¿Por qué? ¿Cómo se calcula eso?".Este documento (scoring_methodology_v1.md) es la respuesta oficial. Debe ser lo suficientemente técnico para el CTO y lo suficientemente claro para que el equipo de Ventas pueda explicarlo al cliente.📝 Actividad: CE-S4-008Nombre: Documentar Fórmula Score Auditoría (Whitepaper Interno)Dominio: Documentation / AI GovernanceStory Points: 0.5Dependencias: CE-S4-007 (Pesos calibrados)Gate: Gate 5 (Auditability)🚀 Prompt OptimizadoContexto:Hemos calibrado el motor de IA y tenemos los pesos finales (CRITICAL, HIGH, MEDIUM, LOW).Ahora debemos "congelar" esta lógica en un documento oficial antes de lanzar la V1.Este documento servirá de base para la auditoría técnica y para responder dudas de clientes sobre la imparcialidad del algoritmo.La fórmula debe ser determinista: Mismos inputs = Mismo Score.Rol:Actúa como un Technical Writer con conocimientos de Data Science.Tarea:Crear el archivo docs/coherence_engine/scoring_methodology_v1.md.Requisitos del Contenido:Definición de la Fórmula Matemática:Documenta explícitamente cómo se llega al número final.Sugerencia de modelo: Modelo Deductivo (Score de Penalización).$$Score = 100 - \sum (Weight_i \times Count_i)$$(Con un suelo de 0, no negativos).O Modelo de Promedio Ponderado. Elige el que hayamos implementado en el código y explícalo con LaTeX.Tabla de Pesos (Weight Table):Lista los valores exactos acordados tras la calibración (S4-007).CRITICAL: (ej. -15 puntos).HIGH: (ej. -5 puntos).MEDIUM: (ej. -2 puntos).LOW: (ej. -0.5 puntos).Catálogo de Reglas V1:Lista las 10 reglas activas (R2, R6, R12, etc.) con una breve descripción de "Qué penaliza".Ejemplo: "R14 (Supply Chain): Penaliza si la fecha de pedido calculada es anterior a hoy."Justificación de Calibración:Añade una nota breve indicando que estos pesos fueron validados contra un dataset de 20 proyectos reales con una correlación de &gt;0.85 respecto al juicio experto.Control de Versiones:Encabezado con Version: 1.0, Date: 2026-01-24, Status: APPROVED.Entregable:Contenido en formato Markdown profesional, listo para ser commiteado al repositorio.,</t>
   </si>
+  <si>
+    <t>Perfecto, retomamos el camino del Backend Profundo.
+Como bien dices, el StakeholderClassifier nos dice quién está, pero el RiskExtractorAgent nos dice qué puede matarnos. Esta es la funcionalidad que justifica el precio "Enterprise" del software.
+Vamos a implementar el agente que lee las "Condiciones Particulares" del contrato y busca cláusulas venenosas.
+📝 Actividad: CE-S5-003
+Nombre: RiskExtractorAgent (Inferencia de Riesgos Contractuales) Dominio: AI / Backend Story Points: 3 Dependencias: CE-S4-001 (Base AI), CE-S5-001 (Stakeholder Extractor) Gate: Gate 5 (Risk Identification)
+🚀 Prompt Optimizado
+Contexto: Necesitamos crear apps/api/src/agents/risk_extractor.py. Este agente es diferente a los anteriores: no busca datos estructurados (como fechas o nombres), sino que realiza Juicios de Valor. Debe leer párrafos de texto legal y determinar: "¿Es esto peligroso para el contratista?". Se enfocará en 5 dimensiones: Legal, Financiera, Cronograma, Técnica y HSE (Seguridad).
+Rol: Actúa como un Senior Contract Manager y AI Engineer.
+Tarea:
+Diseñar el System Prompt para análisis de riesgos.
+Implementar la clase RiskExtractorAgent.
+Definir la estructura de datos para persistir estos riesgos.
+Requisitos Técnicos:
+System Prompt (Persona: "El Auditor Paranoico"):
+Instruye al modelo para que actúe como un auditor de riesgos conservador.
+Input: Fragmentos del contrato (limitado a secciones de penalizaciones, garantías, alcance y condiciones de sitio).
+Heurística de Detección:
+Vaguedad: "El contratista hará lo necesario..." (Riesgo: Alcance indefinido).
+Asimetría: "El cliente puede cancelar sin coste, el contratista paga 10%..." (Riesgo: Legal).
+Imposibilidad: "Hormigonado en temperaturas bajo cero sin aditivos..." (Riesgo: Técnico).
+Schema de Salida (JSON):
+JSON
+{
+  "risks": [
+    {
+      "title": "Penalización por retraso sin límite (Cap)",
+      "description": "La cláusula 14.2 impone 1% diario de multa sin establecer un máximo acumulado del contrato.",
+      "category": "FINANCIAL", // LEGAL, SCHEDULE, TECHNICAL, HSE
+      "probability": "LOW",    // LOW, MEDIUM, HIGH
+      "impact": "CRITICAL",    // LOW, MEDIUM, HIGH, CRITICAL
+      "mitigation_suggestion": "Solicitar adenda para topar la penalización al 10% del total.",
+      "source_text_snippet": "Clause 14.2: ...penalty of 1% per day..."
+    }
+  ]
+}
+Procesamiento Inteligente:
+El agente debe calcular un risk_score numérico interno (ej: Impacto Critical (4) * Probabilidad High (3) = 12) para ordenar los resultados antes de devolverlos.
+Integración:
+El método extract() debe recibir el texto y devolver objetos RiskItem validados por Pydantic.
+Entregable: Código Python completo de risk_extractor.py incluyendo los Prompts y los Modelos de Datos.
+Estrategia de Siguientes Pasos:
+Ahora tenemos:
+Stakeholders (Quién).
+Riesgos (Qué puede salir mal).
+Coherencia (Errores lógicos en fechas/costes).
+El backend es extremadamente potente ahora. Para cerrar el Sprint 5 con broche de oro en la parte de IA, nos falta una capacidad muy demandada: "Chat con el Contrato". Los usuarios no siempre quieren leer alertas; a veces quieren preguntar: "¿Qué dice el contrato sobre la lluvia?".,</t>
+  </si>
+  <si>
+    <t>ctividad 2: S4.2 (Sprint 4)
+Nombre: RACI Matrix Generator Agent Dominio: AI / Agents Story Points: 5 (Complejidad Lógica Alta) Dependencias: S3.4 (WBS), S4.1 (Stakeholders)
+Aquí tienes el prompt optimizado para construir este agente de razonamiento.
+🚀 Prompt Optimizado
+Contexto: Estamos desarrollando el Generador de Matrices RACI para C2Pro. Este agente tiene una tarea cognitiva compleja: leer los entregables definidos en la WBS y, cruzándolos con las cláusulas contractuales, determinar qué rol juega cada Stakeholder en cada tarea. Debe asignar uno de los 4 valores estándar:
+R (Responsible): Quién hace el trabajo.
+A (Accountable): Quién tiene la autoridad final/firma (Solo puede haber 1 por tarea).
+C (Consulted): A quién se le pregunta antes de decidir (Input bidireccional).
+I (Informed): A quién se le notifica después (Input unidireccional).
+Rol: Actúa como un PMP Certified Project Manager y experto en LangChain.
+Tarea: Crear el módulo agents/raci_generator.py.
+Requisitos Técnicos:
+Inputs del Agente:
+wbs_items: Lista de tareas (nos enfocaremos en el nivel más bajo/hojas).
+stakeholders: Lista de actores identificados.
+relevant_clauses: Texto de las cláusulas vinculadas a esos ítems de la WBS (recuperadas por RAG o por el vínculo source_clause_id de la WBS).
+Lógica de Inferencia (System Prompt):
+El prompt debe instruir al LLM para buscar verbos clave en las cláusulas asociadas a la tarea:
+"El Contratista ejecutará..." -&gt; Contratista = R.
+"Sujeto a la aprobación del Cliente..." -&gt; Cliente = A.
+"Previa revisión de la Ingeniería..." -&gt; Ingeniería = C.
+"Se notificará al Supervisor..." -&gt; Supervisor = I.
+Validación de Reglas RACI (Post-processing):
+Regla de Oro: Cada fila (tarea) debe tener exactamente un 'A'. Si el LLM no encuentra ninguno, debe inferirlo (generalmente el Client o el Project Manager) o marcarlo como warning.
+Regla de Acción: Cada fila debe tener al menos un 'R'.
+Formato de Salida:
+Lista de objetos RaciAssignment:
+wbs_item_id: UUID.
+stakeholder_id: UUID.
+role: Enum (R, A, C, I).
+evidence_text: Fragmento de texto que justifica esta asignación ("...el Cliente aprobará en 5 días...").
+Entregable: Python con la configuración del Agente y un validador simple (check_raci_rules) que alerte si una tarea se quedó sin "Accountable".</t>
+  </si>
+  <si>
+    <t>Esta actividad transforma "Archivos muertos" en "Conocimiento Activo".
+Implementar RAG (Retrieval-Augmented Generation) permite que el usuario haga preguntas en lenguaje natural sobre documentos de 500 páginas y obtenga respuestas precisas citando la fuente. Ya no tienen que buscar "Ctrl+F"; simplemente preguntan: "¿Cuáles son las penalizaciones por lluvia?".
+📝 Actividad: CE-S5-004
+Nombre: RAG Implementation (Vector Search &amp; Chat) Dominio: AI / Backend Story Points: 3 Dependencias: CE-S4-010 (Uploads), Setup de Supabase (pgvector) Gate: Gate 5 (Q&amp;A Capability)
+🚀 Prompt Optimizado
+Contexto: Los usuarios necesitan interactuar con los contratos, no solo leer reportes estáticos. Vamos a implementar un motor RAG en apps/api/src/services/rag_service.py. Usaremos Supabase pgvector como nuestra base de datos vectorial (ya que estamos usando Postgres, evitamos añadir Pinecone/Milvus para mantener la infraestructura simple). El flujo tiene dos partes: Ingesta (al subir documento) y Consulta (al chatear).
+Rol: Actúa como un AI Engineer experto en Vector Search y Embeddings.
+Tarea:
+Crear la migración SQL para habilitar vector y crear la tabla de document_chunks.
+Implementar el servicio de Ingesta (Chunking + Embedding).
+Implementar el servicio de Consulta (Retrieval + Generation).
+Requisitos Técnicos:
+Infraestructura SQL (migrations/008_rag_setup.sql):
+Habilitar extensión: CREATE EXTENSION IF NOT EXISTS vector;.
+Tabla document_chunks:
+id: uuid.
+document_id: uuid (FK).
+content: text (el fragmento de texto real).
+embedding: vector(1536) (dimensiones del modelo text-embedding-3-small de OpenAI o similar).
+metadata: jsonb (número de página, sección).
+Función de búsqueda: Procedimiento almacenado match_documents que use el operador &lt;=&gt; (cosine distance) para encontrar similitudes.
+Servicio de Ingesta (ingest_document):
+Chunking Strategy: Usa RecursiveCharacterTextSplitter (de LangChain o implementación propia).
+chunk_size: 1000 caracteres.
+chunk_overlap: 200 caracteres (para no cortar contexto entre frases).
+Embedding: Genera vectores para cada chunk usando la API de OpenAI (text-embedding-3-small) o un modelo local si prefieres.
+Persistencia: Guarda los chunks y vectores en Supabase.
+Servicio de Consulta (answer_question):
+Input: question (str), project_id (uuid).
+Retrieval:
+Vectoriza la pregunta.
+Llama a match_documents filtrando por project_id (¡Crucial! No mezclar datos de clientes).
+Recupera los top 5 chunks más relevantes.
+Augmentation (Prompt):
+Construye un prompt: "Usa el siguiente CONTEXTO para responder la PREGUNTA. Si no sabes, di 'No lo encuentro en el documento'."
+Generation: Llama a Anthropic/OpenAI con el prompt enriquecido.
+Entregable: Python del RagService y el archivo SQL de migración.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el paso de "Información" a "Conocimiento".
+Hasta ahora, tenemos listas aisladas: una lista de Riesgos, una lista de Personas y una lista de Tareas. Un Knowledge Graph (Grafo de Conocimiento) conecta estos puntos. Permite responder preguntas complejas como: "¿Qué cláusula del contrato (A) generó el riesgo (B) que está retrasando la tarea (C) supervisada por el Stakeholder (D)?"
+Usaremos NetworkX (una librería Python ligera) para construir este grafo en memoria y analizar impactos indirectos.
+📝 Actividad: CE-S5-005
+Nombre: Knowledge Graph Básico (NetworkX) Dominio: Backend / Data Science Story Points: 2 Dependencias: CE-S4-003 (Data Parsers), CE-S5-001 (Stakeholders), CE-S5-003 (Risks) Gate: Gate 4 (Connectivity / Multi-hop queries)
+🚀 Prompt Optimizado
+Contexto: Nuestros datos viven en silos (Tablas SQL separadas). Necesitamos unificar la visión del proyecto para detectar efectos dominó. Implementaremos el servicio apps/api/src/services/knowledge_graph.py utilizando la librería networkx. Este servicio cargará los datos de un proyecto y construirá un Grafo Dirigido (DiGraph) donde:
+Nodos: Entidades (Task, Stakeholder, Risk, Clause).
+Aristas (Edges): Relaciones (MANAGES, AFFECTS, BLOCKS, DERIVED_FROM).
+Rol: Actúa como un Data Engineer especializado en Teoría de Grafos.
+Tarea:
+Implementar la clase ProjectKnowledgeGraph.
+Definir métodos para construir el grafo desde la BD.
+Implementar una consulta "Multi-hop" (Análisis de Impacto).
+Requisitos Técnicos:
+Definición del Grafo:
+Usa networkx.DiGraph().
+Nodos: Deben tener metadatos (type, label, properties).
+Ej: (id="task_123", type="TASK", label="Cimentación").
+Relaciones (Edges):
+Stakeholder --[MANAGES]--&gt; Task (Basado en asignación).
+Task --[DEPENDS_ON]--&gt; Task (Dependencias del cronograma).
+Risk --[IMPACTS]--&gt; Task (Relación inferida o manual).
+Risk --[DERIVED_FROM]--&gt; ContractClause (Trazabilidad).
+Método de Construcción (build_graph(project_id)):
+Debe hacer un fetch de todas las entidades del proyecto y añadir nodos y aristas iterativamente.
+Tip: Usa IDs prefijados para evitar colisiones (ej. tsk_..., stk_...).
+Algoritmo de Análisis (find_impact_chain(source_id, target_id)):
+Implementa nx.shortest_path o nx.all_simple_paths para encontrar cómo dos entidades desconectadas se relacionan.
+Caso de uso: Si el "Stakeholder A" está enfadado, ¿qué tareas y riesgos están bajo su responsabilidad directa o indirecta?
+Centralidad (Opcional):
+Calcula nx.degree_centrality para identificar los "Nodos Críticos" (ej. una Tarea de la que dependen 50 otras tareas y 3 riesgos).
+Entregable: Python del servicio knowledge_graph.py y un script de prueba que imprima un camino entre un Riesgo y un Stakeholder.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el "refinado de combustible".
+En el Sprint 2 (CE-S2-008) hicimos una extracción básica. Ahora, para que el RiskExtractorAgent y el Coherence Engine funcionen con precisión, necesitamos pasar de un "OCR glorificado" a una Extracción Semántica Estructurada. Si el sistema confunde una cláusula de "Pago" con una de "Penalización", todo el análisis de riesgos posterior será basura. Necesitamos una precisión quirúrgica (&gt;85%).
+📝 Actividad: CE-S5-006
+Nombre: Prompt Extracción Cláusulas Optimizado (High-Precision Extraction) Dominio: AI / Prompt Engineering Story Points: 2 Dependencias: CE-S2-008 (Dataset inicial) Gate: Gate 5 (Accuracy &gt; 85% en Golden Dataset)
+🚀 Prompt Optimizado
+Contexto: Estamos mejorando la capacidad del sistema para leer contratos PDF. Necesitamos crear el archivo maestro de instrucciones prompts/v1/clause_extraction.md. Este prompt será consumido por el modelo (Claude 3.5 o GPT-4o) para convertir texto plano y sucio (procedente de OCR) en una lista limpia de objetos JSON. El reto es manejar la jerarquía (1.1, 1.1.a), las referencias cruzadas ("Ver cláusula 5") y la categorización automática (¿Es esto un hito de pago o una multa?).
+Rol: Actúa como un Lead Prompt Engineer especializado en NLP Legal.
+Tarea: Redactar el prompt del sistema optimizado utilizando técnicas de Few-Shot Learning (dar ejemplos) y Chain of Thought (pedirle que razone antes de extraer).
+Requisitos Técnicos del Prompt:
+Definición de Persona:
+"Eres un analista legal experto en contratos de construcción (FIDIC/NEC). Tu objetivo es estructurar texto legal sin perder ni alterar una sola palabra del contenido original."
+Schema de Salida (JSON Enforcement):
+El modelo debe devolver estrictamente:
+JSON
+{
+  "clauses": [
+    {
+      "id": "14.2",
+      "title": "Advance Payment",
+      "text": "The Employer shall make an advance payment...",
+      "category": "PAYMENT", // PAYMENT, PENALTY, SCOPE, TERMINATION, GENERAL
+      "page_number": 12,
+      "related_clause_ids": ["14.3", "4.2"] // Referencias encontradas en el texto
+    }
+  ]
+}
+Manejo de Casos Borde (Edge Cases):
+Instruye explícitamente qué hacer con:
+Tablas: "¿Convertir a markdown o ignorar?". (Decisión: Resumir contenido).
+Encabezados/Pies de página: "Ignorar números de página y fechas de impresión".
+Texto roto: "Si una frase se corta al final de la página, únerla coherentemente".
+Estrategia de Few-Shot (Ejemplos):
+Incluye en el prompt 3 ejemplos de input (texto sucio) -&gt; output (JSON perfecto).
+Ejemplo 1: Cláusula simple.
+Ejemplo 2: Cláusula con sub-puntos (a, b, c).
+Ejemplo 3: Cláusula tachada o "Intentionally Deleted".
+Entregable: completo del archivo prompts/v1/clause_extraction.md en formato Markdown/Texto plano.</t>
+  </si>
+  <si>
+    <t>sta actividad es el "cerebro" detrás del servicio que diseñamos hace un momento (CE-S5-002).
+Un script de Python puede orquestar la llamada, pero si el Prompt es malo, la clasificación será aleatoria. Necesitamos que la IA entienda la política de obra: Un "Inspector de Seguridad" tiene Poder Alto (puede cerrar la obra) aunque no sea un directivo. Un "Vecino" tiene Poder Bajo pero Interés Alto (ruido).
+El prompt debe enseñar estos matices al modelo para alcanzar esa precisión del &gt;80%.
+Shutterstock
+📝 Actividad: CE-S5-007
+Nombre: Prompt Clasificación Stakeholders (Matrix Logic) Dominio: AI / Prompt Engineering Story Points: 1 Dependencias: CE-S5-002 (Service Implementation), CE-S2-008 (Golden Dataset) Gate: Gate 5 (Inference Accuracy &gt; 80%)
+🚀 Prompt Optimizado
+Contexto: Necesitamos crear el archivo prompts/v1/stakeholder_classification.md. Este prompt recibirá una lista de stakeholders (Nombre, Rol, Empresa) y el contexto del proyecto. Su salida debe asignar los valores numéricos de Poder (1-10) e Interés (1-10) y determinar el Cuadrante de Gestión. El desafío es reducir la subjetividad: El modelo debe aplicar criterios estándar de gestión de proyectos (PMBOK/Prince2).
+Rol: Actúa como un Lead Prompt Engineer y experto en Gestión de Stakeholders.
+Tarea: Redactar el prompt del sistema optimizado.
+Requisitos Técnicos del Prompt:
+Definiciones Claras (Grounding):
+Define explícitamente qué significa Poder en este contexto: "Capacidad de detener el proyecto, aprobar presupuesto o cambiar el alcance."
+Define Interés: "Grado en que el proyecto afecta sus operaciones diarias, reputación o finanzas."
+Instrucciones de Razonamiento (Chain of Thought):
+Pide al modelo que genere un campo rationale antes de asignar el score.
+Ejemplo: "Rol: Health &amp; Safety Officer. Rationale: Tienen autoridad legal para detener trabajos inseguros (High Power), y su trabajo depende de la métrica de accidentes (High Interest)."
+Mapeo de Cuadrantes:
+Instruye al modelo para mapear los scores a los cuadrantes:
+Power &gt; 5 &amp; Interest &gt; 5 -&gt; MANAGE_CLOSELY
+Power &gt; 5 &amp; Interest &lt;= 5 -&gt; KEEP_SATISFIED
+Power &lt;= 5 &amp; Interest &gt; 5 -&gt; KEEP_INFORMED
+Power &lt;= 5 &amp; Interest &lt;= 5 -&gt; MONITOR
+Manejo de Ambigüedad:
+Instruye: "Si el rol es genérico (ej. 'Asistente') y no hay más contexto, asume bajo poder."
+Instruye: "Si la empresa es el 'Cliente' (Client/Employer), asume Poder máximo por defecto."
+Output JSON:
+Estructura exacta para que pydantic pueda validarlo sin errores.
+Entregable:  archivo prompts/v1/stakeholder_classification.md con ejemplos Few-Shot incluidos.</t>
+  </si>
+  <si>
+    <t>Esta actividad cierra el círculo de la gestión de Stakeholders.
+Ya tenemos los agentes que extraen (S5-001) y clasifican (S5-002). Ahora necesitamos exponer esos datos al Frontend para que pueda pintar la Matriz de Mendelow y permitir al usuario corregir manualmente (CRUD) si la IA se equivocó ("Este becario no tiene Poder Alto").
+📝 Actividad: CE-S5-010
+Nombre: Endpoints /projects/{id}/stakeholders (CRUD &amp; Classification) Dominio: Backend / API Story Points: 1 Dependencias: CE-S2-003 (DB Models), CE-S5-001 (Extractor Agent) Gate: Gate 4 (API Readiness)
+🚀 Prompt Optimizado
+Contexto: Necesitamos exponer la gestión de Stakeholders en la API: apps/api/src/routers/stakeholders.py. Estos endpoints alimentarán la vista de "Stakeholder Matrix" en el frontend. Es crucial que soportemos la actualización parcial (PATCH), ya que una interacción común en el frontend será arrastrar y soltar un stakeholder de un cuadrante a otro, lo que actualizará sus valores de power e interest.
+Rol: Actúa como un Backend Developer experto en FastAPI y Pydantic.
+Tarea: Implementar el router con las operaciones CRUD estándar.
+Requisitos Técnicos:
+Modelos Pydantic (schemas/stakeholder.py):
+StakeholderCreate: name, role, company, type (Enum), power (1-10, opcional), interest (1-10, opcional).
+StakeholderUpdate: Todos opcionales.
+StakeholderResponse: Incluye id, quadrant (calculado o almacenado), source_clause_id (trazabilidad).
+Endpoints:
+GET /projects/{project_id}/stakeholders: Devuelve la lista. Soporta filtrado por quadrant.
+POST /projects/{project_id}/stakeholders: Creación manual.
+PATCH /stakeholders/{id}: Para actualizar coordenadas (power/interest) o corregir el nombre.
+Lógica de Negocio: Si se actualiza power o interest, recalcula automáticamente el campo quadrant antes de guardar en BD.
+DELETE /stakeholders/{id}: Borrado lógico (soft delete) o físico.
+Validación:
+Asegura que power e interest estén siempre entre 1 y 10.
+Si se proporciona source_clause_id, verifica que exista (opcional, pero recomendado).
+Entregable: de stakeholders.py y los esquemas Pydantic asociados.</t>
+  </si>
+  <si>
+    <t>Esta actividad marca el salto de la Lógica Determinista (Matemáticas) a la Lógica Semántica (Juicio).
+Hasta ahora, nuestras reglas eran rígidas: if date_a &gt; date_b. Pero hay reglas que requieren "entender":
+"¿Es la descripción técnica del presupuesto coherente con los planos?"
+"¿Se mencionan todas las exclusiones del contrato en el alcance?"
+Para esto no sirve un if. Necesitamos un LLM que actúe como juez. El LlmRuleEvaluator es la clase base que estandariza cómo le preguntamos a la IA y cómo procesamos su veredicto.
+📝 Actividad: CE-S5-008
+Nombre: LlmRuleEvaluator Base Class (Semantic Rules Engine) Dominio: AI / Backend architecture Story Points: 1 Dependencias: CE-S2-007 (Base Agent), CE-S4-005 (Rule Interface) Gate: Gate 5 (Semantic Analysis)
+🚀 Prompt Optimizado
+Contexto: Hemos agotado las reglas matemáticas. Ahora entramos en las reglas cualitativas. Necesitamos una clase base abstracta en apps/api/src/coherence/llm_rule_evaluator.py que herede de la interfaz RuleEvaluator que ya tenemos, pero que implemente la lógica específica para llamar a la IA. Esta clase debe encargarse del "trabajo sucio": Inyectar variables en un prompt, enviar la petición a Anthropic/OpenAI, recibir el JSON, validarlo y manejar reintentos si el formato es incorrecto.
+Rol: Actúa como un Software Architect especializado en integración de LLMs.
+Tarea: Implementar la clase base LlmRuleEvaluator.
+Requisitos Técnicos:
+Clase Abstracta:
+Debe requerir que las subclases definan:
+system_prompt_template: La instrucción base (ej. "Eres un experto en costes...").
+user_prompt_template: La plantilla con placeholders (ej. "Compara el texto A: {text_a} con el texto B: {text_b}").
+Método evaluate(context) -&gt; RuleResult:
+Este método debe ser concreto (implementado en la base).
+Flujo:
+Extraer los datos necesarios del context (usando un método hook _prepare_inputs).
+Renderizar los prompts.
+Llamar al AIService solicitando salida JSON.
+Parsear la respuesta en un modelo Pydantic LlmEvaluationOutput (status, reasoning, confidence).
+Mapear eso al RuleResult estándar del sistema.
+Schema de Salida de la IA:
+Forzar siempre esta estructura JSON:
+JSON
+{
+  "compliant": boolean,
+  "reasoning": "string explicando la discrepancia",
+  "severity": "LOW|MEDIUM|HIGH|CRITICAL",
+  "evidence_quote": "fragmento del texto que prueba el fallo"
+}
+Manejo de Errores:
+Si el LLM falla o alucina el formato JSON, debe capturar la excepción y devolver un RuleResult con estado ERROR (para no romper todo el proceso de scoring), o intentar un re-try automático.
+Entregable: Python de llm_rule_evaluator.py utilizando abc (Abstract Base Classes) y pydantic</t>
+  </si>
+  <si>
+    <t>Esta es una actividad pequeña pero vital para la gobernanza del proyecto.
+La Matriz RACI (Responsible, Accountable, Consulted, Informed) cruza las Tareas (del cronograma) con los Stakeholders (extraídos). La IA intentará adivinar quién hace qué ("El Arquitecto probablemente aprueba los Planos"). Este endpoint permite al frontend pintar esa rejilla y, lo más importante, permite al usuario decir: "No, el Arquitecto solo es Consultado, el que aprueba es el Cliente".
+📝 Actividad: CE-S5-011
+Nombre: Endpoints /projects/{id}/raci (Matrix View &amp; HITL Updates) Dominio: Backend / API Story Points: 0.5 Dependencias: CE-S5-010 (Stakeholders), CE-S3-008 (Tasks) Gate: Gate 6 (User Validation)
+🚀 Prompt Optimizado
+Contexto: Necesitamos exponer la matriz de responsabilidades en apps/api/src/routers/raci.py. A diferencia de un CRUD normal, esta vista suele ser una "Pivot Table": Filas = Tareas, Columnas = Stakeholders, Celdas = Rol (R, A, C, I). El frontend consumirá esto para dibujar una tabla interactiva. Además, necesitamos un mecanismo para que el usuario "fije" una asignación manualmente (Human-in-the-Loop), evitando que una re-ejecución de la IA la sobrescriba.
+Rol: Actúa como un Backend Lead experto en diseño de APIs RESTful para estructuras de datos complejas.
+Tarea: Implementar el router para la gestión de la matriz RACI.
+Requisitos Técnicos:
+Endpoint de Lectura (GET /projects/{id}/raci):
+No devuelvas una matriz 2D pura. Devuelve una estructura anidada fácil de iterar:
+JSON
+{
+  "matrix": [
+    {
+      "task_id": "uuid",
+      "task_name": "Cimentación",
+      "assignments": [
+        { "stakeholder_id": "uuid_1", "role": "RESPONSIBLE", "is_verified": false },
+        { "stakeholder_id": "uuid_2", "role": "ACCOUNTABLE", "is_verified": true }
+      ]
+    }
+  ]
+}
+Endpoint de Escritura (PUT /assignments):
+Permite actualizar o crear una asignación específica.
+Payload: { "task_id": "...", "stakeholder_id": "...", "role": "CONSULTED" }.
+Lógica HITL: Al recibir este PUT, el backend debe marcar automáticamente el flag is_verified = true (o source = "HUMAN") en la base de datos. Esto protege el dato de futuros barridos de la IA.
+Validación de Reglas RACI (Opcional pero recomendada):
+Regla de Oro: Solo puede haber un "Accountable" por tarea. Si el usuario intenta asignar un segundo "A", lanza un error 400 o advierte.
+Entregable: raci.py y los modelos Pydantic de respuesta.</t>
+  </si>
+  <si>
+    <t>Esta actividad es la diferencia entre "Creer" y "Saber".
+Cuando la IA acusa al usuario de un error ("Falta el muro"), el usuario se pone a la defensiva. Si la IA simplemente dice "Lo leí por ahí", perdemos su confianza. Si la IA dice: "Lo dice la Cláusula 3.1 en la página 14 (Ver aquí)", ganamos la discusión.
+Como los LLMs trabajan con texto y no con coordenadas PDF, necesitamos un Servicio de Localización Inversa: La IA cita el texto, y nosotros buscamos dónde está ese texto físicamente en el documento.
+📝 Actividad: CE-S5-010
+Nombre: Source Locator Service (Evidence Linking &amp; Fuzzy Search) Dominio: AI / Backend Story Points: 2 Dependencias: CE-S5-009 (Rules), CE-S4-003 (Parsers) Gate: Gate 5 (Explainability)
+🚀 Prompt Optimizado
+Contexto: Las reglas semánticas (RuleScopeConsistency) devuelven un texto de evidencia ("Falta el cerramiento exigido en la sección de Trabajos Exteriores"). Necesitamos convertir esa cita textual en metadatos navegables (page_number, clause_id, snippet_context). Crearemos el servicio apps/api/src/services/source_locator.py. Este servicio recibirá una frase generada por la IA y buscará la mejor coincidencia en nuestra base de datos de fragmentos (document_chunks) para devolver la ubicación exacta.
+Rol: Actúa como un Backend Developer experto en algoritmos de búsqueda de texto.
+Tarea:
+Implementar la clase SourceLocator.
+Integrarla en el flujo de LlmRuleEvaluator.
+Requisitos Técnicos:
+Algoritmo de Fuzzy Matching:
+La IA a veces parafrasea. No podemos usar ==.
+Usa la librería thefuzz (antes fuzzywuzzy) o rapidfuzz en Python.
+Implementa un método find_best_match(query_text, document_id) que itere sobre los chunks del documento y devuelva el que tenga mayor similitud (score &gt; 85).
+Estrategia de Búsqueda Híbrida:
+Paso 1 (Rápido): Búsqueda por ID de Cláusula. Si la IA devuelve "Según Cláusula 14.2", busca directamente en la tabla clauses por ese ID.
+Paso 2 (Lento): Si no hay ID, usa Fuzzy Search sobre el campo content de document_chunks.
+Schema de Evidencia Enriquecida:
+Actualiza el objeto Alert para que incluya:
+JSON
+"evidence_location": {
+  "document_id": "uuid",
+  "page_number": 42,
+  "clause_id": "14.2",
+  "highlight_text": "The Contractor shall construct a perimeter fence...",
+  "confidence": 0.95
+}
+Integración:
+Modifica LlmRuleEvaluator.evaluate: Una vez que tengas el reasoning y el evidence_quote del LLM, pasa ese quote por el SourceLocator antes de guardar la alerta en la base de datos.
+Entregable: Python de source_locator.py y un test unitario probando una coincidencia parcia</t>
+  </si>
+  <si>
+    <t>sta actividad ataca uno de los mayores dolores de cabeza en la construcción: La Subjetividad.
+Frases como "acabados de primera calidad" o "a satisfacción del ingeniero" son bombas de relojería. Lo que para el arquitecto es "primera calidad", para el contratista puede ser "estándar". Esta regla usa la IA para leer el Alcance y marcar todas las palabras que no son medibles ni específicas.
+📝 Actividad: CE-S5-009
+Nombre: Primera Regla LLM Cualitativa (Scope Ambiguity Detection) Dominio: AI / Backend Story Points: 2 Dependencias: CE-S5-008 (Base Class) Gate: Gate 5 (Semantic Clarity)
+🚀 Prompt Optimizado
+Contexto: Vamos a implementar la regla apps/api/src/coherence/rules/scope_ambiguity.py. Esta regla hereda de LlmRuleEvaluator. Su objetivo no es comparar documentos, sino analizar la calidad del texto del Alcance (Scope of Works). Buscamos términos vagos, indefinidos o subjetivos que puedan causar disputas futuras ("Claims").
+Rol: Actúa como un Contract Manager muy estricto que odia la ambigüedad.
+Tarea:
+Implementar la clase RuleScopeAmbiguity.
+Diseñar el Prompt de Detección de Ambigüedad.
+Requisitos Técnicos:
+Heredar de LlmRuleEvaluator:
+Reutiliza la lógica de llamada y parseo implementada en la actividad anterior.
+Prompt Engineering (user_prompt_template):
+Instrucción: "Analiza el siguiente texto del Alcance de Obra. Identifica frases vagas, subjetivas o no cuantificables."
+Lista Negra (Ejemplos a detectar):
+Adjetivos subjetivos: "buena calidad", "adecuado", "suficiente", "mejor práctica".
+Indefinición temporal: "lo antes posible", "en tiempo razonable".
+Indefinición de autoridad: "a juicio de la dirección", "según se instruya".
+Generalizaciones: "etc.", "y similares", "incluyendo pero no limitado a" (esta última es legalmente válida pero peligrosa si se abusa).
+Lógica de Evaluación:
+Si se detectan términos de Alto Riesgo (ej. "a coste del contratista" sin especificar cuánto), la regla falla (FAIL).
+Si son términos menores, genera una WARNING.
+Schema de Respuesta (JSON):
+JSON
+{
+  "compliant": false,
+  "ambiguities": [
+    {
+      "term": "finish to be of high quality",
+      "category": "SUBJECTIVE_QUALITY",
+      "risk_explanation": "'High quality' is not a standard. Specify an ISO/ASTM standard instead.",
+      "suggested_fix": "Specify 'Finish level Q4 according to Eurocode...'"
+    }
+  ],
+  "overall_clarity_score": 65
+}
+Entregable:  Python de scope_ambiguity.py con el prompt optimizado y la lógica de clasificación de severidad.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el puente crítico entre la "Inteligencia Artificial" y la "Evidencia Real".
+Cuando la IA dice "El contrato prohíbe esto", el usuario escéptico preguntará: "¿Dónde?". El SourceLocator responde a esa pregunta. Convierte una cita textual (que puede ser parafraseada por el LLM) en una ubicación física exacta (Página 42, Párrafo 3) usando búsqueda difusa (Fuzzy Search).
+📝 Actividad: CE-S5-010
+Nombre: Source Locator Service (Evidence Linking &amp; Fuzzy Search) Dominio: AI / Backend Story Points: 2 Dependencias: CE-S5-009 (Rules), CE-S4-003 (Parsers) Gate: Gate 5 (Explainability)
+🚀 Prompt Optimizado
+Contexto: Las reglas semánticas generan alertas con una evidence_quote (texto citado). Necesitamos implementar apps/api/src/services/source_locator.py. Este servicio recibe el texto de la IA y busca su ubicación en la base de datos de fragmentos (document_chunks) que creamos durante la fase de RAG/Ingesta. El reto es que la IA a veces cambia una palabra o corta una frase, por lo que una búsqueda exacta (LIKE '%text%') fallará. Necesitamos Fuzzy Matching.
+Rol: Actúa como un Backend Developer experto en algoritmos de búsqueda y Python.
+Tarea:
+Implementar la clase SourceLocator.
+Integrarla en el flujo de evaluación de reglas.
+Requisitos Técnicos:
+Librería de Matching:
+Usa thefuzz (anteriormente fuzzywuzzy) con python-Levenshtein para velocidad.
+Método principal: find_best_match(project_id, document_type, quote_text).
+Estrategia de Búsqueda en 2 Pasos:
+Paso 1 (Contextual): Si la alerta viene con un clause_id (ej. "14.2"), busca primero en los chunks etiquetados con ese ID en los metadatos. Es O(1) y muy preciso.
+Paso 2 (Fuerza Bruta Difusa): Si falla el paso 1, recupera todos los chunks del documento y usa process.extractOne para encontrar el segmento más similar.
+Umbral de Confianza: Si el score es &lt; 85, marca la ubicación como "Aproximada" o no devuelvas nada para evitar falsos positivos.
+Salida Estructurada (SourceLocation):
+Python
+class SourceLocation(BaseModel):
+    document_id: UUID
+    page_number: int
+    chunk_text: str  # El texto real en el PDF, no el de la IA
+    similarity_score: int
+    bbox: Optional[List[float]] = None # Para resaltado futuro en frontend
+Integración con LlmRuleEvaluator:
+En el método evaluate, justo antes de devolver el resultado, llama a SourceLocator.locate().
+Inyecta el objeto SourceLocation dentro de la metadata de la Alerta generada.
+Entregable: Python de source_locator.py y un test unitario que demuestre cómo encuentra una frase aunque tenga una errata leve.</t>
+  </si>
+  <si>
+    <t>Esta actividad es la última línea de defensa financiera.
+Ya tenemos el Dashboard (S5-012) para verlo y el Rate Limiter (S5-013) para frenarlo, pero si nadie mira el dashboard y el tráfico es legítimo (no spam), el gasto puede dispararse igual. Esta actividad asegura que el sistema grite "¡FUEGO!" (vía Email o Slack) cuando nos acercamos al límite de la tarjeta de crédito.
+📝 Actividad: CE-S5-014
+Nombre: Budget Alerts Email/Webhook (Financial Safeguards) Dominio: Backend / FinOps Story Points: 1 Dependencias: CE-S5-012 (Cost Metrics), Configuración SMTP/Webhook Gate: Gate 7 (Operational Control)
+🚀 Prompt Optimizado
+Contexto: Los LLMs son caros. Un ataque DDoS o un error de código puede consumir el presupuesto mensual en horas. Necesitamos un servicio en segundo plano apps/api/src/services/budget_alerts.py que monitoree el gasto acumulado. Este servicio no bloquea (eso lo hace el Rate Limiter), sino que Notifica. Se ejecutará periódicamente (ej. cada 10 minutos vía Celery Beat).
+Rol: Actúa como un Backend Lead enfocado en FinOps (Operaciones Financieras).
+Tarea:
+Implementar la clase BudgetMonitor.
+Configurar la lógica de umbrales y notificación.
+Requisitos Técnicos:
+Lógica de Umbrales (Stateful):
+Define niveles de alerta: 50%, 75%, 90%, 100%.
+Persistencia: Guarda en Redis/DB el valor last_alert_level para el mes actual.
+Regla: Solo envía alerta si current_usage &gt;= threshold Y threshold &gt; last_alert_level. Esto evita spam (recibir 500 emails porque el gasto está al 91%).
+Cálculo de Gasto:
+Suma el coste de los tokens de input y output del mes en curso (usando los precios de OpenAI/Anthropic definidos en constantes).
+Canales de Notificación:
+Email: Usa FastAPI-Mail o SMTP simple para enviar a la lista de ADMINS.
+Webhook (Opcional pero recomendado): Envía un payload JSON a una URL (ej. Slack Channel Incoming Webhook) para visibilidad inmediata del equipo.
+Payload de la Alerta:
+JSON
+{
+  "level": "CRITICAL",
+  "message": "Budget utilization reached 90%",
+  "current_spend": "$450.00",
+  "limit": "$500.00",
+  "timestamp": "2026-01-31T23:59:00Z"
+}
+Entregable:  Python de budget_alerts.py y la configuración de la tarea periódica en Celery.</t>
+  </si>
+  <si>
+    <t>Esta actividad asegura que toda la cadena de "Inteligencia Política" funcione sin fisuras antes de conectar el Frontend.
+No sirve de nada tener un extractor y un clasificador si el dato se pierde por el camino o si la API de RACI no encuentra a los usuarios creados. Este test de integración valida el flujo completo: Documento -&gt; Extracción -&gt; Clasificación -&gt; API -&gt; RACI.
+📝 Actividad: CE-S5-015
+Nombre: Tests Integración Stakeholder Flow (End-to-End Backend) Dominio: QA / Testing Story Points: 1 Dependencias: CE-S5-001 (Extractor), CE-S5-002 (Classifier), CE-S5-011 (RACI) Prioridad: P0 (Quality Gate)
+🚀 Prompt Optimizado
+Contexto: Hemos construido componentes aislados para gestionar Stakeholders. Ahora necesitamos un test de integración en tests/integration/test_stakeholder_flow.py que pruebe la historia completa. Dado que llamar a OpenAI es lento y costoso, mockearemos las respuestas del LLM, pero ejecutaremos el resto del código (Base de datos, FastAPI, Pydantic) de forma real.
+Rol: Actúa como un QA Lead experto en Pytest y automatización.
+Tarea: Crear un test que simule el ciclo de vida de un Stakeholder.
+Requisitos Técnicos:
+Setup (conftest.py):
+Usa una base de datos de prueba (SQLite en memoria o contenedor Postgres efímero).
+Crea un project_id de prueba.
+Escenario de Prueba (test_full_stakeholder_lifecycle):
+Paso 1 (Ingesta): Simula la subida de un contrato (o inyecta texto directamente en el servicio de extracción).
+Paso 2 (Mock AI): Intercepta la llamada a AIService.
+Input: Texto del contrato.
+Output Mock: [{"name": "Juan Perez", "role": "Project Manager", "company": "Acme Corp"}].
+Paso 3 (Verificación API): Llama a GET /projects/{id}/stakeholders.
+Assert: Debe devolver 1 stakeholder.
+Assert: power e interest deben ser nulos o valores por defecto.
+Paso 4 (Clasificación): Dispara la clasificación (endpoint o servicio).
+Mock AI: Devuelve power=9, interest=9, rationale="Es el jefe".
+Paso 5 (Validación RACI): Llama a GET /projects/{id}/raci.
+Assert: "Juan Perez" debe aparecer como una columna en la matriz.
+Testing de Edge Cases:
+¿Qué pasa si la IA extrae duplicados? (El sistema debe fusionarlos o descartarlos).
+¿Qué pasa si el rol es desconocido? (Debe clasificarse como Monitor por defecto).
+Entregable:  test_stakeholder_flow.py usando pytest y unittest.mock.</t>
+  </si>
+  <si>
+    <t>Esta actividad es la base estructural del proyecto.
+Para que el RACI Viewer (S6-006) tenga filas que asignar, y para que el Evidence Viewer (S6-003) pueda vincular una cláusula a un "Muro de Hormigón", necesitamos que el Backend sirva la estructura de desglose de trabajo (WBS) y la lista de materiales (BOM). No es un simple CRUD plano; el WBS es un Árbol Jerárquico (Fases -&gt; Tareas -&gt; Subtareas) y la API debe devolverlo anidado correctamente.
+📝 Actividad: CE-S6-008
+Nombre: Endpoints /projects/{id}/wbs y /bom (Hierarchical Data) Dominio: Backend / API Story Points: 1 Dependencias: CE-S2-003 (DB Models) Prioridad: P0 (Core Data Structure)
+🚀 Prompt Optimizado
+Contexto: El Frontend necesita pintar el árbol del WBS en la Matriz RACI y en el selector de enlaces. Necesitamos exponer apps/api/src/routers/wbs.py y apps/api/src/routers/bom.py. El desafío principal es que el WBS se almacena en la BD como lista de adyacencia (parent_id), pero el Frontend (React) prefiere recibir una estructura anidada (children: []) para renderizarla fácilmente.
+Rol: Actúa como un Backend Lead experto en algoritmos de recursividad y FastAPI.
+Tarea:
+Implementar los endpoints de lectura y escritura para WBS y BOM.
+Implementar la transformación de "Lista Plana" a "Árbol Jerárquico" para el WBS.
+Requisitos Técnicos:
+Modelos Pydantic (Recursivos):
+Define WBSNode que contenga un campo children: List['WBSNode'] = [].
+Usa WBSNode.update_forward_refs() para permitir la auto-referencia.
+Endpoints WBS:
+GET /projects/{id}/wbs:
+Recupera todos los items del proyecto.
+Algoritmo: Construye el árbol en memoria (O(n)) usando un diccionario de mapeo ID-&gt;Nodo antes de devolver el JSON. No hagas N consultas SQL.
+POST /wbs: Crea un item (puede recibir parent_id).
+Endpoints BOM (Bill of Materials):
+GET /projects/{id}/bom: Lista plana de materiales.
+quantity, unit, unit_price, total_price.
+Validación de Integridad:
+Al borrar un nodo WBS (DELETE), asegura que no tenga hijos (o implementa borrado en cascada con advertencia).
+Entregable:
+wbs.py con la lógica de serialización de árbol.
+Código de bom.py.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el "Botón de Arranque" de la inteligencia artificial.
+Hasta ahora, los Agentes (Sprint 3) y el RAG (Sprint 5) existen, pero están "dormidos". Necesitamos un endpoint que los despierte. Dado que un análisis completo de un contrato puede tardar de 30 segundos a 2 minutos, no podemos usar una petición HTTP normal (que haría timeout). Implementaremos el patrón Async Job Queue con Polling.
+📝 Actividad: CE-S6-009
+Nombre: Endpoint POST /projects/{id}/analyze (Async Trigger) Dominio: Backend / API Story Points: 1 Dependencias: CE-S3-006 (Orchestrator), Redis (Celery Broker) Prioridad: P0 (Core Functionality)
+🚀 Prompt Optimizado
+Contexto: Necesitamos exponer la funcionalidad de análisis en apps/api/src/routers/analysis.py. El frontend llamará a este endpoint cuando el usuario haga clic en "Analizar Proyecto". El backend debe delegar la tarea pesada a un worker de Celery y devolver inmediatamente un ID de seguimiento (job_id).
+Rol: Actúa como un Backend Lead experto en FastAPI y Patrones Asíncronos.
+Tarea:
+Crear el endpoint de inicio de análisis (POST).
+Crear el endpoint de consulta de estado (GET).
+Implementar bloqueo de concurrencia (evitar doble análisis).
+Requisitos Técnicos:
+Endpoint Trigger (POST /projects/{id}/analyze):
+Idempotencia: Antes de lanzar nada, consulta en Redis si ya existe un job_id en estado PROCESSING para este project_id. Si es así, devuelve 409 Conflict ("Analysis already in progress").
+Disparo: Si está libre, llama a celery_app.send_task('run_project_analysis', args=[project_id]).
+Respuesta: HTTP 202 Accepted.
+JSON
+{
+  "message": "Analysis started",
+  "job_id": "550e8400-e29b-41d4-a716-446655440000",
+  "status_url": "/api/v1/projects/123/analysis/550e..."
+}
+Endpoint Polling (GET /projects/{id}/analysis/{job_id}):
+Consulta el estado de la tarea en Celery (AsyncResult(job_id)).
+Estados Mapeados:
+PENDING -&gt; "Queued"
+STARTED -&gt; "Processing (Reading Documents...)"
+SUCCESS -&gt; "Completed"
+FAILURE -&gt; "Failed"
+Si es SUCCESS, incluye un resumen breve (ej. "Found 5 risks").
+Seguridad:
+Verifica que el usuario tenga permisos WRITE sobre el proyecto antes de iniciar.
+Entregable:
+analysis.py.
+Modelos Pydantic para AnalysisResponse y JobStatus.</t>
+  </si>
+  <si>
+    <t>Esta actividad cierra el círculo de trazabilidad financiera y técnica.
+Igual que vinculamos las Tareas (WBS) al contrato, debemos vincular los Materiales (BOM). Si el contrato dice en la Cláusula 7.2 que "El hormigón debe ser tipo H-30", y la IA extrae "Hormigón H-30" en la lista de materiales, necesitamos que al hacer clic en ese material, el sistema te lleve a la Cláusula 7.2. Esto evita disputas sobre especificaciones técnicas.
+📝 Actividad: CE-S6-011
+Nombre: Propagar clause_id a BOM Items (Material Traceability) Dominio: Backend / Data Integrity Story Points: 1 Dependencias: CE-S3-005 (Extractors), CE-S6-008 (BOM Endpoints) Gate: Gate 4 (Traceability)
+🚀 Prompt Optimizado
+Contexto: Hemos extraído la Lista de Materiales (BOM) usando los agentes del Sprint 3. Cada item del BOM tiene un campo de texto source_ref (ej. "Spec 4.1" o "Cláusula de Precios"). Necesitamos un servicio en apps/api/src/services/bom_service.py que traduzca esas referencias textuales en enlaces duros (Foreign Keys) a la tabla clauses.
+Rol: Actúa como un Backend Lead experto en limpieza de datos (Data Cleansing).
+Tarea:
+Implementar la función link_bom_to_clauses(project_id).
+Aplicar lógica de coincidencia (Matching) similar al WBS pero ajustada a especificaciones técnicas.
+Requisitos Técnicos:
+Lógica de Matching:
+Recupera todos los bom_items del proyecto donde clause_id es NULL.
+Prioridad 1 (Specs): Busca coincidencias en cláusulas etiquetadas como TECHNICAL_SPEC. A menudo los materiales se definen en anexos técnicos, no en el cuerpo legal principal.
+Prioridad 2 (Precios): Si no hay spec, busca en cláusulas de tipo PRICING.
+Regex: Implementa extractores para formatos comunes como "Item 4.2", "Spec 4.2", "4.2.1".
+Validación de Unidades:
+(Opcional pero valioso) Si la cláusula menciona "m3" y el item tiene "kg", marca un flag unit_mismatch para revisión humana.
+Ejecución:
+Integra esta llamada en el pipeline de análisis (analysis.py), inmediatamente después de link_wbs_to_clauses.
+Entregable:
+bom_service.py.
+Script de migración de datos (si aplica) o test unitario.</t>
+  </si>
+  <si>
+    <t>Esta actividad añade la "Voz" al sistema.
+Hasta ahora, la comunicación ha sido unidireccional: El sistema analiza y te muestra tablas. Con el Chat RAG, la comunicación se vuelve bidireccional. El usuario pregunta "¿Quién es responsable de las licencias?" y el sistema responde. El desafío técnico aquí es la Latencia. Un LLM tarda segundos en "pensar". Si el usuario espera 5 segundos mirando una pantalla en blanco, pensará que se rompió. Por eso es obligatorio usar Streaming (efecto de máquina de escribir) para dar feedback instantáneo.
+📝 Actividad: CE-S6-012
+Nombre: Chat UI with Streaming Responses (RAG Client) Dominio: Frontend / AI Interaction Story Points: 3 Dependencias: CE-S6-001 (API Client), CE-S5-004 (RAG Backend) Prioridad: P0 (High User Value)
+🚀 Prompt Optimizado
+Contexto: El backend tiene un endpoint POST /rag/chat que acepta { query, project_id } y devuelve una respuesta generada por IA. Vamos a implementar el componente src/components/chat/ChatWidget.tsx. Puede ser un panel lateral (Sheet) o una ventana flotante. Necesitamos manejar Server-Sent Events (SSE) o Streaming HTTP para que el texto aparezca letra por letra.
+Rol: Actúa como un AI Frontend Engineer experto en interfaces conversacionales (tipo ChatGPT) y React Hooks.
+Tarea:
+Crear la interfaz de chat (Lista de mensajes + Input Area).
+Implementar la lógica de Streaming (Fetch API + ReadableStream).
+Renderizar las citas/fuentes (Citations) de forma interactiva.
+Requisitos Técnicos:
+Gestión de Estado (useChat hook):
+Mantén un array messages: [{ role: 'user', content: '...' }, { role: 'assistant', content: '...', sources: [] }].
+Estado isStreaming: Deshabilita el botón de enviar mientras se genera la respuesta.
+Estado isLoading: Muestra "Thinking..." antes de recibir el primer byte.
+Lógica de Streaming (Critical):
+No uses Axios (complicado para streams en navegador). Usa fetch nativo.
+Loop de Lectura:
+TypeScript
+const response = await fetch('/api/rag/chat', ...);
+const reader = response.body?.getReader();
+const decoder = new TextDecoder();
+while (true) {
+  const { done, value } = await reader.read();
+  if (done) break;
+  const chunk = decoder.decode(value);
+  // Actualiza el último mensaje del estado añadiendo el chunk
+  setMessages(prev =&gt; updateLastMessage(prev, chunk));
+}
+Renderizado de Citas (Source Citations):
+El backend debe devolver las fuentes (quizás al final del stream o en un evento separado).
+Detecta patrones como [1] o [Source: Doc A] en el texto.
+Reemplázalos con un componente &lt;Button variant="link" onClick={() =&gt; openPdf(page)}&gt;.
+Al hacer clic, debe abrir el EvidenceViewer (S6-003) en la página exacta.
+UI/UX:
+Auto-scroll: Mantén el scroll pegado al fondo (scrollIntoView) mientras llega texto nuevo.
+Empty State: Muestra "Preguntas sugeridas" (ej. "¿Cuáles son los hitos de pago?", "¿Hay penalizaciones por retraso?").
+Entregable:
+ChatWidget.tsx.
+Hook personalizado useChatStream.ts.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el "pegamento" final que da sentido a la trazabilidad.
+Ya vinculamos WBS -&gt; Cláusula (S6-010) y BOM -&gt; Cláusula (S6-011). Ahora, cuando el usuario hace clic en una Alerta (que nace de una Cláusula), el sistema debe ser capaz de responder a la pregunta: "¿Qué impacto tiene esta alerta en mi cronograma y mis compras?". No basta con mostrar el PDF; hay que traerse todo el grafo de dependencias en una sola consulta eficiente.
+📝 Actividad: CE-S6-012
+Nombre: Evidence Viewer Logic Query (Impact Analysis) Dominio: Backend / Data Aggregation Story Points: 1 Dependencias: CE-S6-010 (WBS Links), CE-S6-011 (BOM Links) Gate: Gate 4 (Traceability)
+🚀 Prompt Optimizado
+Contexto: El frontend EvidenceViewer tiene una pestaña llamada "Impacto". Para poblarla, necesitamos un servicio en apps/api/src/services/evidence_service.py que, dado un alert_id, reconstruya toda la historia:
+Busque la Alerta.
+Busque la Cláusula asociada (alert.evidence_location suele apuntar a una página, pero la relación lógica es con la cláusula).
+Busque todos los Items del WBS vinculados a esa cláusula (FK creada en S6-010).
+Busque todos los Items del BOM vinculados a esa cláusula (FK creada en S6-011).
+Rol: Actúa como un Backend Lead experto en SQL Optimization y ORM (SQLAlchemy).
+Tarea:
+Implementar get_alert_impact_context(alert_id).
+Optimizar la consulta para evitar el problema "N+1" (muchas consultas pequeñas).
+Requisitos Técnicos:
+Consulta Eager Loading:
+Usa joinedload o selectinload de SQLAlchemy para traer las relaciones en 1 o 2 queries máximo.
+Pseudo-query: SELECT * FROM alerts JOIN clauses ON ... LEFT JOIN wbs_items ON ... LEFT JOIN bom_items ON ... WHERE alert.id = :id
+Estructura de Respuesta (DTO):
+JSON
+{
+  "alert": { "id": "...", "severity": "CRITICAL", "title": "Penalización por Retraso" },
+  "source_clause": { "id": "...", "label": "Cláusula 5.2", "text": "..." },
+  "impacted_schedule": [
+    { "wbs_id": "...", "task_name": "Cimentación", "status": "IN_PROGRESS" }
+  ],
+  "impacted_budget": [
+    { "bom_id": "...", "material": "Hormigón H-30", "cost": 5000 }
+  ]
+}
+Lógica de Fallback:
+Si la alerta no está vinculada directamente a una cláusula (ej. alerta general del proyecto), devuelve arrays vacíos en impacted_schedule y impacted_budget, no errores.
+Entregable:
+evidence_service.py.
+Endpoint GET /alerts/{id}/context en el router de alertas.</t>
+  </si>
+  <si>
+    <t>Esta actividad es pura Arquitectura de Software.
+Estamos construyendo los cimientos para el futuro. Aunque ahora usemos NetworkX (memoria) para manejar el grafo de dependencias, sabemos que si el proyecto escala, necesitaremos una base de datos de grafos real como Neo4j o AWS Neptune. Para no tener que reescribir todo el backend cuando eso pase, crearemos una Capa de Abstracción (Interface). El resto de la aplicación solo hablará con GraphStore, sin saber qué hay debajo.
+📝 Actividad: CE-S6-013
+Nombre: Graph RAG Service Abstracción (GraphStore Interface) Dominio: Backend / Architecture Story Points: 2 Dependencias: CE-S5-005 (NetworkX Prototype) Prioridad: P1 (Scalability &amp; Maintenance)
+🚀 Prompt Optimizado
+Contexto: El frontend (React Flow) y el servicio de RAG necesitan consultar relaciones complejas ("¿Qué riesgos afectan a esta tarea?"). Actualmente, tenemos lógica de NetworkX dispersa. Vamos a centralizarla en apps/api/src/services/graph_store.py implementando el patrón de diseño Adapter/Repository. Esto nos permitirá cambiar de NetworkX a Neo4j en el futuro cambiando solo una línea de configuración.
+Rol: Actúa como un Backend Architect obsesionado con el código limpio y los principios SOLID.
+Tarea:
+Definir la clase base abstracta GraphStore.
+Implementar la versión concreta NetworkXGraphStore.
+Implementar métodos de serialización para el frontend (formato compatible con React Flow).
+Requisitos Técnicos:
+La Interfaz (GraphStore(ABC)):
+Debe definir métodos abstractos:
+add_node(id, type, properties)
+add_edge(source, target, type, properties)
+get_neighbors(id, depth=1)
+get_subgraph(node_ids) -&gt; Retorna un sub-grafo aislado.
+search_nodes(property_filter)
+La Implementación (NetworkXGraphStore):
+Usa networkx.DiGraph() internamente.
+Persistencia (Reto): Como NetworkX es en memoria, implementa métodos save_to_disk(path) y load_from_disk(path) usando pickle o gml para no perder el grafo al reiniciar el servidor (o regenerarlo desde la BD SQL al inicio).
+Método para Frontend (to_react_flow_json):
+Convierte el grafo interno a la estructura que necesita la UI:
+JSON
+{
+  "nodes": [{ "id": "1", "type": "risk", "data": { "label": "..." }, "position": { "x": 0, "y": 0 } }],
+  "edges": [{ "id": "e1-2", "source": "1", "target": "2", "animated": true }]
+}
+Nota: No calcules posiciones (x, y) aquí; de eso se encarga dagre en el frontend (S6-009). Envía x: 0, y: 0.
+Testing con Mocks:
+Crea un MockGraphStore que simule respuestas para usar en los tests unitarios de otros servicios sin levantar la maquinaria pesada.
+Entregable:
+graph_store.py con la clase base y la implementación NetworkX.
+Tests unitarios básicos en tests/unit/test_graph_store.py.</t>
+  </si>
+  <si>
+    <t>Esta actividad es el "Airbag" de tu aplicación.
+Dependemos de APIs externas (Anthropic/OpenAI) que pueden caerse, ir lentas o lanzarnos un Rate Limit. Si Claude se cae, no queremos que nuestros usuarios se queden viendo un spinner infinito ni que nuestro servidor colapse reintentando mil veces. El patrón Circuit Breaker detecta fallos repetidos y "corta la corriente" temporalmente, devolviendo un error rápido o una respuesta en caché, permitiendo que el sistema externo se recupere.
+📝 Actividad: CE-S6-014
+Nombre: Circuit Breaker Claude API (Resilience Pattern) Dominio: Backend / Reliability Story Points: 1 Dependencias: CE-S2-004 (Infra/Redis), Setup de LLM Client Gate: Gate 7 (Operational Control)
+🚀 Prompt Optimizado
+Contexto: Las llamadas a LLMs son el punto más frágil del sistema (latencia alta, disponibilidad variable). Vamos a implementar apps/api/src/ai/circuit_breaker.py para envolver todas las llamadas a Anthropic o OpenAI. Usaremos Redis para mantener el estado del interruptor (compartido entre todos los workers de Celery/FastAPI).
+Rol: Actúa como un Site Reliability Engineer (SRE) experto en Python y sistemas distribuidos.
+Tarea:
+Implementar la clase AICircuitBreaker.
+Configurar la lógica de Retry con Exponential Backoff.
+Implementar la lógica de corte (Open/Closed) y Fallback.
+Requisitos Técnicos:
+Librerías:
+Usa tenacity para la lógica de reintentos (es el estándar en Python).
+Usa redis-py para persistir el contador de errores.
+Máquina de Estados (Redis):
+CLOSED (Normal): El tráfico fluye. Si hay error, incrementa contador en Redis.
+OPEN (Roto): Si errores &gt; 5 en 1 minuto, el estado pasa a OPEN. Todas las llamadas fallan inmediatamente (fail fast) sin llamar a la API externa.
+HALF-OPEN (Prueba): Después de un reset_timeout (ej. 60s), permite pasar 1 petición de prueba. Si funciona -&gt; CLOSED. Si falla -&gt; OPEN otra vez.
+Decorador @llm_guard:
+Crea un decorador que envuelva las funciones de los agentes.
+Retry: Reintenta 3 veces con espera exponencial (1s, 2s, 4s) antes de contar como "Fallo" para el Circuit Breaker.
+Fallback: Si el circuito está abierto, devuelve un valor por defecto seguro (ej. None o un objeto AnalysisResult(status="DEGRADED")) en lugar de lanzar una excepción 500 al usuario.
+Logging:
+Cada vez que el circuito cambie de estado (Closed -&gt; Open), debe registrarse un log WARNING crítico para que el Dashboard de Observabilidad (S5-012) lo detecte.
+Entregable:
+circuit_breaker.py.
+Ejemplo de uso en analysis_service.py.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6186,6 +6186,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -6339,7 +6347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6425,13 +6433,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6753,15 +6764,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8216,19 +8227,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W141"/>
+  <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="14" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -8307,7 +8317,7 @@
         <v>ID Nombre Sprint Semana Fecha_Inicio Fecha_Fin Duracion_Dias Prioridad Estado Dominio CTO_Gate Dependencias Asignado Criterio_Aceptacion Riesgo Entregable</v>
       </c>
       <c r="W1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="172.8" x14ac:dyDescent="0.3">
@@ -8366,14 +8376,14 @@
         <v>677</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="V2" t="str">
         <f>A2 &amp; " " &amp; B2 &amp; " " &amp; C2 &amp; " " &amp; D2 &amp; " " &amp; E2 &amp; " " &amp; F2 &amp; " " &amp; G2 &amp; " " &amp; H2 &amp; " " &amp; I2 &amp; " " &amp; J2 &amp; " " &amp; K2 &amp; " " &amp; L2 &amp; " " &amp; M2 &amp; " " &amp; N2 &amp; " " &amp; O2 &amp; " " &amp; P2</f>
         <v>CE-S2-001 Schemas Pydantic Documents Module Sprint 2 Semana 2 2026-01-09 2026-01-10 2 P0 done Backend Gate 5 Ninguna Backend Lead Request/Response DTOs con clause_id y OpenAPI spec generada Bajo apps/api/src/modules/documents/schemas.py</v>
       </c>
       <c r="W2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="259.2" x14ac:dyDescent="0.3">
@@ -8432,14 +8442,14 @@
         <v>677</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V84" si="0">A3 &amp; " " &amp; B3 &amp; " " &amp; C3 &amp; " " &amp; D3 &amp; " " &amp; E3 &amp; " " &amp; F3 &amp; " " &amp; G3 &amp; " " &amp; H3 &amp; " " &amp; I3 &amp; " " &amp; J3 &amp; " " &amp; K3 &amp; " " &amp; L3 &amp; " " &amp; M3 &amp; " " &amp; N3 &amp; " " &amp; O3 &amp; " " &amp; P3</f>
+        <f t="shared" ref="V3:V83" si="0">A3 &amp; " " &amp; B3 &amp; " " &amp; C3 &amp; " " &amp; D3 &amp; " " &amp; E3 &amp; " " &amp; F3 &amp; " " &amp; G3 &amp; " " &amp; H3 &amp; " " &amp; I3 &amp; " " &amp; J3 &amp; " " &amp; K3 &amp; " " &amp; L3 &amp; " " &amp; M3 &amp; " " &amp; N3 &amp; " " &amp; O3 &amp; " " &amp; P3</f>
         <v>CE-S2-002 Schemas Pydantic Analysis Module Sprint 2 Semana 2 2026-01-09 2026-01-10 2 P0 done Backend Gate 5 Ninguna Backend Lead DTOs Alert/Analysis con evidence_json y validaciones Pydantic v2 Bajo apps/api/src/modules/analysis/schemas.py</v>
       </c>
       <c r="W3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -8502,7 +8512,7 @@
         <v>CE-S2-003 Schemas Pydantic Stakeholders Module Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P0 done Backend Gate 5 CE-S2-001 Backend Lead DTOs Stakeholder/WBS/BOM/RACI con clause_id FK Bajo apps/api/src/modules/stakeholders/schemas.py</v>
       </c>
       <c r="W4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -8565,7 +8575,7 @@
         <v>CE-S2-004 Implementar Redis/Upstash Cache Sprint 2 Semana 2 2026-01-09 2026-01-09 1 P0 done Infrastructure Gate 7 Ninguna DevOps Cache extracciones por hash documento TTL 24h hit ratio &gt;80% Medio apps/api/src/core/cache.py</v>
       </c>
       <c r="W5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -8628,7 +8638,7 @@
         <v>CE-S2-005 Model Routing Dinámico Config Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done AI Gate 7 Ninguna AI Lead Config YAML routing Sonnet/Haiku por operación Bajo apps/api/src/ai/model_routing.yaml</v>
       </c>
       <c r="W6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -8691,7 +8701,7 @@
         <v>CE-S2-006 Caché de Prompts Idénticos Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P1 done AI Gate 7 CE-S2-004 AI Lead Hash SHA-256 input resultado cacheado 24h Bajo apps/api/src/ai/prompt_cache.py</v>
       </c>
       <c r="W7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -8754,7 +8764,7 @@
         <v>CE-S2-007 LLM Client Wrapper Anthropic Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P0 done AI Gate 7 Ninguna AI Lead SDK retry exponential backoff logging cost tracking Medio apps/api/src/ai/llm_client.py</v>
       </c>
       <c r="W8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="180" customHeight="1" x14ac:dyDescent="0.3">
@@ -8854,7 +8864,7 @@
 Snippet mostrando cómo añadir app.add_exception_handler(...) en el archivo main.py.</v>
       </c>
       <c r="W9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8918,7 +8928,7 @@
         <v>CE-S2-009 Error Handling Consistente API Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done Backend  Ninguna Backend Lead Excepciones custom códigos HTTP JSON estructurado Bajo apps/api/src/core/exceptions.py</v>
       </c>
       <c r="W10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.3">
@@ -8984,7 +8994,7 @@
         <v>CE-S2-010 Wireframes 6 Vistas Core Sprint 2 Semana 2 2026-01-09 2026-01-09 1 P0 done UX/UI Gate 6 Ninguna UX Designer Wireframes Dashboard/Projects/Evidence/Alerts/Stakeholders/RACI Medio docs/wireframes/</v>
       </c>
       <c r="W11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="221.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9038,7 +9048,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="S12" s="29" t="s">
         <v>683</v>
@@ -9048,7 +9058,7 @@
         <v>CE-S2-011 Setup Next.js 14 + Tailwind + shadcn/ui Sprint 2 Semana 2 2026-01-10 2026-01-10 1 P0 done Frontend  Ninguna Frontend Lead Proyecto configurado componentes base app renderiza Bajo apps/web/</v>
       </c>
       <c r="W12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="168" customHeight="1" x14ac:dyDescent="0.3">
@@ -9112,7 +9122,7 @@
         <v>CE-S2-012 GitHub Actions CI Completo Sprint 2 Semana 2 2026-01-09 2026-01-09 1 P0 done DevOps  Ninguna DevOps Lint/test/build cada PR bloqueados sin CI verde Bajo .github/workflows/ci.yml</v>
       </c>
       <c r="W13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="246" customHeight="1" x14ac:dyDescent="0.3">
@@ -9176,7 +9186,7 @@
         <v>CE-S2-013 Auto-deploy Staging on Merge Main Sprint 2 Semana 2 2026-01-10 2026-01-10 0,5 P0 done DevOps  CE-S2-012 DevOps Railway + Vercel webhooks merge deploy &lt;5 min Bajo .github/workflows/deploy-staging.yml</v>
       </c>
       <c r="W14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9240,7 +9250,7 @@
         <v>CE-S2-014 Benchmark Baseline Endpoints Sprint 2 Semana 2 2026-01-11 2026-01-11 0,5 P1 done Performance  Ninguna Backend Lead Latencia P50/P95/P99 métricas baseline documentadas Bajo docs/performance/baseline.md</v>
       </c>
       <c r="W15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9309,7 +9319,7 @@
         <v>CE-S2-015 Golden Dataset v1.0 (10 proyectos) Sprint 2 Semana 2 2026-01-09 2026-01-10 2 P0 done Testing Gate 5 Ninguna QA Lead 10 proyectos sintéticos anotados README incluido Medio tests/golden/</v>
       </c>
       <c r="W16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9378,7 +9388,7 @@
         <v>CE-S2-016 Tests Regresión Accuracy CI Sprint 2 Semana 2 2026-01-11 2026-01-11 1 P0 done Testing Gate 5 CE-S2-015 QA Lead CI compara accuracy vs baseline falla si &lt;85% Medio tests/accuracy/</v>
       </c>
       <c r="W17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9447,7 +9457,7 @@
         <v>CE-S3-001 Parser PDF con PyMuPDF Sprint 3 Semana 3 2026-01-13 2026-01-15 3 P0 done Backend Gate 4 Ninguna Backend Lead Extracción texto posiciones offsets 10 PDFs test Medio apps/api/src/parsers/pdf_parser.py</v>
       </c>
       <c r="W18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9506,7 +9516,7 @@
         <v>677</v>
       </c>
       <c r="S19" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T19" s="28" t="s">
         <v>701</v>
@@ -9516,7 +9526,7 @@
         <v>CE-S3-002 Parser Excel con openpyxl Sprint 3 Semana 3 2026-01-13 2026-01-14 2 P0 done Backend Gate 4 Ninguna Backend Lead Lectura cronogramas presupuestos formatos estándar Bajo apps/api/src/parsers/excel_parser.py</v>
       </c>
       <c r="W19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9575,17 +9585,17 @@
         <v>677</v>
       </c>
       <c r="S20" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T20" s="28" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-003 Parser BC3 con pyfiebdc Sprint 3 Semana 3 2026-01-15 2026-01-16 2 P0 done Backend Gate 4 Ninguna Backend Lead Partidas presupuestarias españolas BC3 100% Medio apps/api/src/parsers/bc3_parser.py</v>
       </c>
       <c r="W20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9644,14 +9654,14 @@
         <v>677</v>
       </c>
       <c r="S21" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-004 Anonymizer Service PII Sprint 3 Semana 3 2026-01-16 2026-01-17 2 P0 done Security Gate 8 CE-S3-001 Security Lead Detección hash DNI/email/teléfono/IBAN 0 PII Claude Alto apps/api/src/services/anonymizer.py</v>
       </c>
       <c r="W21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9710,14 +9720,14 @@
         <v>677</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-005 ClauseExtractorAgent Sprint 3 Semana 3 2026-01-15 2026-01-16 2 P0 done AI Gate 4 CE-S3-001 AI Lead Extracción cláusulas IDs estables únicos documento Alto apps/api/src/agents/clause_extractor.py</v>
       </c>
       <c r="W22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9776,7 +9786,7 @@
         <v>677</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="T23" s="29" t="s">
         <v>691</v>
@@ -9786,7 +9796,7 @@
         <v>CE-S3-006 Task Queue Celery/Redis Sprint 3 Semana 3 2026-01-13 2026-01-14 2 P0 done Infrastructure Gate 7 CE-S2-004 DevOps Jobs async parsing coherence 100 pág no bloquea Medio apps/api/src/tasks/</v>
       </c>
       <c r="W23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9845,7 +9855,7 @@
         <v>677</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="T24" s="27" t="s">
         <v>692</v>
@@ -9855,7 +9865,7 @@
         <v>CE-S3-007 Endpoint GET /projects/{id}/coherence-score Sprint 3 Semana 3 2026-01-14 2026-01-14 0,5 P0 done API Gate 5 CE-S2-001 Backend Lead Response schema validado score + breakdown Bajo apps/api/src/routers/projects.py</v>
       </c>
       <c r="W24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="213.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9912,7 +9922,7 @@
         <v>677</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="T25" s="27" t="s">
         <v>693</v>
@@ -9922,7 +9932,7 @@
         <v>CE-S3-008 Endpoints CRUD /projects Sprint 3 Semana 3 2026-01-14 2026-01-15 1 P0 done API  CE-S2-001 Backend Lead List/Get/Create/Update/Delete tests integración Bajo apps/api/src/routers/projects.py</v>
       </c>
       <c r="W25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -9979,20 +9989,20 @@
         <v>677</v>
       </c>
       <c r="S26" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="T26" s="28" t="s">
         <v>796</v>
       </c>
-      <c r="T26" s="28" t="s">
+      <c r="U26" s="29" t="s">
         <v>797</v>
-      </c>
-      <c r="U26" s="29" t="s">
-        <v>798</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-009 Health Check Endpoints Sprint 3 Semana 3 2026-01-13 2026-01-13 0,5 P0 en curso DevOps  Ninguna DevOps /health /ready /live UptimeRobot configurado Bajo apps/api/src/routers/health.py</v>
       </c>
       <c r="W26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10051,7 +10061,7 @@
         <v>678</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U27" t="e" cm="1">
         <f t="array" aca="1" ref="U27" ca="1">unirtexto()</f>
@@ -10062,7 +10072,7 @@
         <v>CE-S3-010 Secrets Management GitHub Sprint 3 Semana 3 2026-01-14 2026-01-14 1 P0 done DevOps Gate 8 Ninguna DevOps Separación secrets entorno 0 secrets código Bajo .github/workflows/</v>
       </c>
       <c r="W27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10116,14 +10126,14 @@
         <v>2</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
         <v>CE-S3-011 Tests Integración Parsers Sprint 3 Semana 3 2026-01-17 2026-01-17 1 P0 done Testing  CE-S3-001;CE-S3-002;CE-S3-003 QA Lead Tests archivos reales PDF/Excel/BC3 10 correctos Medio tests/integration/parsers/</v>
       </c>
       <c r="W28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10186,7 +10196,7 @@
         <v>CE-S3-012 Propagar clause_id a Stakeholders Sprint 3 Semana 3 2026-01-16 2026-01-16 1 P0 done Backend Gate 4 CE-S3-005 Backend Lead source_clause_id populated 100% stakeholders FK Medio apps/api/src/services/stakeholder_service.py</v>
       </c>
       <c r="W29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10194,7 +10204,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>19</v>
@@ -10245,20 +10255,20 @@
         <v>678</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="U30" s="28" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-001 opp Sprint 3 Semana 4 2026-01-20 2026-01-21 2 P0 done AI Gate 5 CE-S2-007 AI Lead Extracción funciona llamadas logueadas retry Alto apps/api/src/ai/ai_service.py</v>
       </c>
       <c r="W30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10317,14 +10327,14 @@
         <v>677</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-002 Cost Controller Budget Sprint 3 Semana 4 2026-01-20 2026-01-20 1 P0 done AI Gate 7 CE-S4-001 AI Lead Bloquea LLM exceder budget alertas 50/75/90/100% Alto apps/api/src/ai/cost_controller.py</v>
       </c>
       <c r="W31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10383,7 +10393,7 @@
         <v>677</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="T32" s="28" t="s">
         <v>697</v>
@@ -10393,7 +10403,7 @@
         <v>CE-S4-003 WBSGeneratorAgent Sprint 3 Semana 4 2026-01-21 2026-01-22 2 P0 done AI Gate 5 CE-S4-001 AI Lead WBS 4 niveles contrato requires_approval=True Alto apps/api/src/agents/wbs_generator.py</v>
       </c>
       <c r="W32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10452,14 +10462,14 @@
         <v>677</v>
       </c>
       <c r="S33" s="28" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-004 BOMBuilderAgent Sprint 3 Semana 4 2026-01-22 2026-01-23 2 P0 done AI Gate 5 CE-S4-001;CE-S4-003 AI Lead BOM lead times WBS contract_clause_id populated Alto apps/api/src/agents/bom_builder.py</v>
       </c>
       <c r="W33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10515,20 +10525,20 @@
         <v>8</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>871</v>
-      </c>
-      <c r="T34" s="39" t="s">
-        <v>872</v>
+        <v>850</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>851</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-005 Implementar 8 Reglas Coherencia Restantes Sprint 3 Semana 4 2026-01-21 2026-01-24 4 P0 done AI Gate 5 CE-S4-003;CE-S4-004 AI Lead R2/R6/R11/R12/R14/R15/R19/R20 10/10 reglas tests Alto apps/api/src/coherence/rules/</v>
       </c>
       <c r="W34" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10587,17 +10597,17 @@
         <v>678</v>
       </c>
       <c r="S35" s="28" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="T35" s="28" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-006 AlertGenerator con Evidencias Sprint 3 Semana 4 2026-01-23 2026-01-23 1 P0 done AI Gate 5 CE-S4-005 AI Lead Alertas source_clause_id affected_ids evidence_json Medio apps/api/src/coherence/alert_generator.py</v>
       </c>
       <c r="W35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10656,17 +10666,17 @@
         <v>678</v>
       </c>
       <c r="S36" s="28" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="T36" s="28" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-007 Calibrar Coherence Score 10 Reglas Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P0 done AI Gate 5 CE-S4-005;CE-S2-015 AI Lead Score correlaciona &gt;0.85 evaluación experta Alto scripts/run_calibration.py</v>
       </c>
       <c r="W36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10725,14 +10735,14 @@
         <v>678</v>
       </c>
       <c r="S37" s="28" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-008 Documentar Fórmula Score Auditoría Sprint 3 Semana 4 2026-01-24 2026-01-24 0,5 P0 done Documentation Gate 5 CE-S4-007 AI Lead scoring_methodology_v1.md pesos finales CTO aprueba Bajo docs/coherence_engine/scoring_methodology_v1.md</v>
       </c>
       <c r="W37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10791,14 +10801,14 @@
         <v>677</v>
       </c>
       <c r="S38" s="28" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-009 Endpoints /projects/{id}/alerts Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 done API Gate 4 CE-S2-001 Backend Lead List filtros/Get/Resolve incluye source_clause_id Bajo apps/api/src/routers/alerts.py</v>
       </c>
       <c r="W38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10852,20 +10862,20 @@
         <v>2</v>
       </c>
       <c r="R39" s="24" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="S39" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="T39" s="38" t="s">
-        <v>877</v>
+        <v>798</v>
+      </c>
+      <c r="T39" s="35" t="s">
+        <v>856</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-010 Endpoints /projects/{id}/documents Sprint 3 Semana 4 2026-01-22 2026-01-22 1 P0 done API  CE-S2-001;CE-S3-006 Backend Lead Upload async status polling List/Get/Delete Bajo apps/api/src/routers/documents.py</v>
       </c>
       <c r="W39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10922,14 +10932,14 @@
         <v>677</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-011 Script Rollback Automatizado Sprint 3 Semana 4 2026-01-21 2026-01-21 1 P0 done DevOps  Ninguna DevOps Rollback DB PITR + código git revert staging Medio scripts/rollback.sh</v>
       </c>
       <c r="W40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -10986,14 +10996,14 @@
         <v>677</v>
       </c>
       <c r="S41" s="28" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-012 Paginación Cursor-based Endpoints Sprint 3 Semana 4 2026-01-23 2026-01-23 1 P0 done API  CE-S3-008 Backend Lead Ningún endpoint &gt;100 items sin paginar Bajo apps/api/src/core/pagination.py</v>
       </c>
       <c r="W41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11050,14 +11060,14 @@
         <v>677</v>
       </c>
       <c r="S42" s="28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-013 Optimizar Queries SQL EXPLAIN Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P1 done Performance  Ninguna Backend Lead Queries lentas optimizadas 0 queries &gt;100ms Medio docs/performance/sql_optimization.md</v>
       </c>
       <c r="W42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11114,14 +11124,14 @@
         <v>677</v>
       </c>
       <c r="S43" s="28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-014 Índices Adicionales Búsqueda Sprint 3 Semana 4 2026-01-24 2026-01-24 0,5 P1 done Database  CE-S4-013 Backend Lead Índices campos filtro queries búsqueda &lt;50ms Bajo infrastructure/supabase/migrations/007_indexes.sql</v>
       </c>
       <c r="W43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11180,14 +11190,14 @@
         <v>678</v>
       </c>
       <c r="S44" s="28" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="0"/>
         <v>CE-S4-015 Tests Integración Coherence Engine Sprint 3 Semana 4 2026-01-24 2026-01-24 1 P0 done Testing Gate 5 CE-S4-005;CE-S2-015 QA Lead Tests proyectos golden 10 reglas correctas Medio tests/integration/coherence/</v>
       </c>
       <c r="W44" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11209,7 +11219,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="S45" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11231,7 +11241,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="S46" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11253,7 +11263,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="S47" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11275,7 +11285,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="S48" s="24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11297,7 +11307,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
       <c r="S49" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11319,7 +11329,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="S50" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11341,7 +11351,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
       <c r="S51" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11363,7 +11373,7 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="S52" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11392,7 +11402,7 @@
         <v>15</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>99</v>
@@ -11418,21 +11428,24 @@
       <c r="Q53" s="14">
         <v>5</v>
       </c>
-      <c r="S53" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="T53" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="U53" s="24" t="s">
-        <v>814</v>
+      <c r="R53" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="S53" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="T53" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="U53" s="28" t="s">
+        <v>862</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-001 StakeholderExtractorAgent Sprint 4 Semana 5 2026-01-27 2026-01-29 3 P0 Pendiente AI Gate 5 CE-S4-001 AI Lead Extracción NLP nombres/roles &gt;80% accuracy golden Alto apps/api/src/agents/stakeholder_extractor.py</v>
+        <v>CE-S5-001 StakeholderExtractorAgent Sprint 4 Semana 5 2026-01-27 2026-01-29 3 P0 done AI Gate 5 CE-S4-001 AI Lead Extracción NLP nombres/roles &gt;80% accuracy golden Alto apps/api/src/agents/stakeholder_extractor.py</v>
       </c>
       <c r="W53" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11461,7 +11474,7 @@
         <v>15</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>99</v>
@@ -11487,15 +11500,18 @@
       <c r="Q54" s="14">
         <v>2</v>
       </c>
-      <c r="S54" s="24" t="s">
-        <v>813</v>
+      <c r="R54" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="S54" s="28" t="s">
+        <v>812</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-002 StakeholderClassifier Power/Interest Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S5-001 AI Lead Cuadrante asignado automáticamente 4 cuadrantes Medio apps/api/src/services/stakeholder_classifier.py</v>
+        <v>CE-S5-002 StakeholderClassifier Power/Interest Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 done AI Gate 5 CE-S5-001 AI Lead Cuadrante asignado automáticamente 4 cuadrantes Medio apps/api/src/services/stakeholder_classifier.py</v>
       </c>
       <c r="W54" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11524,7 +11540,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>99</v>
@@ -11550,15 +11566,15 @@
       <c r="Q55" s="14">
         <v>5</v>
       </c>
-      <c r="R55" s="24" t="s">
-        <v>703</v>
+      <c r="S55" s="28" t="s">
+        <v>863</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-003 RACIGeneratorAgent Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P0 Pendiente AI Gate 6 CE-S5-001;CE-S4-003 AI Lead Matriz RACI generada requires_review=True Alto apps/api/src/agents/raci_generator.py</v>
+        <v>CE-S5-003 RACIGeneratorAgent Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P0 done AI Gate 6 CE-S5-001;CE-S4-003 AI Lead Matriz RACI generada requires_review=True Alto apps/api/src/agents/raci_generator.py</v>
       </c>
       <c r="W55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11570,7 +11586,9 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="14"/>
+      <c r="I56" s="14" t="s">
+        <v>676</v>
+      </c>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
@@ -11579,8 +11597,11 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
-      <c r="R56" s="24" t="s">
-        <v>815</v>
+      <c r="R56" t="s">
+        <v>678</v>
+      </c>
+      <c r="S56" s="28" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11604,7 +11625,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
       <c r="R57" s="28" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11628,7 +11649,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="28" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11648,14 +11669,14 @@
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="31" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="Q59" s="14"/>
       <c r="R59" s="27" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="S59" s="27" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11678,8 +11699,11 @@
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
-      <c r="R60" s="29" t="s">
-        <v>836</v>
+      <c r="R60" t="s">
+        <v>678</v>
+      </c>
+      <c r="S60" s="28" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11703,7 +11727,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
       <c r="R61" s="28" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11725,7 +11749,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
       <c r="R62" s="24" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11747,7 +11771,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="24" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
@@ -11769,35 +11793,81 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
       <c r="R64" s="24" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="24"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" s="14">
+        <v>2</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>3</v>
+      </c>
+      <c r="R65" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S65" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="0"/>
+        <v>CE-S5-004 Human-in-Loop Workflow Backend Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 done Backend Gate 6 CE-S2-001 Backend Lead Endpoint aprobar/rechazar outputs agentes Alto apps/api/src/routers/approvals.py</v>
+      </c>
+      <c r="W65" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="66" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>20</v>
@@ -11806,50 +11876,53 @@
         <v>285</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G66" s="14">
         <v>2</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>15</v>
+      <c r="H66" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J66" s="14" t="s">
         <v>75</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="M66" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N66" s="14" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q66" s="14">
         <v>3</v>
       </c>
-      <c r="S66" s="24" t="s">
-        <v>816</v>
+      <c r="R66" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S66" s="28" t="s">
+        <v>865</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-004 Human-in-Loop Workflow Backend Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Backend Gate 6 CE-S2-001 Backend Lead Endpoint aprobar/rechazar outputs agentes Alto apps/api/src/routers/approvals.py</v>
+        <v>CE-S5-005 Knowledge Graph Básico NetworkX Sprint 4 Semana 5 2026-01-30 2026-01-31 2 P1 done Backend Gate 4 CE-S4-003 Backend Lead Nodos + edges queries multi-hop funcionan Medio apps/api/src/services/knowledge_graph.py</v>
       </c>
       <c r="W66" t="s">
         <v>755</v>
@@ -11857,10 +11930,10 @@
     </row>
     <row r="67" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>20</v>
@@ -11869,50 +11942,53 @@
         <v>285</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G67" s="14">
         <v>2</v>
       </c>
-      <c r="H67" s="12" t="s">
-        <v>16</v>
+      <c r="H67" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N67" s="14" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q67" s="14">
         <v>3</v>
       </c>
-      <c r="S67" s="24" t="s">
-        <v>818</v>
+      <c r="R67" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="S67" s="28" t="s">
+        <v>866</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-005 Knowledge Graph Básico NetworkX Sprint 4 Semana 5 2026-01-30 2026-01-31 2 P1 Pendiente Backend Gate 4 CE-S4-003 Backend Lead Nodos + edges queries multi-hop funcionan Medio apps/api/src/services/knowledge_graph.py</v>
+        <v>CE-S5-006 Prompt Extracción Cláusulas Optimizado Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 done AI Gate 5 CE-S2-008 AI Lead &gt;85% accuracy tipo/código/texto golden dataset Alto prompts/v1/clause_extraction.md</v>
       </c>
       <c r="W67" t="s">
         <v>756</v>
@@ -11920,10 +11996,10 @@
     </row>
     <row r="68" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>20</v>
@@ -11932,19 +12008,19 @@
         <v>285</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G68" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J68" s="14" t="s">
         <v>99</v>
@@ -11959,23 +12035,29 @@
         <v>100</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q68" s="14">
-        <v>3</v>
-      </c>
-      <c r="S68" s="24" t="s">
-        <v>819</v>
+        <v>2</v>
+      </c>
+      <c r="R68" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="S68" s="28" t="s">
+        <v>867</v>
+      </c>
+      <c r="T68" s="28" t="s">
+        <v>816</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-006 Prompt Extracción Cláusulas Optimizado Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;85% accuracy tipo/código/texto golden dataset Alto prompts/v1/clause_extraction.md</v>
+        <v>CE-S5-007 Prompt Clasificación Stakeholders Sprint 4 Semana 5 2026-01-29 2026-01-29 1 P0 done AI Gate 5 CE-S2-008 AI Lead &gt;80% accuracy clasificación poder/interés Medio prompts/v1/stakeholder_classification.md</v>
       </c>
       <c r="W68" t="s">
         <v>757</v>
@@ -11983,10 +12065,10 @@
     </row>
     <row r="69" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>20</v>
@@ -11995,10 +12077,10 @@
         <v>285</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G69" s="14">
         <v>1</v>
@@ -12007,7 +12089,7 @@
         <v>15</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>99</v>
@@ -12016,32 +12098,38 @@
         <v>41</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M69" s="14" t="s">
         <v>100</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O69" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q69" s="14">
         <v>2</v>
       </c>
-      <c r="S69" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="T69" s="24" t="s">
-        <v>822</v>
+      <c r="R69" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="S69" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="T69" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="U69" s="28" t="s">
+        <v>871</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-007 Prompt Clasificación Stakeholders Sprint 4 Semana 5 2026-01-29 2026-01-29 1 P0 Pendiente AI Gate 5 CE-S2-008 AI Lead &gt;80% accuracy clasificación poder/interés Medio prompts/v1/stakeholder_classification.md</v>
+        <v>CE-S5-008 LlmRuleEvaluator Base Class Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 done AI Gate 5 CE-S2-007 AI Lead Evaluador prompts reglas cualitativas interface Medio apps/api/src/coherence/llm_rule_evaluator.py</v>
       </c>
       <c r="W69" t="s">
         <v>758</v>
@@ -12049,10 +12137,10 @@
     </row>
     <row r="70" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>20</v>
@@ -12061,19 +12149,19 @@
         <v>285</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G70" s="14">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J70" s="14" t="s">
         <v>99</v>
@@ -12082,35 +12170,35 @@
         <v>41</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>100</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q70" s="14">
-        <v>2</v>
-      </c>
-      <c r="S70" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="T70" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="U70" s="24" t="s">
-        <v>826</v>
+        <v>3</v>
+      </c>
+      <c r="R70" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="S70" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="T70" s="28" t="s">
+        <v>873</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-008 LlmRuleEvaluator Base Class Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente AI Gate 5 CE-S2-007 AI Lead Evaluador prompts reglas cualitativas interface Medio apps/api/src/coherence/llm_rule_evaluator.py</v>
+        <v>CE-S5-009 Primera Regla LLM Cualitativa Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P1 done AI Gate 5 CE-S5-008 AI Lead Regla detectar ambigüedades alcance evaluable Alto apps/api/src/coherence/rules/scope_ambiguity.py</v>
       </c>
       <c r="W70" t="s">
         <v>759</v>
@@ -12118,10 +12206,10 @@
     </row>
     <row r="71" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>20</v>
@@ -12130,53 +12218,53 @@
         <v>285</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G71" s="14">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q71" s="14">
         <v>2</v>
       </c>
-      <c r="H71" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L71" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="M71" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N71" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="O71" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="P71" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q71" s="14">
-        <v>3</v>
-      </c>
-      <c r="S71" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="T71" s="24" t="s">
-        <v>828</v>
+      <c r="R71" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S71" s="28" t="s">
+        <v>868</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-009 Primera Regla LLM Cualitativa Sprint 4 Semana 5 2026-01-29 2026-01-30 2 P1 Pendiente AI Gate 5 CE-S5-008 AI Lead Regla detectar ambigüedades alcance evaluable Alto apps/api/src/coherence/rules/scope_ambiguity.py</v>
+        <v>CE-S5-010 Endpoints /projects/{id}/stakeholders Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 done API Gate 4 CE-S2-003 Backend Lead CRUD + clasificación source_clause_id Bajo apps/api/src/routers/stakeholders.py</v>
       </c>
       <c r="W71" t="s">
         <v>760</v>
@@ -12184,10 +12272,10 @@
     </row>
     <row r="72" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>20</v>
@@ -12196,25 +12284,25 @@
         <v>285</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G72" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J72" s="14" t="s">
         <v>188</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L72" s="14" t="s">
         <v>85</v>
@@ -12223,23 +12311,26 @@
         <v>77</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O72" s="14" t="s">
         <v>79</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q72" s="14">
-        <v>2</v>
-      </c>
-      <c r="S72" s="24" t="s">
-        <v>829</v>
+        <v>1</v>
+      </c>
+      <c r="R72" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S72" s="28" t="s">
+        <v>870</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-010 Endpoints /projects/{id}/stakeholders Sprint 4 Semana 5 2026-01-28 2026-01-28 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD + clasificación source_clause_id Bajo apps/api/src/routers/stakeholders.py</v>
+        <v>CE-S5-011 Endpoints /projects/{id}/raci Sprint 4 Semana 5 2026-01-29 2026-01-29 0,5 P0 done API Gate 6 CE-S2-003 Backend Lead Get matrix/Update human-in-loop flag Bajo apps/api/src/routers/raci.py</v>
       </c>
       <c r="W72" t="s">
         <v>761</v>
@@ -12247,10 +12338,10 @@
     </row>
     <row r="73" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>20</v>
@@ -12259,13 +12350,13 @@
         <v>285</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G73" s="14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>15</v>
@@ -12274,35 +12365,35 @@
         <v>74</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="N73" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q73" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S73" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-011 Endpoints /projects/{id}/raci Sprint 4 Semana 5 2026-01-29 2026-01-29 0,5 P0 Pendiente API Gate 6 CE-S2-003 Backend Lead Get matrix/Update human-in-loop flag Bajo apps/api/src/routers/raci.py</v>
+        <v>CE-S5-012 Dashboard Observabilidad Básico Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Frontend Gate 7 CE-S2-011 Frontend Lead Vista consumo tokens alertas automáticas budget Medio apps/web/src/pages/admin/observability.tsx</v>
       </c>
       <c r="W73" t="s">
         <v>762</v>
@@ -12310,10 +12401,10 @@
     </row>
     <row r="74" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>20</v>
@@ -12322,50 +12413,53 @@
         <v>285</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G74" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O74" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q74" s="14">
-        <v>3</v>
-      </c>
-      <c r="S74" s="24" t="s">
-        <v>840</v>
+        <v>2</v>
+      </c>
+      <c r="R74" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S74" s="28" t="s">
+        <v>829</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-012 Dashboard Observabilidad Básico Sprint 4 Semana 5 2026-01-27 2026-01-28 2 P0 Pendiente Frontend Gate 7 CE-S2-011 Frontend Lead Vista consumo tokens alertas automáticas budget Medio apps/web/src/pages/admin/observability.tsx</v>
+        <v>CE-S5-013 Rate Limiting por Tenant Redis Sprint 4 Semana 5 2026-01-30 2026-01-30 1 P0 done Security Gate 7 CE-S2-004 Security Lead 60 req/min tenant 20 req/min user configurable Medio apps/api/src/middleware/rate_limiter.py</v>
       </c>
       <c r="W74" t="s">
         <v>763</v>
@@ -12373,10 +12467,10 @@
     </row>
     <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>20</v>
@@ -12385,10 +12479,10 @@
         <v>285</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G75" s="14">
         <v>1</v>
@@ -12397,38 +12491,41 @@
         <v>15</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O75" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q75" s="14">
         <v>2</v>
       </c>
-      <c r="S75" s="24" t="s">
-        <v>841</v>
+      <c r="R75" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S75" s="28" t="s">
+        <v>874</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-013 Rate Limiting por Tenant Redis Sprint 4 Semana 5 2026-01-30 2026-01-30 1 P0 Pendiente Security Gate 7 CE-S2-004 Security Lead 60 req/min tenant 20 req/min user configurable Medio apps/api/src/middleware/rate_limiter.py</v>
+        <v>CE-S5-014 Budget Alerts Email/Webhook Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 done Backend Gate 7 CE-S4-002 Backend Lead Notificaciones admin 50/75/90/100% budget Medio apps/api/src/services/budget_alerts.py</v>
       </c>
       <c r="W75" t="s">
         <v>764</v>
@@ -12436,10 +12533,10 @@
     </row>
     <row r="76" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>20</v>
@@ -12460,38 +12557,41 @@
         <v>15</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>74</v>
+        <v>679</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O76" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q76" s="14">
         <v>2</v>
       </c>
-      <c r="S76" s="24" t="s">
-        <v>844</v>
+      <c r="R76" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="S76" s="40" t="s">
+        <v>875</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-014 Budget Alerts Email/Webhook Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Notificaciones admin 50/75/90/100% budget Medio apps/api/src/services/budget_alerts.py</v>
+        <v>CE-S5-015 Tests Integración Stakeholder Flow Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 en curso Testing Gate 5 CE-S5-001;CE-S5-003 QA Lead Extracción Clasificación RACI flujo completo Medio tests/integration/stakeholders/</v>
       </c>
       <c r="W76" t="s">
         <v>765</v>
@@ -12499,25 +12599,25 @@
     </row>
     <row r="77" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G77" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>15</v>
@@ -12526,35 +12626,35 @@
         <v>74</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L77" s="14" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="N77" s="14" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="O77" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P77" s="14" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q77" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S77" s="24" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="V77" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S5-015 Tests Integración Stakeholder Flow Sprint 4 Semana 5 2026-01-31 2026-01-31 1 P0 Pendiente Testing Gate 5 CE-S5-001;CE-S5-003 QA Lead Extracción Clasificación RACI flujo completo Medio tests/integration/stakeholders/</v>
+        <v>CE-S6-001 Vista Dashboard + Score Gauge Sprint 4 Semana 6 2026-02-02 2026-02-03 2 P0 Pendiente Frontend Gate 6 CE-S3-007 Frontend Lead Score 0-100 visual colores carga &lt;2s gauge animado Medio apps/web/src/pages/dashboard.tsx</v>
       </c>
       <c r="W77" t="s">
         <v>766</v>
@@ -12562,10 +12662,10 @@
     </row>
     <row r="78" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>20</v>
@@ -12577,10 +12677,10 @@
         <v>354</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G78" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>15</v>
@@ -12591,44 +12691,45 @@
       <c r="J78" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K78" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="K78" s="14"/>
       <c r="L78" s="14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M78" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q78" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S78" s="24" t="s">
-        <v>846</v>
+        <v>833</v>
+      </c>
+      <c r="T78" s="24" t="s">
+        <v>834</v>
       </c>
       <c r="V78" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-001 Vista Dashboard + Score Gauge Sprint 4 Semana 6 2026-02-02 2026-02-03 2 P0 Pendiente Frontend Gate 6 CE-S3-007 Frontend Lead Score 0-100 visual colores carga &lt;2s gauge animado Medio apps/web/src/pages/dashboard.tsx</v>
+        <v>CE-S6-002 Vista Lista Proyectos Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Frontend  CE-S3-008 Frontend Lead Filtros estado/búsqueda/orden paginación Bajo apps/web/src/pages/projects/index.tsx</v>
       </c>
       <c r="W78" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
-        <v>358</v>
+      <c r="A79" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>20</v>
@@ -12637,13 +12738,13 @@
         <v>353</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G79" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>15</v>
@@ -12654,45 +12755,44 @@
       <c r="J79" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K79" s="14"/>
+      <c r="K79" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="L79" s="14" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="M79" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q79" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S79" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="T79" s="24" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="V79" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-002 Vista Lista Proyectos Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Frontend  CE-S3-008 Frontend Lead Filtros estado/búsqueda/orden paginación Bajo apps/web/src/pages/projects/index.tsx</v>
+        <v>CE-S6-003 Evidence Viewer Links Cláusulas Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P0 Pendiente Frontend Gate 4 CE-S4-009 Frontend Lead Click alerta cláusula WBS/BOM navegación bidireccional Alto apps/web/src/components/EvidenceViewer.tsx</v>
       </c>
       <c r="W79" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
-        <v>362</v>
+      <c r="A80" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>20</v>
@@ -12701,13 +12801,13 @@
         <v>353</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>364</v>
       </c>
       <c r="G80" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>15</v>
@@ -12718,33 +12818,31 @@
       <c r="J80" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K80" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="K80" s="14"/>
       <c r="L80" s="14" t="s">
-        <v>253</v>
+        <v>362</v>
       </c>
       <c r="M80" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="P80" s="14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q80" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S80" s="24" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="V80" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-003 Evidence Viewer Links Cláusulas Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P0 Pendiente Frontend Gate 4 CE-S4-009 Frontend Lead Click alerta cláusula WBS/BOM navegación bidireccional Alto apps/web/src/components/EvidenceViewer.tsx</v>
+        <v>CE-S6-004 Panel Alertas Filtros Severidad Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Frontend  CE-S6-003 Frontend Lead Vista alertas abiertas/resolved filtros bulk actions Bajo apps/web/src/pages/alerts.tsx</v>
       </c>
       <c r="W80" t="s">
         <v>769</v>
@@ -12752,10 +12850,10 @@
     </row>
     <row r="81" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>20</v>
@@ -12767,10 +12865,10 @@
         <v>364</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G81" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>15</v>
@@ -12781,31 +12879,33 @@
       <c r="J81" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K81" s="14"/>
+      <c r="K81" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="L81" s="14" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="M81" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q81" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S81" s="24" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="V81" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-004 Panel Alertas Filtros Severidad Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Frontend  CE-S6-003 Frontend Lead Vista alertas abiertas/resolved filtros bulk actions Bajo apps/web/src/pages/alerts.tsx</v>
+        <v>CE-S6-005 Stakeholder Map Matriz Poder/Interés Sprint 4 Semana 6 2026-02-04 2026-02-05 2 P0 Pendiente Frontend Gate 6 CE-S5-010 Frontend Lead Visualización interactiva cuadrantes drag &amp; drop Medio apps/web/src/components/StakeholderMap.tsx</v>
       </c>
       <c r="W81" t="s">
         <v>770</v>
@@ -12813,10 +12913,10 @@
     </row>
     <row r="82" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>20</v>
@@ -12825,13 +12925,13 @@
         <v>353</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>373</v>
       </c>
       <c r="G82" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>15</v>
@@ -12846,29 +12946,29 @@
         <v>45</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M82" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O82" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q82" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S82" s="24" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-005 Stakeholder Map Matriz Poder/Interés Sprint 4 Semana 6 2026-02-04 2026-02-05 2 P0 Pendiente Frontend Gate 6 CE-S5-010 Frontend Lead Visualización interactiva cuadrantes drag &amp; drop Medio apps/web/src/components/StakeholderMap.tsx</v>
+        <v>CE-S6-006 RACI Viewer Editable Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Frontend Gate 6 CE-S5-011 Frontend Lead Tabla WBS x Stakeholders RACI edición inline Medio apps/web/src/components/RACIViewer.tsx</v>
       </c>
       <c r="W82" t="s">
         <v>771</v>
@@ -12876,10 +12976,10 @@
     </row>
     <row r="83" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>20</v>
@@ -12894,7 +12994,7 @@
         <v>373</v>
       </c>
       <c r="G83" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>15</v>
@@ -12909,29 +13009,29 @@
         <v>45</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="M83" s="14" t="s">
         <v>127</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O83" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P83" s="14" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q83" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S83" s="24" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="V83" t="str">
         <f t="shared" si="0"/>
-        <v>CE-S6-006 RACI Viewer Editable Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Frontend Gate 6 CE-S5-011 Frontend Lead Tabla WBS x Stakeholders RACI edición inline Medio apps/web/src/components/RACIViewer.tsx</v>
+        <v>CE-S6-007 Modal Human-in-Loop Confirmación Sprint 4 Semana 6 2026-02-05 2026-02-05 0,5 P0 Pendiente Frontend Gate 6 CE-S5-004 Frontend Lead Confirmación aprobar/rechazar outputs IA workflow Medio apps/web/src/components/ApprovalModal.tsx</v>
       </c>
       <c r="W83" t="s">
         <v>772</v>
@@ -12939,10 +13039,10 @@
     </row>
     <row r="84" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>20</v>
@@ -12951,50 +13051,56 @@
         <v>353</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G84" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>74</v>
+        <v>679</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q84" s="14">
-        <v>1</v>
-      </c>
-      <c r="S84" s="24" t="s">
-        <v>853</v>
+        <v>2</v>
+      </c>
+      <c r="R84" s="36" t="s">
+        <v>677</v>
+      </c>
+      <c r="S84" s="29" t="s">
+        <v>876</v>
+      </c>
+      <c r="T84" s="24" t="s">
+        <v>840</v>
       </c>
       <c r="V84" t="str">
-        <f t="shared" si="0"/>
-        <v>CE-S6-007 Modal Human-in-Loop Confirmación Sprint 4 Semana 6 2026-02-05 2026-02-05 0,5 P0 Pendiente Frontend Gate 6 CE-S5-004 Frontend Lead Confirmación aprobar/rechazar outputs IA workflow Medio apps/web/src/components/ApprovalModal.tsx</v>
+        <f t="shared" ref="V84:V99" si="1">A84 &amp; " " &amp; B84 &amp; " " &amp; C84 &amp; " " &amp; D84 &amp; " " &amp; E84 &amp; " " &amp; F84 &amp; " " &amp; G84 &amp; " " &amp; H84 &amp; " " &amp; I84 &amp; " " &amp; J84 &amp; " " &amp; K84 &amp; " " &amp; L84 &amp; " " &amp; M84 &amp; " " &amp; N84 &amp; " " &amp; O84 &amp; " " &amp; P84</f>
+        <v>CE-S6-008 Endpoints /projects/{id}/wbs y /bom Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 en curso API Gate 4 CE-S2-003 Backend Lead CRUD WBS/BOM jerarquía WBS representada Bajo apps/api/src/routers/wbs.py</v>
       </c>
       <c r="W84" t="s">
         <v>773</v>
@@ -13002,10 +13108,10 @@
     </row>
     <row r="85" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>20</v>
@@ -13014,10 +13120,10 @@
         <v>353</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G85" s="14">
         <v>1</v>
@@ -13031,36 +13137,31 @@
       <c r="J85" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K85" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="K85" s="14"/>
       <c r="L85" s="14" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="M85" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O85" s="14" t="s">
         <v>79</v>
       </c>
       <c r="P85" s="14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q85" s="14">
         <v>2</v>
       </c>
       <c r="S85" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="T85" s="24" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="V85" t="str">
-        <f t="shared" ref="V85:V100" si="1">A85 &amp; " " &amp; B85 &amp; " " &amp; C85 &amp; " " &amp; D85 &amp; " " &amp; E85 &amp; " " &amp; F85 &amp; " " &amp; G85 &amp; " " &amp; H85 &amp; " " &amp; I85 &amp; " " &amp; J85 &amp; " " &amp; K85 &amp; " " &amp; L85 &amp; " " &amp; M85 &amp; " " &amp; N85 &amp; " " &amp; O85 &amp; " " &amp; P85</f>
-        <v>CE-S6-008 Endpoints /projects/{id}/wbs y /bom Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente API Gate 4 CE-S2-003 Backend Lead CRUD WBS/BOM jerarquía WBS representada Bajo apps/api/src/routers/wbs.py</v>
+        <f t="shared" si="1"/>
+        <v>CE-S6-009 Endpoint POST /projects/{id}/analyze Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente API  CE-S3-006 Backend Lead Trigger análisis async retorna job_id polling Bajo apps/api/src/routers/analysis.py</v>
       </c>
       <c r="W85" t="s">
         <v>774</v>
@@ -13068,10 +13169,10 @@
     </row>
     <row r="86" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>20</v>
@@ -13080,10 +13181,10 @@
         <v>353</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G86" s="14">
         <v>1</v>
@@ -13095,33 +13196,35 @@
         <v>74</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="K86" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="L86" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M86" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N86" s="14" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P86" s="14" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q86" s="14">
         <v>2</v>
       </c>
       <c r="S86" s="24" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="V86" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-009 Endpoint POST /projects/{id}/analyze Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente API  CE-S3-006 Backend Lead Trigger análisis async retorna job_id polling Bajo apps/api/src/routers/analysis.py</v>
+        <v>CE-S6-010 Propagar clause_id a WBS Items Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead funded_by_clause_id auto 100% WBS con FK Medio apps/api/src/services/wbs_service.py</v>
       </c>
       <c r="W86" t="s">
         <v>775</v>
@@ -13129,10 +13232,10 @@
     </row>
     <row r="87" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>20</v>
@@ -13141,10 +13244,10 @@
         <v>353</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G87" s="14">
         <v>1</v>
@@ -13168,23 +13271,26 @@
         <v>77</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O87" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q87" s="14">
         <v>2</v>
       </c>
       <c r="S87" s="24" t="s">
-        <v>857</v>
+        <v>878</v>
+      </c>
+      <c r="T87" s="24" t="s">
+        <v>879</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-010 Propagar clause_id a WBS Items Sprint 4 Semana 6 2026-02-02 2026-02-02 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead funded_by_clause_id auto 100% WBS con FK Medio apps/api/src/services/wbs_service.py</v>
+        <v>CE-S6-011 Propagar clause_id a BOM Items Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead contract_clause_id auto 100% BOM con FK Medio apps/api/src/services/bom_service.py</v>
       </c>
       <c r="W87" t="s">
         <v>776</v>
@@ -13192,10 +13298,10 @@
     </row>
     <row r="88" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>20</v>
@@ -13204,10 +13310,10 @@
         <v>353</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G88" s="14">
         <v>1</v>
@@ -13225,32 +13331,29 @@
         <v>38</v>
       </c>
       <c r="L88" s="14" t="s">
-        <v>178</v>
+        <v>402</v>
       </c>
       <c r="M88" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N88" s="14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="O88" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P88" s="14" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q88" s="14">
         <v>2</v>
       </c>
       <c r="S88" s="24" t="s">
-        <v>858</v>
-      </c>
-      <c r="T88" s="24" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="V88" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-011 Propagar clause_id a BOM Items Sprint 4 Semana 6 2026-02-03 2026-02-03 1 P0 Pendiente Backend Gate 4 CE-S3-005 Backend Lead contract_clause_id auto 100% BOM con FK Medio apps/api/src/services/bom_service.py</v>
+        <v>CE-S6-012 Evidence Viewer Logic Query Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Backend Gate 4 CE-S6-010;CE-S6-011 Backend Lead Query reconstruye clause WBS BOM dado alert_id Medio apps/api/src/services/evidence_service.py</v>
       </c>
       <c r="W88" t="s">
         <v>777</v>
@@ -13258,10 +13361,10 @@
     </row>
     <row r="89" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>20</v>
@@ -13270,16 +13373,16 @@
         <v>353</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>364</v>
       </c>
       <c r="G89" s="14">
-        <v>1</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>74</v>
@@ -13287,33 +13390,31 @@
       <c r="J89" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K89" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="K89" s="14"/>
       <c r="L89" s="14" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="M89" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N89" s="14" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="O89" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P89" s="14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q89" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S89" s="24" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
       <c r="V89" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-012 Evidence Viewer Logic Query Sprint 4 Semana 6 2026-02-04 2026-02-04 1 P0 Pendiente Backend Gate 4 CE-S6-010;CE-S6-011 Backend Lead Query reconstruye clause WBS BOM dado alert_id Medio apps/api/src/services/evidence_service.py</v>
+        <v>CE-S6-013 Graph RAG Service Abstracción Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P1 Pendiente Backend  CE-S5-005 Backend Lead Interface GraphStore impl NetworkX tests mock Medio apps/api/src/services/graph_store.py</v>
       </c>
       <c r="W89" t="s">
         <v>778</v>
@@ -13321,10 +13422,10 @@
     </row>
     <row r="90" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>20</v>
@@ -13333,13 +13434,13 @@
         <v>353</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G90" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>16</v>
@@ -13350,31 +13451,33 @@
       <c r="J90" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K90" s="14"/>
+      <c r="K90" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="L90" s="14" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="M90" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N90" s="14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O90" s="14" t="s">
         <v>95</v>
       </c>
       <c r="P90" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q90" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S90" s="24" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="V90" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-013 Graph RAG Service Abstracción Sprint 4 Semana 6 2026-02-03 2026-02-04 2 P1 Pendiente Backend  CE-S5-005 Backend Lead Interface GraphStore impl NetworkX tests mock Medio apps/api/src/services/graph_store.py</v>
+        <v>CE-S6-014 Circuit Breaker Claude API Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P1 Pendiente Backend Gate 7 CE-S2-004 Backend Lead Retry backoff fallback caché API degradada ok Medio apps/api/src/ai/circuit_breaker.py</v>
       </c>
       <c r="W90" t="s">
         <v>779</v>
@@ -13382,10 +13485,10 @@
     </row>
     <row r="91" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>20</v>
@@ -13402,8 +13505,8 @@
       <c r="G91" s="14">
         <v>1</v>
       </c>
-      <c r="H91" s="12" t="s">
-        <v>16</v>
+      <c r="H91" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I91" s="14" t="s">
         <v>74</v>
@@ -13411,94 +13514,91 @@
       <c r="J91" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K91" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="K91" s="14"/>
       <c r="L91" s="14" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="M91" s="14" t="s">
         <v>77</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P91" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q91" s="14">
         <v>2</v>
       </c>
       <c r="S91" s="24" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="V91" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-014 Circuit Breaker Claude API Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P1 Pendiente Backend Gate 7 CE-S2-004 Backend Lead Retry backoff fallback caché API degradada ok Medio apps/api/src/ai/circuit_breaker.py</v>
+        <v>CE-S6-015 Async Processing Parsing Background Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Backend  CE-S3-006 Backend Lead Parsing background polling status upload inmediato Bajo apps/api/src/tasks/parsing_tasks.py</v>
       </c>
       <c r="W91" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="G92" s="14">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G92" s="15">
         <v>1</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="I92" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J92" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="M92" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N92" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="O92" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P92" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q92" s="14">
+      <c r="J92" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="O92" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q92" s="15">
         <v>2</v>
-      </c>
-      <c r="S92" s="24" t="s">
-        <v>863</v>
       </c>
       <c r="V92" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S6-015 Async Processing Parsing Background Sprint 4 Semana 6 2026-02-05 2026-02-05 1 P0 Pendiente Backend  CE-S3-006 Backend Lead Parsing background polling status upload inmediato Bajo apps/api/src/tasks/parsing_tasks.py</v>
+        <v>CE-S7-001 Cifrado Documentos R2 AES-256 Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Server-side encryption keys tenant docs cifrados Alto apps/api/src/storage/encryption.py</v>
       </c>
       <c r="W92" t="s">
         <v>781</v>
@@ -13506,10 +13606,10 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>21</v>
@@ -13545,20 +13645,20 @@
         <v>174</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q93" s="15">
         <v>2</v>
       </c>
       <c r="V93" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-001 Cifrado Documentos R2 AES-256 Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Server-side encryption keys tenant docs cifrados Alto apps/api/src/storage/encryption.py</v>
+        <v>CE-S7-002 Política Retención Soft Delete Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Soft delete hard delete 30 días job limpieza Medio apps/api/src/tasks/retention_job.py</v>
       </c>
       <c r="W93" t="s">
         <v>782</v>
@@ -13566,10 +13666,10 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>21</v>
@@ -13578,10 +13678,10 @@
         <v>419</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G94" s="15">
         <v>1</v>
@@ -13593,32 +13693,32 @@
         <v>74</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q94" s="15">
         <v>2</v>
       </c>
       <c r="V94" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-002 Política Retención Soft Delete Sprint 5 Semana 7 2026-02-09 2026-02-09 1 P0 Pendiente Security Gate 8 Ninguna Security Lead Soft delete hard delete 30 días job limpieza Medio apps/api/src/tasks/retention_job.py</v>
+        <v>CE-S7-003 Auto-block Degradación Graceful Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Bloquear LLM 100% budget sistema sigue sin IA Alto apps/api/src/ai/budget_blocker.py</v>
       </c>
       <c r="W94" t="s">
         <v>783</v>
@@ -13626,10 +13726,10 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>21</v>
@@ -13641,44 +13741,44 @@
         <v>429</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G95" s="15">
-        <v>1</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I95" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K95" s="15" t="s">
         <v>48</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N95" s="15" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="O95" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q95" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V95" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-003 Auto-block Degradación Graceful Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P0 Pendiente Backend Gate 7 CE-S4-002 Backend Lead Bloquear LLM 100% budget sistema sigue sin IA Alto apps/api/src/ai/budget_blocker.py</v>
+        <v>CE-S7-004 Optimizar Prompts Reducir Tokens Sprint 5 Semana 7 2026-02-10 2026-02-11 2 P1 Pendiente AI Gate 7 CE-S2-008 AI Lead Few-shot reducido 20% reducción tokens promedio Medio prompts/v1/</v>
       </c>
       <c r="W95" t="s">
         <v>784</v>
@@ -13686,10 +13786,10 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>21</v>
@@ -13698,13 +13798,13 @@
         <v>419</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>434</v>
       </c>
       <c r="G96" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>16</v>
@@ -13713,32 +13813,32 @@
         <v>74</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>48</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>111</v>
+        <v>334</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O96" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q96" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V96" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-004 Optimizar Prompts Reducir Tokens Sprint 5 Semana 7 2026-02-10 2026-02-11 2 P1 Pendiente AI Gate 7 CE-S2-008 AI Lead Few-shot reducido 20% reducción tokens promedio Medio prompts/v1/</v>
+        <v>CE-S7-005 Dashboard Costes por Proyecto Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Frontend Gate 7 CE-S5-012 Frontend Lead Breakdown costes operación/modelo coste real-time Bajo apps/web/src/components/CostDashboard.tsx</v>
       </c>
       <c r="W96" t="s">
         <v>785</v>
@@ -13746,10 +13846,10 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>21</v>
@@ -13773,32 +13873,32 @@
         <v>74</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>48</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q97" s="15">
         <v>2</v>
       </c>
       <c r="V97" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-005 Dashboard Costes por Proyecto Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Frontend Gate 7 CE-S5-012 Frontend Lead Breakdown costes operación/modelo coste real-time Bajo apps/web/src/components/CostDashboard.tsx</v>
+        <v>CE-S7-006 Batch Processing Múltiples Docs Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Backend Gate 7 CE-S3-006 Backend Lead 3 docs &lt;3x individual descuento contexto Medio apps/api/src/tasks/batch_processing.py</v>
       </c>
       <c r="W97" t="s">
         <v>786</v>
@@ -13806,10 +13906,10 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>21</v>
@@ -13818,10 +13918,10 @@
         <v>419</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G98" s="15">
         <v>1</v>
@@ -13833,32 +13933,32 @@
         <v>74</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O98" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P98" s="15" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q98" s="15">
         <v>2</v>
       </c>
       <c r="V98" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-006 Batch Processing Múltiples Docs Sprint 5 Semana 7 2026-02-11 2026-02-11 1 P1 Pendiente Backend Gate 7 CE-S3-006 Backend Lead 3 docs &lt;3x individual descuento contexto Medio apps/api/src/tasks/batch_processing.py</v>
+        <v>CE-S7-007 Prompt Generación RACI Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P1 Pendiente AI Gate 5 CE-S2-008 AI Lead Mapeo stakeholder WBS razonamiento RACI coherente Medio prompts/v1/raci_generation.md</v>
       </c>
       <c r="W98" t="s">
         <v>787</v>
@@ -13866,10 +13966,10 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>21</v>
@@ -13878,16 +13978,16 @@
         <v>419</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="G99" s="15">
         <v>1</v>
       </c>
-      <c r="H99" s="12" t="s">
-        <v>16</v>
+      <c r="H99" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="I99" s="15" t="s">
         <v>74</v>
@@ -13895,9 +13995,7 @@
       <c r="J99" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K99" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="K99" s="15"/>
       <c r="L99" s="15" t="s">
         <v>111</v>
       </c>
@@ -13905,20 +14003,20 @@
         <v>100</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q99" s="15">
         <v>2</v>
       </c>
       <c r="V99" t="str">
         <f t="shared" si="1"/>
-        <v>CE-S7-007 Prompt Generación RACI Sprint 5 Semana 7 2026-02-10 2026-02-10 1 P1 Pendiente AI Gate 5 CE-S2-008 AI Lead Mapeo stakeholder WBS razonamiento RACI coherente Medio prompts/v1/raci_generation.md</v>
+        <v>CE-S7-008 A/B Testing Prompts Framework Sprint 5 Semana 7 2026-02-12 2026-02-12 1 P2 Pendiente AI  CE-S2-008 AI Lead Framework comparar versiones métricas auto Bajo apps/api/src/ai/ab_testing.py</v>
       </c>
       <c r="W99" t="s">
         <v>788</v>
@@ -13926,10 +14024,10 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>21</v>
@@ -13946,8 +14044,8 @@
       <c r="G100" s="15">
         <v>1</v>
       </c>
-      <c r="H100" s="16" t="s">
-        <v>17</v>
+      <c r="H100" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I100" s="15" t="s">
         <v>74</v>
@@ -13955,39 +14053,34 @@
       <c r="J100" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K100" s="15"/>
+      <c r="K100" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="L100" s="15" t="s">
-        <v>111</v>
+        <v>456</v>
       </c>
       <c r="M100" s="15" t="s">
         <v>100</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="O100" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P100" s="15" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q100" s="15">
         <v>2</v>
       </c>
-      <c r="V100" t="str">
-        <f t="shared" si="1"/>
-        <v>CE-S7-008 A/B Testing Prompts Framework Sprint 5 Semana 7 2026-02-12 2026-02-12 1 P2 Pendiente AI  CE-S2-008 AI Lead Framework comparar versiones métricas auto Bajo apps/api/src/ai/ab_testing.py</v>
-      </c>
-      <c r="W100" t="s">
-        <v>789</v>
-      </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>21</v>
@@ -13996,13 +14089,13 @@
         <v>419</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="G101" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>16</v>
@@ -14011,36 +14104,36 @@
         <v>74</v>
       </c>
       <c r="J101" s="15" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="M101" s="15" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O101" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q101" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>21</v>
@@ -14049,16 +14142,16 @@
         <v>419</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>429</v>
       </c>
       <c r="G102" s="15">
-        <v>2</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>16</v>
+        <v>0.5</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I102" s="15" t="s">
         <v>74</v>
@@ -14066,34 +14159,32 @@
       <c r="J102" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K102" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="K102" s="15"/>
       <c r="L102" s="15" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="M102" s="15" t="s">
         <v>127</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q102" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>21</v>
@@ -14102,49 +14193,51 @@
         <v>419</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G103" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I103" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K103" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="L103" s="15" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="M103" s="15" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q103" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>21</v>
@@ -14153,51 +14246,49 @@
         <v>419</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G104" s="15">
-        <v>1</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>16</v>
+        <v>0.5</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I104" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K104" s="15" t="s">
-        <v>38</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K104" s="15"/>
       <c r="L104" s="15" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="M104" s="15" t="s">
         <v>77</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="O104" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q104" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>21</v>
@@ -14225,30 +14316,30 @@
       </c>
       <c r="K105" s="15"/>
       <c r="L105" s="15" t="s">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="M105" s="15" t="s">
         <v>77</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O105" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q105" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>21</v>
@@ -14257,103 +14348,103 @@
         <v>419</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="G106" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I106" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J106" s="15" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="15" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="M106" s="15" t="s">
         <v>77</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="O106" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P106" s="15" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q106" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="409.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="R106" s="24" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="G107" s="15">
         <v>1</v>
       </c>
-      <c r="H107" s="12" t="s">
-        <v>16</v>
+      <c r="H107" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="15" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="M107" s="15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="O107" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q107" s="15">
         <v>2</v>
       </c>
-      <c r="R107" s="24" t="s">
-        <v>698</v>
-      </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>21</v>
@@ -14379,21 +14470,23 @@
       <c r="J108" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K108" s="15"/>
+      <c r="K108" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="L108" s="15" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="M108" s="15" t="s">
         <v>93</v>
       </c>
       <c r="N108" s="15" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O108" s="15" t="s">
         <v>95</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q108" s="15">
         <v>2</v>
@@ -14401,10 +14494,10 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>21</v>
@@ -14413,51 +14506,49 @@
         <v>486</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G109" s="15">
-        <v>1</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>15</v>
+        <v>0.5</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I109" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J109" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>48</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K109" s="15"/>
       <c r="L109" s="15" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="M109" s="15" t="s">
         <v>93</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="O109" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P109" s="15" t="s">
         <v>493</v>
       </c>
       <c r="Q109" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>21</v>
@@ -14466,13 +14557,13 @@
         <v>486</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G110" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>16</v>
@@ -14488,27 +14579,27 @@
         <v>76</v>
       </c>
       <c r="M110" s="15" t="s">
-        <v>93</v>
+        <v>500</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="O110" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="Q110" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>21</v>
@@ -14523,7 +14614,7 @@
         <v>487</v>
       </c>
       <c r="G111" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>16</v>
@@ -14532,34 +14623,34 @@
         <v>74</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="K111" s="15"/>
       <c r="L111" s="15" t="s">
         <v>76</v>
       </c>
       <c r="M111" s="15" t="s">
-        <v>500</v>
+        <v>93</v>
       </c>
       <c r="N111" s="15" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="O111" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P111" s="15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q111" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>21</v>
@@ -14568,49 +14659,49 @@
         <v>486</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="G112" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I112" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="15" t="s">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q112" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>21</v>
@@ -14619,13 +14710,13 @@
         <v>486</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>509</v>
       </c>
       <c r="G113" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>15</v>
@@ -14638,30 +14729,30 @@
       </c>
       <c r="K113" s="15"/>
       <c r="L113" s="15" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M113" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="O113" s="15" t="s">
         <v>176</v>
       </c>
       <c r="P113" s="15" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="Q113" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>21</v>
@@ -14670,38 +14761,38 @@
         <v>486</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="G114" s="15">
         <v>1</v>
       </c>
-      <c r="H114" s="11" t="s">
-        <v>15</v>
+      <c r="H114" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I114" s="15" t="s">
         <v>74</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K114" s="15"/>
       <c r="L114" s="15" t="s">
-        <v>515</v>
+        <v>405</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>517</v>
+        <v>408</v>
       </c>
       <c r="Q114" s="15">
         <v>2</v>
@@ -14709,10 +14800,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>21</v>
@@ -14727,7 +14818,7 @@
         <v>496</v>
       </c>
       <c r="G115" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>16</v>
@@ -14736,34 +14827,34 @@
         <v>74</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="K115" s="15"/>
       <c r="L115" s="15" t="s">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N115" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="O115" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P115" s="15" t="s">
-        <v>408</v>
+        <v>524</v>
       </c>
       <c r="Q115" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>21</v>
@@ -14772,13 +14863,13 @@
         <v>486</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G116" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>16</v>
@@ -14787,34 +14878,34 @@
         <v>74</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="15" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="N116" s="15" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P116" s="15" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q116" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>21</v>
@@ -14842,30 +14933,30 @@
       </c>
       <c r="K117" s="15"/>
       <c r="L117" s="15" t="s">
-        <v>202</v>
+        <v>409</v>
       </c>
       <c r="M117" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N117" s="15" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O117" s="15" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="P117" s="15" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q117" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>21</v>
@@ -14874,16 +14965,16 @@
         <v>486</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>509</v>
       </c>
       <c r="G118" s="15">
-        <v>1</v>
-      </c>
-      <c r="H118" s="12" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I118" s="15" t="s">
         <v>74</v>
@@ -14893,81 +14984,83 @@
       </c>
       <c r="K118" s="15"/>
       <c r="L118" s="15" t="s">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="M118" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="O118" s="15" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P118" s="15" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Q118" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="G119" s="15">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="G119" s="17">
+        <v>1</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J119" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="M119" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="N119" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="O119" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P119" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q119" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J119" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="L119" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M119" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N119" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="O119" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P119" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q119" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>22</v>
@@ -14991,36 +15084,34 @@
         <v>74</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>542</v>
+        <v>41</v>
       </c>
       <c r="L120" s="17" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="M120" s="17" t="s">
-        <v>174</v>
+        <v>547</v>
       </c>
       <c r="N120" s="17" t="s">
-        <v>543</v>
+        <v>176</v>
       </c>
       <c r="O120" s="17" t="s">
-        <v>176</v>
+        <v>548</v>
       </c>
       <c r="P120" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q120" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="Q120" s="17"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>22</v>
@@ -15029,10 +15120,10 @@
         <v>540</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G121" s="17">
         <v>1</v>
@@ -15046,32 +15137,32 @@
       <c r="J121" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K121" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="K121" s="17"/>
       <c r="L121" s="17" t="s">
-        <v>143</v>
+        <v>513</v>
       </c>
       <c r="M121" s="17" t="s">
-        <v>547</v>
+        <v>146</v>
       </c>
       <c r="N121" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="O121" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="O121" s="17" t="s">
-        <v>548</v>
-      </c>
       <c r="P121" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q121" s="17"/>
+        <v>554</v>
+      </c>
+      <c r="Q121" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>22</v>
@@ -15095,23 +15186,25 @@
         <v>74</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K122" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="L122" s="17" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="M122" s="17" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="N122" s="17" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="O122" s="17" t="s">
-        <v>176</v>
+        <v>558</v>
       </c>
       <c r="P122" s="17" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q122" s="17">
         <v>2</v>
@@ -15119,10 +15212,10 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>22</v>
@@ -15131,10 +15224,10 @@
         <v>540</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G123" s="17">
         <v>1</v>
@@ -15146,36 +15239,32 @@
         <v>74</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="K123" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K123" s="17"/>
       <c r="L123" s="17" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="M123" s="17" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="N123" s="17" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="O123" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="P123" s="17" t="s">
-        <v>559</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P123" s="17"/>
       <c r="Q123" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>22</v>
@@ -15184,47 +15273,51 @@
         <v>540</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="F124" s="17" t="s">
         <v>562</v>
       </c>
       <c r="G124" s="17">
-        <v>1</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K124" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="K124" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="L124" s="17" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="M124" s="17" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="N124" s="17" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="O124" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="P124" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="P124" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="Q124" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>22</v>
@@ -15233,13 +15326,13 @@
         <v>540</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G125" s="17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>16</v>
@@ -15248,36 +15341,34 @@
         <v>74</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K125" s="17" t="s">
-        <v>41</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="K125" s="17"/>
       <c r="L125" s="17" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="M125" s="17" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="N125" s="17" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="O125" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P125" s="17" t="s">
-        <v>148</v>
+        <v>570</v>
       </c>
       <c r="Q125" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>22</v>
@@ -15286,16 +15377,16 @@
         <v>540</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G126" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H126" s="12" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="I126" s="17" t="s">
         <v>74</v>
@@ -15311,75 +15402,75 @@
         <v>77</v>
       </c>
       <c r="N126" s="17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O126" s="17" t="s">
         <v>79</v>
       </c>
       <c r="P126" s="17" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="Q126" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="G127" s="17">
-        <v>1</v>
-      </c>
-      <c r="H127" s="16" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>276</v>
+        <v>580</v>
       </c>
       <c r="K127" s="17"/>
       <c r="L127" s="17" t="s">
-        <v>76</v>
+        <v>560</v>
       </c>
       <c r="M127" s="17" t="s">
-        <v>77</v>
+        <v>581</v>
       </c>
       <c r="N127" s="17" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="O127" s="17" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P127" s="17" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="Q127" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>22</v>
@@ -15413,13 +15504,13 @@
         <v>581</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="O128" s="17" t="s">
         <v>176</v>
       </c>
       <c r="P128" s="17" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q128" s="17">
         <v>3</v>
@@ -15427,10 +15518,10 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>22</v>
@@ -15439,10 +15530,10 @@
         <v>577</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G129" s="17">
         <v>2</v>
@@ -15464,13 +15555,13 @@
         <v>581</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="O129" s="17" t="s">
         <v>176</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="Q129" s="17">
         <v>3</v>
@@ -15478,10 +15569,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>22</v>
@@ -15490,38 +15581,38 @@
         <v>577</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="G130" s="17">
         <v>2</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>15</v>
+      <c r="H130" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I130" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="K130" s="17"/>
       <c r="L130" s="17" t="s">
         <v>560</v>
       </c>
       <c r="M130" s="17" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="N130" s="17" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="O130" s="17" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="P130" s="17" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Q130" s="17">
         <v>3</v>
@@ -15529,10 +15620,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>22</v>
@@ -15541,13 +15632,13 @@
         <v>577</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G131" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>16</v>
@@ -15560,30 +15651,30 @@
       </c>
       <c r="K131" s="17"/>
       <c r="L131" s="17" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
       <c r="M131" s="17" t="s">
         <v>596</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="O131" s="17" t="s">
         <v>79</v>
       </c>
       <c r="P131" s="17" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="Q131" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>22</v>
@@ -15592,49 +15683,49 @@
         <v>577</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G132" s="17">
         <v>1</v>
       </c>
-      <c r="H132" s="12" t="s">
-        <v>16</v>
+      <c r="H132" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I132" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="K132" s="17"/>
       <c r="L132" s="17" t="s">
-        <v>471</v>
+        <v>605</v>
       </c>
       <c r="M132" s="17" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="O132" s="17" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P132" s="17" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q132" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>22</v>
@@ -15643,13 +15734,13 @@
         <v>577</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F133" s="17" t="s">
         <v>591</v>
       </c>
       <c r="G133" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133" s="11" t="s">
         <v>15</v>
@@ -15658,34 +15749,32 @@
         <v>74</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="K133" s="17"/>
       <c r="L133" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M133" s="17" t="s">
-        <v>581</v>
+        <v>500</v>
       </c>
       <c r="N133" s="17" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="O133" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="P133" s="17" t="s">
-        <v>607</v>
-      </c>
+      <c r="P133" s="17"/>
       <c r="Q133" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>22</v>
@@ -15694,106 +15783,57 @@
         <v>577</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="F134" s="17" t="s">
         <v>591</v>
       </c>
       <c r="G134" s="17">
-        <v>3</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>15</v>
+        <v>0.5</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="I134" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="K134" s="17"/>
       <c r="L134" s="17" t="s">
         <v>603</v>
       </c>
       <c r="M134" s="17" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="O134" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="P134" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="P134" s="17" t="s">
+        <v>614</v>
+      </c>
       <c r="Q134" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="G135" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="M135" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="N135" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="O135" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P135" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q135" s="17">
         <v>1</v>
       </c>
     </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C138" s="10"/>
+    </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C139" s="10"/>
+      <c r="B139" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q135" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Q134" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -15819,16 +15859,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -16296,16 +16336,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -17053,16 +17093,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -17894,16 +17934,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -18635,16 +18675,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
